--- a/doc/wpfPlayer_UDP_通信协议.xlsx
+++ b/doc/wpfPlayer_UDP_通信协议.xlsx
@@ -4,19 +4,22 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28695" windowHeight="13050" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="协议概述" sheetId="1" r:id="rId1"/>
+    <sheet name="功能码" sheetId="2" r:id="rId2"/>
+    <sheet name="RAM区" sheetId="3" r:id="rId3"/>
+    <sheet name="FLASH区" sheetId="4" r:id="rId4"/>
+    <sheet name="INFO区" sheetId="5" r:id="rId5"/>
+    <sheet name="PC区" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108">
   <si>
     <t>版本</t>
   </si>
@@ -220,6 +223,139 @@
   </si>
   <si>
     <t>FF 6C 00 0A 00 03 XX XX</t>
+  </si>
+  <si>
+    <t>功能码名称</t>
+  </si>
+  <si>
+    <t>功能码值</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>0x64</t>
+  </si>
+  <si>
+    <t>0x65</t>
+  </si>
+  <si>
+    <t>目前该功能未实现</t>
+  </si>
+  <si>
+    <t>0x66</t>
+  </si>
+  <si>
+    <t>0x67</t>
+  </si>
+  <si>
+    <t>0x68</t>
+  </si>
+  <si>
+    <t>0x69</t>
+  </si>
+  <si>
+    <t>0x6A</t>
+  </si>
+  <si>
+    <t>0x6B</t>
+  </si>
+  <si>
+    <t>0x6C</t>
+  </si>
+  <si>
+    <t>ram区特性</t>
+  </si>
+  <si>
+    <t>可以进行读写操作，同时掉电不保存，操作对应地址能够控制对应的硬件资源。</t>
+  </si>
+  <si>
+    <t>addr范围</t>
+  </si>
+  <si>
+    <t>0-255</t>
+  </si>
+  <si>
+    <t>len单次读写长度</t>
+  </si>
+  <si>
+    <t>len&lt;=32</t>
+  </si>
+  <si>
+    <t>地址</t>
+  </si>
+  <si>
+    <t>功能</t>
+  </si>
+  <si>
+    <t>一共6个字节的数据空间，分别D1、D2、D3、D4、D5、D6，分别对应1号缸到6号缸</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">三自由度只认为D1、D2、D3有效
+二自由度只认为D1、D3有效
+六自由度认为D1到D6有效
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>目前该数据未转发到485总线</t>
+    </r>
+  </si>
+  <si>
+    <t>保留</t>
+  </si>
+  <si>
+    <t>一共2个字节的数据空间，分别SPA，SPB，分别对应座椅特效和环境特效</t>
+  </si>
+  <si>
+    <t>目前该数据未转发到485总线</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>操作举例</t>
+  </si>
+  <si>
+    <t>flash区特性</t>
+  </si>
+  <si>
+    <t>可以进行读写操作，同时掉电保存，可用于记录注册信息及有效期信息，以及其他自定义数据。</t>
+  </si>
+  <si>
+    <t>一共32个字节的数据空间用于记录注册相关信息</t>
+  </si>
+  <si>
+    <t>对象id范围</t>
+  </si>
+  <si>
+    <t>对象 名称/描述</t>
+  </si>
+  <si>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>设备UUID</t>
+  </si>
+  <si>
+    <t>ASCII字符串</t>
+  </si>
+  <si>
+    <t>1-255</t>
+  </si>
+  <si>
+    <t>pc区特性</t>
+  </si>
+  <si>
+    <t>可以进行读写操作，同时掉电不保存，目前主要用于mcu上传数据到pc端。</t>
+  </si>
+  <si>
+    <t>一共4个字节的数据空间，分别D1，D2，D3，D4，分别对应时间码的时、分、秒、帧</t>
   </si>
 </sst>
 </file>
@@ -228,11 +364,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -242,7 +378,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,7 +393,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -271,8 +414,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -286,33 +468,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -333,14 +493,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -348,23 +508,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -377,15 +521,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -394,7 +537,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0" tint="-0.15"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -412,13 +555,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,79 +627,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -526,31 +663,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -562,19 +705,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -592,13 +729,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -627,6 +764,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -638,15 +799,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -666,6 +818,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -681,41 +853,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -732,10 +869,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -744,141 +881,159 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
@@ -896,11 +1051,17 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1255,8 +1416,8 @@
   <sheetPr/>
   <dimension ref="A1:E197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="F177" sqref="F177"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1349,7 +1510,7 @@
       <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C15" t="s">
@@ -1363,65 +1524,65 @@
       </c>
     </row>
     <row r="16" spans="2:5">
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="3">
+      <c r="D16" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="9">
         <v>255</v>
       </c>
     </row>
     <row r="17" spans="3:5">
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="4">
+      <c r="D17" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="10">
         <v>100</v>
       </c>
     </row>
     <row r="18" spans="3:5">
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="10">
         <v>123</v>
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" s="3" t="s">
+      <c r="D19" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="9" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="21" spans="2:4">
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="9" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="24" spans="2:5">
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="11" t="s">
         <v>31</v>
       </c>
       <c r="C24" t="s">
@@ -1435,65 +1596,65 @@
       </c>
     </row>
     <row r="25" spans="2:5">
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E25" s="3">
+      <c r="D25" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="9">
         <v>255</v>
       </c>
     </row>
     <row r="26" spans="3:5">
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E26" s="4">
+      <c r="D26" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="10">
         <v>100</v>
       </c>
     </row>
     <row r="27" spans="3:5">
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="10">
         <v>321</v>
       </c>
     </row>
     <row r="28" spans="3:5">
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D28" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E28" s="3" t="s">
+      <c r="D28" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="9" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="30" spans="2:4">
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="9" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="33" spans="2:5">
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C33" t="s">
@@ -1507,65 +1668,65 @@
       </c>
     </row>
     <row r="34" spans="2:5">
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D34" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E34" s="3">
+      <c r="D34" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" s="9">
         <v>255</v>
       </c>
     </row>
     <row r="35" spans="3:5">
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D35" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E35" s="4">
+      <c r="D35" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" s="10">
         <v>101</v>
       </c>
     </row>
     <row r="36" spans="3:5">
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D36" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E36" s="4" t="s">
+      <c r="D36" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36" s="10" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="37" spans="3:5">
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D37" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E37" s="3" t="s">
+      <c r="D37" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E37" s="9" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="39" spans="2:4">
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" s="9" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="42" spans="2:5">
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="11" t="s">
         <v>31</v>
       </c>
       <c r="C42" t="s">
@@ -1579,65 +1740,65 @@
       </c>
     </row>
     <row r="43" spans="2:5">
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E43" s="3">
+      <c r="D43" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E43" s="9">
         <v>255</v>
       </c>
     </row>
     <row r="44" spans="3:5">
-      <c r="C44" s="4" t="s">
+      <c r="C44" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D44" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E44" s="4">
+      <c r="D44" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E44" s="10">
         <v>100</v>
       </c>
     </row>
     <row r="45" spans="3:5">
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D45" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E45" s="4" t="s">
+      <c r="D45" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E45" s="10" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="46" spans="3:5">
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E46" s="3" t="s">
+      <c r="D46" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E46" s="9" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="48" spans="2:4">
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D48" s="9" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="51" spans="2:5">
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C51" t="s">
@@ -1654,73 +1815,73 @@
       <c r="B52" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C52" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E52" s="3">
+      <c r="D52" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E52" s="9">
         <v>255</v>
       </c>
     </row>
     <row r="53" spans="3:5">
-      <c r="C53" s="4" t="s">
+      <c r="C53" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D53" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E53" s="4">
+      <c r="D53" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E53" s="10">
         <v>102</v>
       </c>
     </row>
     <row r="54" spans="3:5">
-      <c r="C54" s="4" t="s">
+      <c r="C54" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D54" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E54" s="4">
+      <c r="D54" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E54" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="55" spans="3:5">
-      <c r="C55" s="4" t="s">
+      <c r="C55" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D55" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E55" s="4">
+      <c r="D55" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E55" s="10">
         <v>3</v>
       </c>
     </row>
     <row r="56" spans="3:5">
-      <c r="C56" s="3" t="s">
+      <c r="C56" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D56" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E56" s="3" t="s">
+      <c r="D56" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E56" s="9" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="58" spans="2:4">
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C58" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="D58" s="9" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="61" spans="2:5">
-      <c r="B61" s="5" t="s">
+      <c r="B61" s="11" t="s">
         <v>31</v>
       </c>
       <c r="C61" t="s">
@@ -1734,87 +1895,87 @@
       </c>
     </row>
     <row r="62" spans="2:5">
-      <c r="B62" s="6" t="s">
+      <c r="B62" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="C62" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E62" s="3">
+      <c r="D62" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E62" s="9">
         <v>255</v>
       </c>
     </row>
     <row r="63" spans="3:5">
-      <c r="C63" s="4" t="s">
+      <c r="C63" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D63" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E63" s="4">
+      <c r="D63" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E63" s="10">
         <v>102</v>
       </c>
     </row>
     <row r="64" spans="3:5">
-      <c r="C64" s="4" t="s">
+      <c r="C64" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D64" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E64" s="4">
+      <c r="D64" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E64" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="65" spans="3:5">
-      <c r="C65" s="4" t="s">
+      <c r="C65" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D65" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E65" s="4">
+      <c r="D65" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E65" s="10">
         <v>3</v>
       </c>
     </row>
     <row r="66" spans="3:5">
-      <c r="C66" s="4" t="s">
+      <c r="C66" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D66" s="4" t="s">
+      <c r="D66" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E66" s="4" t="s">
+      <c r="E66" s="10" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="67" spans="3:5">
-      <c r="C67" s="3" t="s">
+      <c r="C67" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D67" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E67" s="3" t="s">
+      <c r="D67" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E67" s="9" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="69" spans="2:4">
-      <c r="B69" s="3" t="s">
+      <c r="B69" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="C69" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D69" s="3" t="s">
+      <c r="D69" s="9" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="72" spans="2:5">
-      <c r="B72" s="1" t="s">
+      <c r="B72" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C72" t="s">
@@ -1831,84 +1992,84 @@
       <c r="B73" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="C73" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D73" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E73" s="3">
+      <c r="D73" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E73" s="9">
         <v>255</v>
       </c>
     </row>
     <row r="74" spans="3:5">
-      <c r="C74" s="4" t="s">
+      <c r="C74" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D74" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E74" s="4">
+      <c r="D74" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E74" s="10">
         <v>103</v>
       </c>
     </row>
     <row r="75" spans="3:5">
-      <c r="C75" s="4" t="s">
+      <c r="C75" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D75" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E75" s="4">
+      <c r="D75" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E75" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="76" spans="3:5">
-      <c r="C76" s="4" t="s">
+      <c r="C76" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D76" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E76" s="4">
+      <c r="D76" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E76" s="10">
         <v>3</v>
       </c>
     </row>
     <row r="77" spans="3:5">
-      <c r="C77" s="4" t="s">
+      <c r="C77" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D77" s="4" t="s">
+      <c r="D77" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E77" s="4" t="s">
+      <c r="E77" s="10" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="78" spans="3:5">
-      <c r="C78" s="3" t="s">
+      <c r="C78" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D78" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E78" s="3" t="s">
+      <c r="D78" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E78" s="9" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="80" spans="2:4">
-      <c r="B80" s="3" t="s">
+      <c r="B80" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="C80" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D80" s="3" t="s">
+      <c r="D80" s="9" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="83" spans="2:5">
-      <c r="B83" s="5" t="s">
+      <c r="B83" s="11" t="s">
         <v>31</v>
       </c>
       <c r="C83" t="s">
@@ -1922,76 +2083,76 @@
       </c>
     </row>
     <row r="84" spans="2:5">
-      <c r="B84" s="6" t="s">
+      <c r="B84" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="C84" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D84" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E84" s="3">
+      <c r="D84" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E84" s="9">
         <v>255</v>
       </c>
     </row>
     <row r="85" spans="3:5">
-      <c r="C85" s="4" t="s">
+      <c r="C85" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D85" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E85" s="4">
+      <c r="D85" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E85" s="10">
         <v>103</v>
       </c>
     </row>
     <row r="86" spans="3:5">
-      <c r="C86" s="4" t="s">
+      <c r="C86" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D86" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E86" s="4">
+      <c r="D86" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E86" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="87" spans="3:5">
-      <c r="C87" s="4" t="s">
+      <c r="C87" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D87" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E87" s="4">
+      <c r="D87" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E87" s="10">
         <v>3</v>
       </c>
     </row>
     <row r="88" spans="3:5">
-      <c r="C88" s="3" t="s">
+      <c r="C88" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D88" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E88" s="3" t="s">
+      <c r="D88" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E88" s="9" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="90" spans="2:4">
-      <c r="B90" s="3" t="s">
+      <c r="B90" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C90" s="3" t="s">
+      <c r="C90" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D90" s="3" t="s">
+      <c r="D90" s="9" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="93" spans="2:5">
-      <c r="B93" s="1" t="s">
+      <c r="B93" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C93" t="s">
@@ -2008,73 +2169,73 @@
       <c r="B94" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C94" s="3" t="s">
+      <c r="C94" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E94" s="3">
+      <c r="D94" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E94" s="9">
         <v>255</v>
       </c>
     </row>
     <row r="95" spans="3:5">
-      <c r="C95" s="4" t="s">
+      <c r="C95" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D95" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E95" s="4">
+      <c r="D95" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E95" s="10">
         <v>104</v>
       </c>
     </row>
     <row r="96" spans="3:5">
-      <c r="C96" s="4" t="s">
+      <c r="C96" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D96" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E96" s="4">
+      <c r="D96" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E96" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="97" spans="3:5">
-      <c r="C97" s="4" t="s">
+      <c r="C97" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D97" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E97" s="4">
+      <c r="D97" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E97" s="10">
         <v>3</v>
       </c>
     </row>
     <row r="98" spans="3:5">
-      <c r="C98" s="3" t="s">
+      <c r="C98" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D98" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E98" s="3" t="s">
+      <c r="D98" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E98" s="9" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="100" spans="2:4">
-      <c r="B100" s="3" t="s">
+      <c r="B100" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C100" s="3" t="s">
+      <c r="C100" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D100" s="3" t="s">
+      <c r="D100" s="9" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="103" spans="2:5">
-      <c r="B103" s="5" t="s">
+      <c r="B103" s="11" t="s">
         <v>31</v>
       </c>
       <c r="C103" t="s">
@@ -2088,87 +2249,87 @@
       </c>
     </row>
     <row r="104" spans="2:5">
-      <c r="B104" s="6" t="s">
+      <c r="B104" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="C104" s="3" t="s">
+      <c r="C104" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D104" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E104" s="3">
+      <c r="D104" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E104" s="9">
         <v>255</v>
       </c>
     </row>
     <row r="105" spans="3:5">
-      <c r="C105" s="4" t="s">
+      <c r="C105" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D105" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E105" s="4">
+      <c r="D105" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E105" s="10">
         <v>104</v>
       </c>
     </row>
     <row r="106" spans="3:5">
-      <c r="C106" s="4" t="s">
+      <c r="C106" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D106" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E106" s="4">
+      <c r="D106" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E106" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="107" spans="3:5">
-      <c r="C107" s="4" t="s">
+      <c r="C107" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D107" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E107" s="4">
+      <c r="D107" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E107" s="10">
         <v>3</v>
       </c>
     </row>
     <row r="108" spans="3:5">
-      <c r="C108" s="4" t="s">
+      <c r="C108" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D108" s="4" t="s">
+      <c r="D108" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E108" s="4" t="s">
+      <c r="E108" s="10" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="109" spans="3:5">
-      <c r="C109" s="3" t="s">
+      <c r="C109" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D109" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E109" s="3" t="s">
+      <c r="D109" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E109" s="9" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="111" spans="2:4">
-      <c r="B111" s="3" t="s">
+      <c r="B111" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C111" s="3" t="s">
+      <c r="C111" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D111" s="3" t="s">
+      <c r="D111" s="9" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="114" spans="2:5">
-      <c r="B114" s="1" t="s">
+      <c r="B114" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C114" t="s">
@@ -2185,84 +2346,84 @@
       <c r="B115" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C115" s="3" t="s">
+      <c r="C115" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D115" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E115" s="3">
+      <c r="D115" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E115" s="9">
         <v>255</v>
       </c>
     </row>
     <row r="116" spans="3:5">
-      <c r="C116" s="4" t="s">
+      <c r="C116" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D116" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E116" s="4">
+      <c r="D116" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E116" s="10">
         <v>105</v>
       </c>
     </row>
     <row r="117" spans="3:5">
-      <c r="C117" s="4" t="s">
+      <c r="C117" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D117" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E117" s="4">
+      <c r="D117" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E117" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="118" spans="3:5">
-      <c r="C118" s="4" t="s">
+      <c r="C118" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D118" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E118" s="4">
+      <c r="D118" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E118" s="10">
         <v>3</v>
       </c>
     </row>
     <row r="119" spans="3:5">
-      <c r="C119" s="4" t="s">
+      <c r="C119" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D119" s="4" t="s">
+      <c r="D119" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E119" s="4" t="s">
+      <c r="E119" s="10" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="120" spans="3:5">
-      <c r="C120" s="3" t="s">
+      <c r="C120" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D120" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E120" s="3" t="s">
+      <c r="D120" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E120" s="9" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="122" spans="2:4">
-      <c r="B122" s="3" t="s">
+      <c r="B122" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C122" s="3" t="s">
+      <c r="C122" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D122" s="3" t="s">
+      <c r="D122" s="9" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="125" spans="2:5">
-      <c r="B125" s="5" t="s">
+      <c r="B125" s="11" t="s">
         <v>31</v>
       </c>
       <c r="C125" t="s">
@@ -2276,76 +2437,76 @@
       </c>
     </row>
     <row r="126" spans="2:5">
-      <c r="B126" s="6" t="s">
+      <c r="B126" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C126" s="3" t="s">
+      <c r="C126" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D126" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E126" s="3">
+      <c r="D126" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E126" s="9">
         <v>255</v>
       </c>
     </row>
     <row r="127" spans="3:5">
-      <c r="C127" s="4" t="s">
+      <c r="C127" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D127" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E127" s="4">
+      <c r="D127" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E127" s="10">
         <v>105</v>
       </c>
     </row>
     <row r="128" spans="3:5">
-      <c r="C128" s="4" t="s">
+      <c r="C128" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D128" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E128" s="4">
+      <c r="D128" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E128" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="129" spans="3:5">
-      <c r="C129" s="4" t="s">
+      <c r="C129" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D129" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E129" s="4">
+      <c r="D129" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E129" s="10">
         <v>3</v>
       </c>
     </row>
     <row r="130" spans="3:5">
-      <c r="C130" s="3" t="s">
+      <c r="C130" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D130" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E130" s="3" t="s">
+      <c r="D130" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E130" s="9" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="132" spans="2:4">
-      <c r="B132" s="3" t="s">
+      <c r="B132" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C132" s="3" t="s">
+      <c r="C132" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D132" s="3" t="s">
+      <c r="D132" s="9" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="135" spans="2:5">
-      <c r="B135" s="1" t="s">
+      <c r="B135" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C135" t="s">
@@ -2362,62 +2523,62 @@
       <c r="B136" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C136" s="3" t="s">
+      <c r="C136" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D136" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E136" s="3">
+      <c r="D136" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E136" s="9">
         <v>255</v>
       </c>
     </row>
     <row r="137" spans="3:5">
-      <c r="C137" s="4" t="s">
+      <c r="C137" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D137" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E137" s="4">
+      <c r="D137" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E137" s="10">
         <v>106</v>
       </c>
     </row>
     <row r="138" spans="3:5">
-      <c r="C138" s="4" t="s">
+      <c r="C138" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="D138" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E138" s="4">
+      <c r="D138" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E138" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="139" spans="3:5">
-      <c r="C139" s="3" t="s">
+      <c r="C139" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D139" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E139" s="3" t="s">
+      <c r="D139" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E139" s="9" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="141" spans="2:4">
-      <c r="B141" s="3" t="s">
+      <c r="B141" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C141" s="3" t="s">
+      <c r="C141" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D141" s="3" t="s">
+      <c r="D141" s="9" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="144" spans="2:5">
-      <c r="B144" s="5" t="s">
+      <c r="B144" s="11" t="s">
         <v>31</v>
       </c>
       <c r="C144" t="s">
@@ -2431,82 +2592,82 @@
       </c>
     </row>
     <row r="145" spans="2:5">
-      <c r="B145" s="6" t="s">
+      <c r="B145" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C145" s="3" t="s">
+      <c r="C145" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D145" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E145" s="3">
+      <c r="D145" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E145" s="9">
         <v>255</v>
       </c>
     </row>
     <row r="146" spans="3:5">
-      <c r="C146" s="4" t="s">
+      <c r="C146" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D146" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E146" s="4">
+      <c r="D146" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E146" s="10">
         <v>106</v>
       </c>
     </row>
     <row r="147" spans="3:5">
-      <c r="C147" s="4" t="s">
+      <c r="C147" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="D147" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E147" s="4">
+      <c r="D147" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E147" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="148" spans="3:5">
-      <c r="C148" s="4" t="s">
+      <c r="C148" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D148" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E148" s="4">
+      <c r="D148" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E148" s="10">
         <v>12</v>
       </c>
     </row>
     <row r="149" spans="3:5">
-      <c r="C149" s="4" t="s">
+      <c r="C149" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="D149" s="4" t="s">
+      <c r="D149" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E149" s="4" t="s">
+      <c r="E149" s="10" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="150" spans="3:5">
-      <c r="C150" s="3" t="s">
+      <c r="C150" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D150" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E150" s="3" t="s">
+      <c r="D150" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E150" s="9" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="152" ht="27" spans="2:4">
-      <c r="B152" s="3" t="s">
+      <c r="B152" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C152" s="9" t="s">
+      <c r="C152" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="D152" s="3" t="s">
+      <c r="D152" s="9" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2514,7 +2675,7 @@
       <c r="A158" t="s">
         <v>61</v>
       </c>
-      <c r="B158" s="1" t="s">
+      <c r="B158" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C158" t="s">
@@ -2531,73 +2692,73 @@
       <c r="B159" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C159" s="3" t="s">
+      <c r="C159" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D159" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E159" s="3">
+      <c r="D159" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E159" s="9">
         <v>255</v>
       </c>
     </row>
     <row r="160" spans="3:5">
-      <c r="C160" s="4" t="s">
+      <c r="C160" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D160" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E160" s="4">
+      <c r="D160" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E160" s="10">
         <v>107</v>
       </c>
     </row>
     <row r="161" spans="3:5">
-      <c r="C161" s="4" t="s">
+      <c r="C161" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D161" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E161" s="4">
+      <c r="D161" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E161" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="162" spans="3:5">
-      <c r="C162" s="4" t="s">
+      <c r="C162" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D162" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E162" s="4">
+      <c r="D162" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E162" s="10">
         <v>3</v>
       </c>
     </row>
     <row r="163" spans="3:5">
-      <c r="C163" s="3" t="s">
+      <c r="C163" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D163" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E163" s="3" t="s">
+      <c r="D163" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E163" s="9" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="165" spans="2:4">
-      <c r="B165" s="3" t="s">
+      <c r="B165" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C165" s="3" t="s">
+      <c r="C165" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D165" s="3" t="s">
+      <c r="D165" s="9" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="168" spans="2:5">
-      <c r="B168" s="5" t="s">
+      <c r="B168" s="11" t="s">
         <v>31</v>
       </c>
       <c r="C168" t="s">
@@ -2611,87 +2772,87 @@
       </c>
     </row>
     <row r="169" spans="2:5">
-      <c r="B169" s="6" t="s">
+      <c r="B169" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="C169" s="3" t="s">
+      <c r="C169" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D169" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E169" s="3">
+      <c r="D169" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E169" s="9">
         <v>255</v>
       </c>
     </row>
     <row r="170" spans="3:5">
-      <c r="C170" s="4" t="s">
+      <c r="C170" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D170" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E170" s="4">
+      <c r="D170" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E170" s="10">
         <v>107</v>
       </c>
     </row>
     <row r="171" spans="3:5">
-      <c r="C171" s="4" t="s">
+      <c r="C171" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D171" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E171" s="4">
+      <c r="D171" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E171" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="172" spans="3:5">
-      <c r="C172" s="4" t="s">
+      <c r="C172" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D172" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E172" s="4">
+      <c r="D172" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E172" s="10">
         <v>3</v>
       </c>
     </row>
     <row r="173" spans="3:5">
-      <c r="C173" s="4" t="s">
+      <c r="C173" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D173" s="4" t="s">
+      <c r="D173" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E173" s="4" t="s">
+      <c r="E173" s="10" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="174" spans="3:5">
-      <c r="C174" s="3" t="s">
+      <c r="C174" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D174" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E174" s="3" t="s">
+      <c r="D174" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E174" s="9" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="176" spans="2:4">
-      <c r="B176" s="3" t="s">
+      <c r="B176" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C176" s="3" t="s">
+      <c r="C176" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="D176" s="3" t="s">
+      <c r="D176" s="9" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="179" spans="2:5">
-      <c r="B179" s="1" t="s">
+      <c r="B179" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C179" t="s">
@@ -2708,84 +2869,84 @@
       <c r="B180" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C180" s="3" t="s">
+      <c r="C180" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D180" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E180" s="3">
+      <c r="D180" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E180" s="9">
         <v>255</v>
       </c>
     </row>
     <row r="181" spans="3:5">
-      <c r="C181" s="4" t="s">
+      <c r="C181" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D181" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E181" s="4">
+      <c r="D181" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E181" s="10">
         <v>108</v>
       </c>
     </row>
     <row r="182" spans="3:5">
-      <c r="C182" s="4" t="s">
+      <c r="C182" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D182" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E182" s="4">
+      <c r="D182" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E182" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="183" spans="3:5">
-      <c r="C183" s="4" t="s">
+      <c r="C183" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D183" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E183" s="4">
+      <c r="D183" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E183" s="10">
         <v>3</v>
       </c>
     </row>
     <row r="184" spans="3:5">
-      <c r="C184" s="4" t="s">
+      <c r="C184" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D184" s="4" t="s">
+      <c r="D184" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E184" s="4" t="s">
+      <c r="E184" s="10" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="185" spans="3:5">
-      <c r="C185" s="3" t="s">
+      <c r="C185" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D185" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E185" s="3" t="s">
+      <c r="D185" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E185" s="9" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="187" spans="2:4">
-      <c r="B187" s="3" t="s">
+      <c r="B187" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C187" s="3" t="s">
+      <c r="C187" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D187" s="3" t="s">
+      <c r="D187" s="9" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="190" spans="2:5">
-      <c r="B190" s="5" t="s">
+      <c r="B190" s="11" t="s">
         <v>31</v>
       </c>
       <c r="C190" t="s">
@@ -2799,71 +2960,71 @@
       </c>
     </row>
     <row r="191" spans="2:5">
-      <c r="B191" s="6" t="s">
+      <c r="B191" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="C191" s="3" t="s">
+      <c r="C191" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D191" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E191" s="3">
+      <c r="D191" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E191" s="9">
         <v>255</v>
       </c>
     </row>
     <row r="192" spans="3:5">
-      <c r="C192" s="4" t="s">
+      <c r="C192" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D192" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E192" s="4">
+      <c r="D192" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E192" s="10">
         <v>108</v>
       </c>
     </row>
     <row r="193" spans="3:5">
-      <c r="C193" s="4" t="s">
+      <c r="C193" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D193" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E193" s="4">
+      <c r="D193" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E193" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="194" spans="3:5">
-      <c r="C194" s="4" t="s">
+      <c r="C194" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D194" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E194" s="4">
+      <c r="D194" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E194" s="10">
         <v>3</v>
       </c>
     </row>
     <row r="195" spans="3:5">
-      <c r="C195" s="3" t="s">
+      <c r="C195" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D195" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E195" s="3" t="s">
+      <c r="D195" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E195" s="9" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="197" spans="2:4">
-      <c r="B197" s="3" t="s">
+      <c r="B197" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C197" s="3" t="s">
+      <c r="C197" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D197" s="3" t="s">
+      <c r="D197" s="9" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2877,14 +3038,149 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="B3:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:5">
+      <c r="B3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="10">
+        <v>100</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="10">
+        <v>101</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="10">
+        <v>102</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="10">
+        <v>103</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="10">
+        <v>104</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="10">
+        <v>105</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="10">
+        <v>106</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="10">
+        <v>107</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="10">
+        <v>108</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -2894,16 +3190,1472 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="B3:E58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="2" max="2" width="16.375" customWidth="1"/>
+    <col min="3" max="3" width="35.25" customWidth="1"/>
+    <col min="4" max="4" width="22.5" customWidth="1"/>
+    <col min="5" max="5" width="29.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" ht="27" spans="2:3">
+      <c r="B3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" ht="54" spans="2:5">
+      <c r="B8" s="3">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3">
+        <v>6</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="5">
+        <v>6</v>
+      </c>
+      <c r="C9" s="5">
+        <v>2</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" ht="40.5" spans="2:5">
+      <c r="B10" s="3">
+        <v>8</v>
+      </c>
+      <c r="C10" s="3">
+        <v>2</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" s="5">
+        <v>10</v>
+      </c>
+      <c r="C11" s="5">
+        <v>6</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="5">
+        <v>16</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="15"/>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="15"/>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="15"/>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="9">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5">
+      <c r="C21" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="10">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5">
+      <c r="C22" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5">
+      <c r="C23" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5">
+      <c r="C24" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="B29" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="B30" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="9">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="31" spans="3:5">
+      <c r="C31" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" s="10">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="32" spans="3:5">
+      <c r="C32" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E32" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5">
+      <c r="C33" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E33" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5">
+      <c r="C34" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5">
+      <c r="C35" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4">
+      <c r="B37" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5">
+      <c r="B40" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" t="s">
+        <v>17</v>
+      </c>
+      <c r="E40" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5">
+      <c r="B41" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E41" s="9">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5">
+      <c r="C42" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E42" s="10">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="43" spans="3:5">
+      <c r="C43" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E43" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="3:5">
+      <c r="C44" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E44" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="3:5">
+      <c r="C45" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="3:5">
+      <c r="C46" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4">
+      <c r="B48" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5">
+      <c r="B51" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C51" t="s">
+        <v>16</v>
+      </c>
+      <c r="D51" t="s">
+        <v>17</v>
+      </c>
+      <c r="E51" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5">
+      <c r="B52" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E52" s="9">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="53" spans="3:5">
+      <c r="C53" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E53" s="10">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="54" spans="3:5">
+      <c r="C54" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E54" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="3:5">
+      <c r="C55" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E55" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="3:5">
+      <c r="C56" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4">
+      <c r="B58" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B3:E55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="2" max="2" width="18.125" customWidth="1"/>
+    <col min="3" max="3" width="36.25" customWidth="1"/>
+    <col min="4" max="4" width="20.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" ht="40.5" spans="2:3">
+      <c r="B3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" ht="40.5" spans="2:4">
+      <c r="B8" s="3">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3">
+        <v>32</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" s="5">
+        <v>32</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="9">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5">
+      <c r="C18" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="10">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5">
+      <c r="C19" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5">
+      <c r="C20" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5">
+      <c r="C21" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" s="9">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5">
+      <c r="C28" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" s="10">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5">
+      <c r="C29" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5">
+      <c r="C30" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="3:5">
+      <c r="C31" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="3:5">
+      <c r="C32" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5">
+      <c r="B37" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" t="s">
+        <v>17</v>
+      </c>
+      <c r="E37" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5">
+      <c r="B38" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E38" s="9">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5">
+      <c r="C39" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E39" s="10">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5">
+      <c r="C40" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E40" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5">
+      <c r="C41" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E41" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5">
+      <c r="C42" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="3:5">
+      <c r="C43" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4">
+      <c r="B45" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5">
+      <c r="B48" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C48" t="s">
+        <v>16</v>
+      </c>
+      <c r="D48" t="s">
+        <v>17</v>
+      </c>
+      <c r="E48" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5">
+      <c r="B49" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E49" s="9">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="50" spans="3:5">
+      <c r="C50" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E50" s="10">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="51" spans="3:5">
+      <c r="C51" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E51" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="3:5">
+      <c r="C52" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E52" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:5">
+      <c r="C53" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4">
+      <c r="B55" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B3:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
+  <cols>
+    <col min="2" max="2" width="19.375" customWidth="1"/>
+    <col min="3" max="3" width="36.875" customWidth="1"/>
+    <col min="4" max="4" width="20.25" customWidth="1"/>
+    <col min="5" max="5" width="21.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" ht="40.5" spans="2:3">
+      <c r="B3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B3:E56"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="2" max="2" width="14.375" customWidth="1"/>
+    <col min="3" max="3" width="37" customWidth="1"/>
+    <col min="4" max="4" width="22.375" customWidth="1"/>
+    <col min="5" max="5" width="27.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" ht="27" spans="2:3">
+      <c r="B3" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" ht="54" spans="2:5">
+      <c r="B8" s="3">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3">
+        <v>4</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="5">
+        <v>4</v>
+      </c>
+      <c r="C9" s="5">
+        <v>4</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" s="5">
+        <v>8</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="9">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5">
+      <c r="C19" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="10">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5">
+      <c r="C20" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5">
+      <c r="C21" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5">
+      <c r="C22" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="B28" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" s="9">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5">
+      <c r="C29" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" s="10">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5">
+      <c r="C30" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="3:5">
+      <c r="C31" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="3:5">
+      <c r="C32" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5">
+      <c r="C33" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="B35" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5">
+      <c r="B38" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" t="s">
+        <v>17</v>
+      </c>
+      <c r="E38" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5">
+      <c r="B39" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E39" s="9">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5">
+      <c r="C40" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E40" s="10">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5">
+      <c r="C41" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E41" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5">
+      <c r="C42" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E42" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="3:5">
+      <c r="C43" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="3:5">
+      <c r="C44" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4">
+      <c r="B46" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5">
+      <c r="B49" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C49" t="s">
+        <v>16</v>
+      </c>
+      <c r="D49" t="s">
+        <v>17</v>
+      </c>
+      <c r="E49" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5">
+      <c r="B50" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E50" s="9">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="51" spans="3:5">
+      <c r="C51" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E51" s="10">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="52" spans="3:5">
+      <c r="C52" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E52" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="3:5">
+      <c r="C53" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E53" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="3:5">
+      <c r="C54" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4">
+      <c r="B56" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/doc/wpfPlayer_UDP_通信协议.xlsx
+++ b/doc/wpfPlayer_UDP_通信协议.xlsx
@@ -4,22 +4,23 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" activeTab="2"/>
+    <workbookView windowWidth="14295" windowHeight="12630" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="协议概述" sheetId="1" r:id="rId1"/>
     <sheet name="功能码" sheetId="2" r:id="rId2"/>
-    <sheet name="RAM区" sheetId="3" r:id="rId3"/>
-    <sheet name="FLASH区" sheetId="4" r:id="rId4"/>
-    <sheet name="INFO区" sheetId="5" r:id="rId5"/>
-    <sheet name="PC区" sheetId="6" r:id="rId6"/>
+    <sheet name="地址域" sheetId="7" r:id="rId3"/>
+    <sheet name="RAM区" sheetId="3" r:id="rId4"/>
+    <sheet name="FLASH区" sheetId="4" r:id="rId5"/>
+    <sheet name="INFO区" sheetId="5" r:id="rId6"/>
+    <sheet name="PC区" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121">
   <si>
     <t>版本</t>
   </si>
@@ -262,6 +263,98 @@
   </si>
   <si>
     <t>0x6C</t>
+  </si>
+  <si>
+    <t>地址域名称</t>
+  </si>
+  <si>
+    <t>地址域值</t>
+  </si>
+  <si>
+    <t>id_broadcast</t>
+  </si>
+  <si>
+    <t>0x00</t>
+  </si>
+  <si>
+    <r>
+      <t>广播地址（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>广播操作均不应答</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <t>id_reserve</t>
+  </si>
+  <si>
+    <t>0xff</t>
+  </si>
+  <si>
+    <r>
+      <t>串口板地址（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>单播操作带应答</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <t>id_slave</t>
+  </si>
+  <si>
+    <t>1-254</t>
+  </si>
+  <si>
+    <t>0x01-0xfe</t>
+  </si>
+  <si>
+    <r>
+      <t>座椅板地址（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>单播操作带应答</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
   </si>
   <si>
     <t>ram区特性</t>
@@ -301,6 +394,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>目前该数据未转发到485总线</t>
@@ -356,6 +450,9 @@
   </si>
   <si>
     <t>一共4个字节的数据空间，分别D1，D2，D3，D4，分别对应时间码的时、分、秒、帧</t>
+  </si>
+  <si>
+    <t>连接成功后会每50ms发送一次写命令（目前该功能为自增的虚拟时间码）</t>
   </si>
 </sst>
 </file>
@@ -368,7 +465,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -379,6 +476,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -527,6 +630,12 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -574,12 +683,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -633,12 +736,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -646,12 +743,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -699,12 +790,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -712,6 +797,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -735,7 +826,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -869,10 +978,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -881,137 +990,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1024,8 +1133,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1039,9 +1148,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1049,6 +1155,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1063,8 +1172,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1527,62 +1642,62 @@
       <c r="B16" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="9">
+      <c r="D16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="1">
         <v>255</v>
       </c>
     </row>
     <row r="17" spans="3:5">
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="10">
+      <c r="D17" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="9">
         <v>100</v>
       </c>
     </row>
     <row r="18" spans="3:5">
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E18" s="9">
         <v>123</v>
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" s="9" t="s">
+      <c r="D19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="21" spans="2:4">
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="24" spans="2:5">
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="10" t="s">
         <v>31</v>
       </c>
       <c r="C24" t="s">
@@ -1596,60 +1711,60 @@
       </c>
     </row>
     <row r="25" spans="2:5">
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E25" s="9">
+      <c r="D25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="1">
         <v>255</v>
       </c>
     </row>
     <row r="26" spans="3:5">
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E26" s="10">
+      <c r="D26" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="9">
         <v>100</v>
       </c>
     </row>
     <row r="27" spans="3:5">
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E27" s="10">
+      <c r="E27" s="9">
         <v>321</v>
       </c>
     </row>
     <row r="28" spans="3:5">
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D28" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E28" s="9" t="s">
+      <c r="D28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="30" spans="2:4">
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="1" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1671,62 +1786,62 @@
       <c r="B34" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D34" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E34" s="9">
+      <c r="D34" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" s="1">
         <v>255</v>
       </c>
     </row>
     <row r="35" spans="3:5">
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D35" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E35" s="10">
+      <c r="D35" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" s="9">
         <v>101</v>
       </c>
     </row>
     <row r="36" spans="3:5">
-      <c r="C36" s="10" t="s">
+      <c r="C36" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D36" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E36" s="10" t="s">
+      <c r="D36" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36" s="9" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="37" spans="3:5">
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D37" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E37" s="9" t="s">
+      <c r="D37" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="39" spans="2:4">
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D39" s="9" t="s">
+      <c r="D39" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="42" spans="2:5">
-      <c r="B42" s="11" t="s">
+      <c r="B42" s="10" t="s">
         <v>31</v>
       </c>
       <c r="C42" t="s">
@@ -1740,60 +1855,60 @@
       </c>
     </row>
     <row r="43" spans="2:5">
-      <c r="B43" s="12" t="s">
+      <c r="B43" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="C43" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D43" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E43" s="9">
+      <c r="D43" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E43" s="1">
         <v>255</v>
       </c>
     </row>
     <row r="44" spans="3:5">
-      <c r="C44" s="10" t="s">
+      <c r="C44" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D44" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E44" s="10">
+      <c r="D44" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E44" s="9">
         <v>100</v>
       </c>
     </row>
     <row r="45" spans="3:5">
-      <c r="C45" s="10" t="s">
+      <c r="C45" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D45" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E45" s="10" t="s">
+      <c r="D45" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E45" s="9" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="46" spans="3:5">
-      <c r="C46" s="9" t="s">
+      <c r="C46" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D46" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E46" s="9" t="s">
+      <c r="D46" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E46" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="48" spans="2:4">
-      <c r="B48" s="9" t="s">
+      <c r="B48" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C48" s="9" t="s">
+      <c r="C48" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D48" s="9" t="s">
+      <c r="D48" s="1" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1815,73 +1930,73 @@
       <c r="B52" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C52" s="9" t="s">
+      <c r="C52" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D52" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E52" s="9">
+      <c r="D52" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E52" s="1">
         <v>255</v>
       </c>
     </row>
     <row r="53" spans="3:5">
-      <c r="C53" s="10" t="s">
+      <c r="C53" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D53" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E53" s="10">
+      <c r="D53" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E53" s="9">
         <v>102</v>
       </c>
     </row>
     <row r="54" spans="3:5">
-      <c r="C54" s="10" t="s">
+      <c r="C54" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D54" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E54" s="10">
+      <c r="D54" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E54" s="9">
         <v>10</v>
       </c>
     </row>
     <row r="55" spans="3:5">
-      <c r="C55" s="10" t="s">
+      <c r="C55" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D55" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E55" s="10">
+      <c r="D55" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E55" s="9">
         <v>3</v>
       </c>
     </row>
     <row r="56" spans="3:5">
-      <c r="C56" s="9" t="s">
+      <c r="C56" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D56" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E56" s="9" t="s">
+      <c r="D56" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E56" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="58" spans="2:4">
-      <c r="B58" s="9" t="s">
+      <c r="B58" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C58" s="9" t="s">
+      <c r="C58" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D58" s="9" t="s">
+      <c r="D58" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="61" spans="2:5">
-      <c r="B61" s="11" t="s">
+      <c r="B61" s="10" t="s">
         <v>31</v>
       </c>
       <c r="C61" t="s">
@@ -1895,82 +2010,82 @@
       </c>
     </row>
     <row r="62" spans="2:5">
-      <c r="B62" s="12" t="s">
+      <c r="B62" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C62" s="9" t="s">
+      <c r="C62" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D62" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E62" s="9">
+      <c r="D62" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E62" s="1">
         <v>255</v>
       </c>
     </row>
     <row r="63" spans="3:5">
-      <c r="C63" s="10" t="s">
+      <c r="C63" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D63" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E63" s="10">
+      <c r="D63" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E63" s="9">
         <v>102</v>
       </c>
     </row>
     <row r="64" spans="3:5">
-      <c r="C64" s="10" t="s">
+      <c r="C64" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D64" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E64" s="10">
+      <c r="D64" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E64" s="9">
         <v>10</v>
       </c>
     </row>
     <row r="65" spans="3:5">
-      <c r="C65" s="10" t="s">
+      <c r="C65" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D65" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E65" s="10">
+      <c r="D65" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E65" s="9">
         <v>3</v>
       </c>
     </row>
     <row r="66" spans="3:5">
-      <c r="C66" s="10" t="s">
+      <c r="C66" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D66" s="10" t="s">
+      <c r="D66" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E66" s="10" t="s">
+      <c r="E66" s="9" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="67" spans="3:5">
-      <c r="C67" s="9" t="s">
+      <c r="C67" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D67" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E67" s="9" t="s">
+      <c r="D67" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E67" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="69" spans="2:4">
-      <c r="B69" s="9" t="s">
+      <c r="B69" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C69" s="9" t="s">
+      <c r="C69" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D69" s="9" t="s">
+      <c r="D69" s="1" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1992,84 +2107,84 @@
       <c r="B73" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C73" s="9" t="s">
+      <c r="C73" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D73" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E73" s="9">
+      <c r="D73" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E73" s="1">
         <v>255</v>
       </c>
     </row>
     <row r="74" spans="3:5">
-      <c r="C74" s="10" t="s">
+      <c r="C74" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D74" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E74" s="10">
+      <c r="D74" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E74" s="9">
         <v>103</v>
       </c>
     </row>
     <row r="75" spans="3:5">
-      <c r="C75" s="10" t="s">
+      <c r="C75" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D75" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E75" s="10">
+      <c r="D75" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E75" s="9">
         <v>10</v>
       </c>
     </row>
     <row r="76" spans="3:5">
-      <c r="C76" s="10" t="s">
+      <c r="C76" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D76" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E76" s="10">
+      <c r="D76" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E76" s="9">
         <v>3</v>
       </c>
     </row>
     <row r="77" spans="3:5">
-      <c r="C77" s="10" t="s">
+      <c r="C77" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D77" s="10" t="s">
+      <c r="D77" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E77" s="10" t="s">
+      <c r="E77" s="9" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="78" spans="3:5">
-      <c r="C78" s="9" t="s">
+      <c r="C78" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D78" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E78" s="9" t="s">
+      <c r="D78" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E78" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="80" spans="2:4">
-      <c r="B80" s="9" t="s">
+      <c r="B80" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C80" s="9" t="s">
+      <c r="C80" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D80" s="9" t="s">
+      <c r="D80" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="83" spans="2:5">
-      <c r="B83" s="11" t="s">
+      <c r="B83" s="10" t="s">
         <v>31</v>
       </c>
       <c r="C83" t="s">
@@ -2083,71 +2198,71 @@
       </c>
     </row>
     <row r="84" spans="2:5">
-      <c r="B84" s="12" t="s">
+      <c r="B84" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C84" s="9" t="s">
+      <c r="C84" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D84" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E84" s="9">
+      <c r="D84" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E84" s="1">
         <v>255</v>
       </c>
     </row>
     <row r="85" spans="3:5">
-      <c r="C85" s="10" t="s">
+      <c r="C85" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D85" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E85" s="10">
+      <c r="D85" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E85" s="9">
         <v>103</v>
       </c>
     </row>
     <row r="86" spans="3:5">
-      <c r="C86" s="10" t="s">
+      <c r="C86" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D86" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E86" s="10">
+      <c r="D86" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E86" s="9">
         <v>10</v>
       </c>
     </row>
     <row r="87" spans="3:5">
-      <c r="C87" s="10" t="s">
+      <c r="C87" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D87" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E87" s="10">
+      <c r="D87" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E87" s="9">
         <v>3</v>
       </c>
     </row>
     <row r="88" spans="3:5">
-      <c r="C88" s="9" t="s">
+      <c r="C88" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D88" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E88" s="9" t="s">
+      <c r="D88" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E88" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="90" spans="2:4">
-      <c r="B90" s="9" t="s">
+      <c r="B90" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C90" s="9" t="s">
+      <c r="C90" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D90" s="9" t="s">
+      <c r="D90" s="1" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2169,73 +2284,73 @@
       <c r="B94" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C94" s="9" t="s">
+      <c r="C94" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D94" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E94" s="9">
+      <c r="D94" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E94" s="1">
         <v>255</v>
       </c>
     </row>
     <row r="95" spans="3:5">
-      <c r="C95" s="10" t="s">
+      <c r="C95" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D95" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E95" s="10">
+      <c r="D95" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E95" s="9">
         <v>104</v>
       </c>
     </row>
     <row r="96" spans="3:5">
-      <c r="C96" s="10" t="s">
+      <c r="C96" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D96" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E96" s="10">
+      <c r="D96" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E96" s="9">
         <v>10</v>
       </c>
     </row>
     <row r="97" spans="3:5">
-      <c r="C97" s="10" t="s">
+      <c r="C97" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D97" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E97" s="10">
+      <c r="D97" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E97" s="9">
         <v>3</v>
       </c>
     </row>
     <row r="98" spans="3:5">
-      <c r="C98" s="9" t="s">
+      <c r="C98" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D98" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E98" s="9" t="s">
+      <c r="D98" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E98" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="100" spans="2:4">
-      <c r="B100" s="9" t="s">
+      <c r="B100" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C100" s="9" t="s">
+      <c r="C100" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D100" s="9" t="s">
+      <c r="D100" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="103" spans="2:5">
-      <c r="B103" s="11" t="s">
+      <c r="B103" s="10" t="s">
         <v>31</v>
       </c>
       <c r="C103" t="s">
@@ -2249,82 +2364,82 @@
       </c>
     </row>
     <row r="104" spans="2:5">
-      <c r="B104" s="12" t="s">
+      <c r="B104" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C104" s="9" t="s">
+      <c r="C104" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D104" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E104" s="9">
+      <c r="D104" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E104" s="1">
         <v>255</v>
       </c>
     </row>
     <row r="105" spans="3:5">
-      <c r="C105" s="10" t="s">
+      <c r="C105" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D105" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E105" s="10">
+      <c r="D105" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E105" s="9">
         <v>104</v>
       </c>
     </row>
     <row r="106" spans="3:5">
-      <c r="C106" s="10" t="s">
+      <c r="C106" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D106" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E106" s="10">
+      <c r="D106" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E106" s="9">
         <v>10</v>
       </c>
     </row>
     <row r="107" spans="3:5">
-      <c r="C107" s="10" t="s">
+      <c r="C107" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D107" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E107" s="10">
+      <c r="D107" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E107" s="9">
         <v>3</v>
       </c>
     </row>
     <row r="108" spans="3:5">
-      <c r="C108" s="10" t="s">
+      <c r="C108" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D108" s="10" t="s">
+      <c r="D108" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E108" s="10" t="s">
+      <c r="E108" s="9" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="109" spans="3:5">
-      <c r="C109" s="9" t="s">
+      <c r="C109" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D109" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E109" s="9" t="s">
+      <c r="D109" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E109" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="111" spans="2:4">
-      <c r="B111" s="9" t="s">
+      <c r="B111" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C111" s="9" t="s">
+      <c r="C111" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D111" s="9" t="s">
+      <c r="D111" s="1" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2346,84 +2461,84 @@
       <c r="B115" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C115" s="9" t="s">
+      <c r="C115" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D115" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E115" s="9">
+      <c r="D115" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E115" s="1">
         <v>255</v>
       </c>
     </row>
     <row r="116" spans="3:5">
-      <c r="C116" s="10" t="s">
+      <c r="C116" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D116" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E116" s="10">
+      <c r="D116" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E116" s="9">
         <v>105</v>
       </c>
     </row>
     <row r="117" spans="3:5">
-      <c r="C117" s="10" t="s">
+      <c r="C117" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D117" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E117" s="10">
+      <c r="D117" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E117" s="9">
         <v>10</v>
       </c>
     </row>
     <row r="118" spans="3:5">
-      <c r="C118" s="10" t="s">
+      <c r="C118" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D118" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E118" s="10">
+      <c r="D118" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E118" s="9">
         <v>3</v>
       </c>
     </row>
     <row r="119" spans="3:5">
-      <c r="C119" s="10" t="s">
+      <c r="C119" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D119" s="10" t="s">
+      <c r="D119" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E119" s="10" t="s">
+      <c r="E119" s="9" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="120" spans="3:5">
-      <c r="C120" s="9" t="s">
+      <c r="C120" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D120" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E120" s="9" t="s">
+      <c r="D120" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E120" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="122" spans="2:4">
-      <c r="B122" s="9" t="s">
+      <c r="B122" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C122" s="9" t="s">
+      <c r="C122" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D122" s="9" t="s">
+      <c r="D122" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="125" spans="2:5">
-      <c r="B125" s="11" t="s">
+      <c r="B125" s="10" t="s">
         <v>31</v>
       </c>
       <c r="C125" t="s">
@@ -2437,71 +2552,71 @@
       </c>
     </row>
     <row r="126" spans="2:5">
-      <c r="B126" s="12" t="s">
+      <c r="B126" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C126" s="9" t="s">
+      <c r="C126" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D126" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E126" s="9">
+      <c r="D126" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E126" s="1">
         <v>255</v>
       </c>
     </row>
     <row r="127" spans="3:5">
-      <c r="C127" s="10" t="s">
+      <c r="C127" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D127" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E127" s="10">
+      <c r="D127" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E127" s="9">
         <v>105</v>
       </c>
     </row>
     <row r="128" spans="3:5">
-      <c r="C128" s="10" t="s">
+      <c r="C128" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D128" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E128" s="10">
+      <c r="D128" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E128" s="9">
         <v>10</v>
       </c>
     </row>
     <row r="129" spans="3:5">
-      <c r="C129" s="10" t="s">
+      <c r="C129" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D129" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E129" s="10">
+      <c r="D129" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E129" s="9">
         <v>3</v>
       </c>
     </row>
     <row r="130" spans="3:5">
-      <c r="C130" s="9" t="s">
+      <c r="C130" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D130" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E130" s="9" t="s">
+      <c r="D130" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E130" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="132" spans="2:4">
-      <c r="B132" s="9" t="s">
+      <c r="B132" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C132" s="9" t="s">
+      <c r="C132" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D132" s="9" t="s">
+      <c r="D132" s="1" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2523,62 +2638,62 @@
       <c r="B136" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C136" s="9" t="s">
+      <c r="C136" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D136" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E136" s="9">
+      <c r="D136" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E136" s="1">
         <v>255</v>
       </c>
     </row>
     <row r="137" spans="3:5">
-      <c r="C137" s="10" t="s">
+      <c r="C137" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D137" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E137" s="10">
+      <c r="D137" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E137" s="9">
         <v>106</v>
       </c>
     </row>
     <row r="138" spans="3:5">
-      <c r="C138" s="10" t="s">
+      <c r="C138" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D138" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E138" s="10">
+      <c r="D138" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E138" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="139" spans="3:5">
-      <c r="C139" s="9" t="s">
+      <c r="C139" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D139" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E139" s="9" t="s">
+      <c r="D139" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E139" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="141" spans="2:4">
-      <c r="B141" s="9" t="s">
+      <c r="B141" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C141" s="9" t="s">
+      <c r="C141" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D141" s="9" t="s">
+      <c r="D141" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="144" spans="2:5">
-      <c r="B144" s="11" t="s">
+      <c r="B144" s="10" t="s">
         <v>31</v>
       </c>
       <c r="C144" t="s">
@@ -2592,82 +2707,82 @@
       </c>
     </row>
     <row r="145" spans="2:5">
-      <c r="B145" s="12" t="s">
+      <c r="B145" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C145" s="9" t="s">
+      <c r="C145" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D145" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E145" s="9">
+      <c r="D145" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E145" s="1">
         <v>255</v>
       </c>
     </row>
     <row r="146" spans="3:5">
-      <c r="C146" s="10" t="s">
+      <c r="C146" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D146" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E146" s="10">
+      <c r="D146" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E146" s="9">
         <v>106</v>
       </c>
     </row>
     <row r="147" spans="3:5">
-      <c r="C147" s="10" t="s">
+      <c r="C147" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D147" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E147" s="10">
+      <c r="D147" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E147" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="148" spans="3:5">
-      <c r="C148" s="10" t="s">
+      <c r="C148" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D148" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E148" s="10">
+      <c r="D148" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E148" s="9">
         <v>12</v>
       </c>
     </row>
     <row r="149" spans="3:5">
-      <c r="C149" s="10" t="s">
+      <c r="C149" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D149" s="10" t="s">
+      <c r="D149" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E149" s="10" t="s">
+      <c r="E149" s="9" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="150" spans="3:5">
-      <c r="C150" s="9" t="s">
+      <c r="C150" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D150" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E150" s="9" t="s">
+      <c r="D150" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E150" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="152" ht="27" spans="2:4">
-      <c r="B152" s="9" t="s">
+      <c r="B152" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C152" s="17" t="s">
+      <c r="C152" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D152" s="9" t="s">
+      <c r="D152" s="1" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2692,73 +2807,73 @@
       <c r="B159" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C159" s="9" t="s">
+      <c r="C159" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D159" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E159" s="9">
+      <c r="D159" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E159" s="1">
         <v>255</v>
       </c>
     </row>
     <row r="160" spans="3:5">
-      <c r="C160" s="10" t="s">
+      <c r="C160" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D160" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E160" s="10">
+      <c r="D160" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E160" s="9">
         <v>107</v>
       </c>
     </row>
     <row r="161" spans="3:5">
-      <c r="C161" s="10" t="s">
+      <c r="C161" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D161" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E161" s="10">
+      <c r="D161" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E161" s="9">
         <v>10</v>
       </c>
     </row>
     <row r="162" spans="3:5">
-      <c r="C162" s="10" t="s">
+      <c r="C162" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D162" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E162" s="10">
+      <c r="D162" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E162" s="9">
         <v>3</v>
       </c>
     </row>
     <row r="163" spans="3:5">
-      <c r="C163" s="9" t="s">
+      <c r="C163" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D163" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E163" s="9" t="s">
+      <c r="D163" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E163" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="165" spans="2:4">
-      <c r="B165" s="9" t="s">
+      <c r="B165" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C165" s="9" t="s">
+      <c r="C165" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D165" s="9" t="s">
+      <c r="D165" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="168" spans="2:5">
-      <c r="B168" s="11" t="s">
+      <c r="B168" s="10" t="s">
         <v>31</v>
       </c>
       <c r="C168" t="s">
@@ -2772,82 +2887,82 @@
       </c>
     </row>
     <row r="169" spans="2:5">
-      <c r="B169" s="12" t="s">
+      <c r="B169" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C169" s="9" t="s">
+      <c r="C169" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D169" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E169" s="9">
+      <c r="D169" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E169" s="1">
         <v>255</v>
       </c>
     </row>
     <row r="170" spans="3:5">
-      <c r="C170" s="10" t="s">
+      <c r="C170" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D170" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E170" s="10">
+      <c r="D170" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E170" s="9">
         <v>107</v>
       </c>
     </row>
     <row r="171" spans="3:5">
-      <c r="C171" s="10" t="s">
+      <c r="C171" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D171" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E171" s="10">
+      <c r="D171" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E171" s="9">
         <v>10</v>
       </c>
     </row>
     <row r="172" spans="3:5">
-      <c r="C172" s="10" t="s">
+      <c r="C172" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D172" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E172" s="10">
+      <c r="D172" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E172" s="9">
         <v>3</v>
       </c>
     </row>
     <row r="173" spans="3:5">
-      <c r="C173" s="10" t="s">
+      <c r="C173" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D173" s="10" t="s">
+      <c r="D173" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E173" s="10" t="s">
+      <c r="E173" s="9" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="174" spans="3:5">
-      <c r="C174" s="9" t="s">
+      <c r="C174" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D174" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E174" s="9" t="s">
+      <c r="D174" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E174" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="176" spans="2:4">
-      <c r="B176" s="9" t="s">
+      <c r="B176" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C176" s="9" t="s">
+      <c r="C176" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D176" s="9" t="s">
+      <c r="D176" s="1" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2869,84 +2984,84 @@
       <c r="B180" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C180" s="9" t="s">
+      <c r="C180" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D180" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E180" s="9">
+      <c r="D180" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E180" s="1">
         <v>255</v>
       </c>
     </row>
     <row r="181" spans="3:5">
-      <c r="C181" s="10" t="s">
+      <c r="C181" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D181" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E181" s="10">
+      <c r="D181" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E181" s="9">
         <v>108</v>
       </c>
     </row>
     <row r="182" spans="3:5">
-      <c r="C182" s="10" t="s">
+      <c r="C182" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D182" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E182" s="10">
+      <c r="D182" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E182" s="9">
         <v>10</v>
       </c>
     </row>
     <row r="183" spans="3:5">
-      <c r="C183" s="10" t="s">
+      <c r="C183" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D183" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E183" s="10">
+      <c r="D183" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E183" s="9">
         <v>3</v>
       </c>
     </row>
     <row r="184" spans="3:5">
-      <c r="C184" s="10" t="s">
+      <c r="C184" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D184" s="10" t="s">
+      <c r="D184" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E184" s="10" t="s">
+      <c r="E184" s="9" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="185" spans="3:5">
-      <c r="C185" s="9" t="s">
+      <c r="C185" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D185" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E185" s="9" t="s">
+      <c r="D185" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E185" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="187" spans="2:4">
-      <c r="B187" s="9" t="s">
+      <c r="B187" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C187" s="9" t="s">
+      <c r="C187" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D187" s="9" t="s">
+      <c r="D187" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="190" spans="2:5">
-      <c r="B190" s="11" t="s">
+      <c r="B190" s="10" t="s">
         <v>31</v>
       </c>
       <c r="C190" t="s">
@@ -2960,71 +3075,71 @@
       </c>
     </row>
     <row r="191" spans="2:5">
-      <c r="B191" s="12" t="s">
+      <c r="B191" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="C191" s="9" t="s">
+      <c r="C191" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D191" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E191" s="9">
+      <c r="D191" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E191" s="1">
         <v>255</v>
       </c>
     </row>
     <row r="192" spans="3:5">
-      <c r="C192" s="10" t="s">
+      <c r="C192" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D192" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E192" s="10">
+      <c r="D192" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E192" s="9">
         <v>108</v>
       </c>
     </row>
     <row r="193" spans="3:5">
-      <c r="C193" s="10" t="s">
+      <c r="C193" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D193" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E193" s="10">
+      <c r="D193" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E193" s="9">
         <v>10</v>
       </c>
     </row>
     <row r="194" spans="3:5">
-      <c r="C194" s="10" t="s">
+      <c r="C194" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D194" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E194" s="10">
+      <c r="D194" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E194" s="9">
         <v>3</v>
       </c>
     </row>
     <row r="195" spans="3:5">
-      <c r="C195" s="9" t="s">
+      <c r="C195" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D195" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E195" s="9" t="s">
+      <c r="D195" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E195" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="197" spans="2:4">
-      <c r="B197" s="9" t="s">
+      <c r="B197" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C197" s="9" t="s">
+      <c r="C197" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D197" s="9" t="s">
+      <c r="D197" s="1" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3041,7 +3156,7 @@
   <dimension ref="B3:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="B3" sqref="B3:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3068,7 +3183,7 @@
       <c r="B4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="9">
         <v>100</v>
       </c>
       <c r="D4" s="16" t="s">
@@ -3080,13 +3195,13 @@
       <c r="B5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="9">
         <v>101</v>
       </c>
       <c r="D5" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="12" t="s">
         <v>73</v>
       </c>
     </row>
@@ -3094,7 +3209,7 @@
       <c r="B6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="9">
         <v>102</v>
       </c>
       <c r="D6" s="16" t="s">
@@ -3106,7 +3221,7 @@
       <c r="B7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="9">
         <v>103</v>
       </c>
       <c r="D7" s="16" t="s">
@@ -3118,7 +3233,7 @@
       <c r="B8" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="9">
         <v>104</v>
       </c>
       <c r="D8" s="16" t="s">
@@ -3130,7 +3245,7 @@
       <c r="B9" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="9">
         <v>105</v>
       </c>
       <c r="D9" s="16" t="s">
@@ -3142,13 +3257,13 @@
       <c r="B10" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="9">
         <v>106</v>
       </c>
       <c r="D10" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="12" t="s">
         <v>73</v>
       </c>
     </row>
@@ -3156,13 +3271,13 @@
       <c r="B11" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="9">
         <v>107</v>
       </c>
       <c r="D11" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="12" t="s">
         <v>73</v>
       </c>
     </row>
@@ -3170,13 +3285,13 @@
       <c r="B12" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="9">
         <v>108</v>
       </c>
       <c r="D12" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="12" t="s">
         <v>73</v>
       </c>
     </row>
@@ -3190,10 +3305,88 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="B3:E6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="4"/>
+  <cols>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="12.5" customWidth="1"/>
+    <col min="5" max="5" width="27.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:5">
+      <c r="B3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="9">
+        <v>0</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="9">
+        <v>255</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B3:E58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3206,37 +3399,37 @@
   <sheetData>
     <row r="3" ht="27" spans="2:3">
       <c r="B3" s="1" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" s="1" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" s="1" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="1" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>70</v>
@@ -3250,10 +3443,10 @@
         <v>6</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="2:5">
@@ -3264,7 +3457,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="E9" s="1"/>
     </row>
@@ -3276,10 +3469,10 @@
         <v>2</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>93</v>
+        <v>104</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="2:5">
@@ -3290,7 +3483,7 @@
         <v>6</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="E11" s="1"/>
     </row>
@@ -3299,10 +3492,10 @@
         <v>16</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="E12" s="1"/>
     </row>
@@ -3323,7 +3516,7 @@
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="2:5">
@@ -3344,73 +3537,73 @@
       <c r="B20" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20" s="9">
+      <c r="D20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="1">
         <v>255</v>
       </c>
     </row>
     <row r="21" spans="3:5">
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" s="10">
+      <c r="D21" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="9">
         <v>102</v>
       </c>
     </row>
     <row r="22" spans="3:5">
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22" s="10">
+      <c r="D22" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="9">
         <v>10</v>
       </c>
     </row>
     <row r="23" spans="3:5">
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E23" s="10">
+      <c r="D23" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="9">
         <v>3</v>
       </c>
     </row>
     <row r="24" spans="3:5">
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E24" s="9" t="s">
+      <c r="D24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="26" spans="2:4">
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="29" spans="2:5">
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="10" t="s">
         <v>31</v>
       </c>
       <c r="C29" t="s">
@@ -3424,82 +3617,82 @@
       </c>
     </row>
     <row r="30" spans="2:5">
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E30" s="9">
+      <c r="D30" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="1">
         <v>255</v>
       </c>
     </row>
     <row r="31" spans="3:5">
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D31" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E31" s="10">
+      <c r="D31" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" s="9">
         <v>102</v>
       </c>
     </row>
     <row r="32" spans="3:5">
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E32" s="10">
+      <c r="D32" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E32" s="9">
         <v>10</v>
       </c>
     </row>
     <row r="33" spans="3:5">
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D33" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E33" s="10">
+      <c r="D33" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E33" s="9">
         <v>3</v>
       </c>
     </row>
     <row r="34" spans="3:5">
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="D34" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E34" s="10" t="s">
+      <c r="E34" s="9" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="35" spans="3:5">
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D35" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E35" s="9" t="s">
+      <c r="D35" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="37" spans="2:4">
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D37" s="9" t="s">
+      <c r="D37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3521,84 +3714,84 @@
       <c r="B41" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="C41" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D41" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E41" s="9">
+      <c r="D41" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E41" s="1">
         <v>255</v>
       </c>
     </row>
     <row r="42" spans="3:5">
-      <c r="C42" s="10" t="s">
+      <c r="C42" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D42" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E42" s="10">
+      <c r="D42" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E42" s="9">
         <v>103</v>
       </c>
     </row>
     <row r="43" spans="3:5">
-      <c r="C43" s="10" t="s">
+      <c r="C43" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D43" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E43" s="10">
+      <c r="D43" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E43" s="9">
         <v>10</v>
       </c>
     </row>
     <row r="44" spans="3:5">
-      <c r="C44" s="10" t="s">
+      <c r="C44" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D44" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E44" s="10">
+      <c r="D44" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E44" s="9">
         <v>3</v>
       </c>
     </row>
     <row r="45" spans="3:5">
-      <c r="C45" s="10" t="s">
+      <c r="C45" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D45" s="10" t="s">
+      <c r="D45" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E45" s="10" t="s">
+      <c r="E45" s="9" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="46" spans="3:5">
-      <c r="C46" s="9" t="s">
+      <c r="C46" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D46" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E46" s="9" t="s">
+      <c r="D46" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E46" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="48" spans="2:4">
-      <c r="B48" s="9" t="s">
+      <c r="B48" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C48" s="9" t="s">
+      <c r="C48" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D48" s="9" t="s">
+      <c r="D48" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="51" spans="2:5">
-      <c r="B51" s="11" t="s">
+      <c r="B51" s="10" t="s">
         <v>31</v>
       </c>
       <c r="C51" t="s">
@@ -3612,71 +3805,71 @@
       </c>
     </row>
     <row r="52" spans="2:5">
-      <c r="B52" s="12" t="s">
+      <c r="B52" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C52" s="9" t="s">
+      <c r="C52" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D52" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E52" s="9">
+      <c r="D52" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E52" s="1">
         <v>255</v>
       </c>
     </row>
     <row r="53" spans="3:5">
-      <c r="C53" s="10" t="s">
+      <c r="C53" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D53" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E53" s="10">
+      <c r="D53" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E53" s="9">
         <v>103</v>
       </c>
     </row>
     <row r="54" spans="3:5">
-      <c r="C54" s="10" t="s">
+      <c r="C54" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D54" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E54" s="10">
+      <c r="D54" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E54" s="9">
         <v>10</v>
       </c>
     </row>
     <row r="55" spans="3:5">
-      <c r="C55" s="10" t="s">
+      <c r="C55" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D55" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E55" s="10">
+      <c r="D55" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E55" s="9">
         <v>3</v>
       </c>
     </row>
     <row r="56" spans="3:5">
-      <c r="C56" s="9" t="s">
+      <c r="C56" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D56" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E56" s="9" t="s">
+      <c r="D56" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E56" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="58" spans="2:4">
-      <c r="B58" s="9" t="s">
+      <c r="B58" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C58" s="9" t="s">
+      <c r="C58" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D58" s="9" t="s">
+      <c r="D58" s="1" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3687,7 +3880,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B3:E55"/>
@@ -3705,37 +3898,37 @@
   <sheetData>
     <row r="3" ht="40.5" spans="2:3">
       <c r="B3" s="1" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" s="1" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" s="1" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="2:4">
       <c r="B7" s="1" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" ht="40.5" spans="2:4">
@@ -3746,7 +3939,7 @@
         <v>32</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="2:4">
@@ -3754,15 +3947,15 @@
         <v>32</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="2:5">
@@ -3783,73 +3976,73 @@
       <c r="B17" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="9">
+      <c r="D17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="1">
         <v>255</v>
       </c>
     </row>
     <row r="18" spans="3:5">
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" s="10">
+      <c r="D18" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="9">
         <v>104</v>
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" s="10">
+      <c r="D19" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="9">
         <v>10</v>
       </c>
     </row>
     <row r="20" spans="3:5">
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" s="10">
+      <c r="D20" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="9">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="3:5">
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" s="9" t="s">
+      <c r="D21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="23" spans="2:4">
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="26" spans="2:5">
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="10" t="s">
         <v>31</v>
       </c>
       <c r="C26" t="s">
@@ -3863,82 +4056,82 @@
       </c>
     </row>
     <row r="27" spans="2:5">
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27" s="9">
+      <c r="D27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" s="1">
         <v>255</v>
       </c>
     </row>
     <row r="28" spans="3:5">
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D28" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E28" s="10">
+      <c r="D28" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" s="9">
         <v>104</v>
       </c>
     </row>
     <row r="29" spans="3:5">
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E29" s="10">
+      <c r="D29" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="9">
         <v>10</v>
       </c>
     </row>
     <row r="30" spans="3:5">
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D30" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E30" s="10">
+      <c r="D30" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" s="9">
         <v>3</v>
       </c>
     </row>
     <row r="31" spans="3:5">
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="D31" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E31" s="10" t="s">
+      <c r="E31" s="9" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="32" spans="3:5">
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D32" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E32" s="9" t="s">
+      <c r="D32" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="34" spans="2:4">
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="D34" s="1" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3960,84 +4153,84 @@
       <c r="B38" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C38" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D38" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E38" s="9">
+      <c r="D38" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E38" s="1">
         <v>255</v>
       </c>
     </row>
     <row r="39" spans="3:5">
-      <c r="C39" s="10" t="s">
+      <c r="C39" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D39" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E39" s="10">
+      <c r="D39" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E39" s="9">
         <v>105</v>
       </c>
     </row>
     <row r="40" spans="3:5">
-      <c r="C40" s="10" t="s">
+      <c r="C40" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D40" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E40" s="10">
+      <c r="D40" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E40" s="9">
         <v>10</v>
       </c>
     </row>
     <row r="41" spans="3:5">
-      <c r="C41" s="10" t="s">
+      <c r="C41" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D41" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E41" s="10">
+      <c r="D41" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E41" s="9">
         <v>3</v>
       </c>
     </row>
     <row r="42" spans="3:5">
-      <c r="C42" s="10" t="s">
+      <c r="C42" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D42" s="10" t="s">
+      <c r="D42" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E42" s="10" t="s">
+      <c r="E42" s="9" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="43" spans="3:5">
-      <c r="C43" s="9" t="s">
+      <c r="C43" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D43" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E43" s="9" t="s">
+      <c r="D43" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E43" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="45" spans="2:4">
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="C45" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D45" s="9" t="s">
+      <c r="D45" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="48" spans="2:5">
-      <c r="B48" s="11" t="s">
+      <c r="B48" s="10" t="s">
         <v>31</v>
       </c>
       <c r="C48" t="s">
@@ -4051,71 +4244,71 @@
       </c>
     </row>
     <row r="49" spans="2:5">
-      <c r="B49" s="12" t="s">
+      <c r="B49" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C49" s="9" t="s">
+      <c r="C49" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D49" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E49" s="9">
+      <c r="D49" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E49" s="1">
         <v>255</v>
       </c>
     </row>
     <row r="50" spans="3:5">
-      <c r="C50" s="10" t="s">
+      <c r="C50" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D50" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E50" s="10">
+      <c r="D50" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E50" s="9">
         <v>105</v>
       </c>
     </row>
     <row r="51" spans="3:5">
-      <c r="C51" s="10" t="s">
+      <c r="C51" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D51" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E51" s="10">
+      <c r="D51" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E51" s="9">
         <v>10</v>
       </c>
     </row>
     <row r="52" spans="3:5">
-      <c r="C52" s="10" t="s">
+      <c r="C52" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D52" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E52" s="10">
+      <c r="D52" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E52" s="9">
         <v>3</v>
       </c>
     </row>
     <row r="53" spans="3:5">
-      <c r="C53" s="9" t="s">
+      <c r="C53" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D53" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E53" s="9" t="s">
+      <c r="D53" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E53" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="55" spans="2:4">
-      <c r="B55" s="9" t="s">
+      <c r="B55" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C55" s="9" t="s">
+      <c r="C55" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D55" s="9" t="s">
+      <c r="D55" s="1" t="s">
         <v>30</v>
       </c>
     </row>
@@ -4125,7 +4318,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B3:E8"/>
@@ -4144,18 +4337,18 @@
   <sheetData>
     <row r="3" ht="40.5" spans="2:3">
       <c r="B3" s="1" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" s="1" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="2:5">
@@ -4163,10 +4356,10 @@
         <v>55</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>70</v>
@@ -4177,21 +4370,21 @@
         <v>0</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E7" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E7" s="12" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" s="5" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="1"/>
@@ -4202,13 +4395,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B3:E56"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -4221,37 +4414,37 @@
   <sheetData>
     <row r="3" ht="27" spans="2:3">
       <c r="B3" s="1" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" s="1" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" s="1" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="1" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>70</v>
@@ -4265,10 +4458,10 @@
         <v>4</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="2:5">
@@ -4279,7 +4472,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="E9" s="1"/>
     </row>
@@ -4288,16 +4481,16 @@
         <v>8</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="E10" s="1"/>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="2:5">
@@ -4318,73 +4511,73 @@
       <c r="B18" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" s="9">
+      <c r="D18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="1">
         <v>255</v>
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="10">
+      <c r="D19" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="9">
         <v>107</v>
       </c>
     </row>
     <row r="20" spans="3:5">
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" s="10">
+      <c r="D20" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="9">
         <v>10</v>
       </c>
     </row>
     <row r="21" spans="3:5">
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" s="10">
+      <c r="D21" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="9">
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="3:5">
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22" s="9" t="s">
+      <c r="D22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="24" spans="2:4">
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="27" spans="2:5">
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="10" t="s">
         <v>31</v>
       </c>
       <c r="C27" t="s">
@@ -4398,82 +4591,82 @@
       </c>
     </row>
     <row r="28" spans="2:5">
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E28" s="9">
+      <c r="D28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" s="1">
         <v>255</v>
       </c>
     </row>
     <row r="29" spans="3:5">
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E29" s="10">
+      <c r="D29" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" s="9">
         <v>107</v>
       </c>
     </row>
     <row r="30" spans="3:5">
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D30" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E30" s="10">
+      <c r="D30" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" s="9">
         <v>10</v>
       </c>
     </row>
     <row r="31" spans="3:5">
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D31" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E31" s="10">
+      <c r="D31" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" s="9">
         <v>3</v>
       </c>
     </row>
     <row r="32" spans="3:5">
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="D32" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E32" s="10" t="s">
+      <c r="E32" s="9" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="33" spans="3:5">
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D33" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E33" s="9" t="s">
+      <c r="D33" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="35" spans="2:4">
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="D35" s="1" t="s">
         <v>30</v>
       </c>
     </row>
@@ -4495,84 +4688,84 @@
       <c r="B39" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D39" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E39" s="9">
+      <c r="D39" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E39" s="1">
         <v>255</v>
       </c>
     </row>
     <row r="40" spans="3:5">
-      <c r="C40" s="10" t="s">
+      <c r="C40" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D40" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E40" s="10">
+      <c r="D40" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E40" s="9">
         <v>108</v>
       </c>
     </row>
     <row r="41" spans="3:5">
-      <c r="C41" s="10" t="s">
+      <c r="C41" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D41" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E41" s="10">
+      <c r="D41" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E41" s="9">
         <v>10</v>
       </c>
     </row>
     <row r="42" spans="3:5">
-      <c r="C42" s="10" t="s">
+      <c r="C42" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D42" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E42" s="10">
+      <c r="D42" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E42" s="9">
         <v>3</v>
       </c>
     </row>
     <row r="43" spans="3:5">
-      <c r="C43" s="10" t="s">
+      <c r="C43" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D43" s="10" t="s">
+      <c r="D43" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E43" s="10" t="s">
+      <c r="E43" s="9" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="44" spans="3:5">
-      <c r="C44" s="9" t="s">
+      <c r="C44" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D44" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E44" s="9" t="s">
+      <c r="D44" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E44" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="46" spans="2:4">
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C46" s="9" t="s">
+      <c r="C46" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D46" s="9" t="s">
+      <c r="D46" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="49" spans="2:5">
-      <c r="B49" s="11" t="s">
+      <c r="B49" s="10" t="s">
         <v>31</v>
       </c>
       <c r="C49" t="s">
@@ -4586,71 +4779,71 @@
       </c>
     </row>
     <row r="50" spans="2:5">
-      <c r="B50" s="12" t="s">
+      <c r="B50" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="C50" s="9" t="s">
+      <c r="C50" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D50" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E50" s="9">
+      <c r="D50" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E50" s="1">
         <v>255</v>
       </c>
     </row>
     <row r="51" spans="3:5">
-      <c r="C51" s="10" t="s">
+      <c r="C51" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D51" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E51" s="10">
+      <c r="D51" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E51" s="9">
         <v>108</v>
       </c>
     </row>
     <row r="52" spans="3:5">
-      <c r="C52" s="10" t="s">
+      <c r="C52" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D52" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E52" s="10">
+      <c r="D52" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E52" s="9">
         <v>10</v>
       </c>
     </row>
     <row r="53" spans="3:5">
-      <c r="C53" s="10" t="s">
+      <c r="C53" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D53" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E53" s="10">
+      <c r="D53" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E53" s="9">
         <v>3</v>
       </c>
     </row>
     <row r="54" spans="3:5">
-      <c r="C54" s="9" t="s">
+      <c r="C54" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D54" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E54" s="9" t="s">
+      <c r="D54" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E54" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="56" spans="2:4">
-      <c r="B56" s="9" t="s">
+      <c r="B56" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C56" s="9" t="s">
+      <c r="C56" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D56" s="9" t="s">
+      <c r="D56" s="1" t="s">
         <v>30</v>
       </c>
     </row>

--- a/doc/wpfPlayer_UDP_通信协议.xlsx
+++ b/doc/wpfPlayer_UDP_通信协议.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14295" windowHeight="12630" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14295" windowHeight="11760" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="协议概述" sheetId="1" r:id="rId1"/>
@@ -15,12 +15,12 @@
     <sheet name="INFO区" sheetId="5" r:id="rId6"/>
     <sheet name="PC区" sheetId="6" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="133">
   <si>
     <t>版本</t>
   </si>
@@ -293,6 +293,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>）</t>
@@ -320,6 +321,7 @@
     <r>
       <rPr>
         <sz val="11"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>）</t>
@@ -351,6 +353,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>）</t>
@@ -434,38 +437,82 @@
     <t>类型</t>
   </si>
   <si>
+    <t>1-255</t>
+  </si>
+  <si>
+    <t>pc区特性</t>
+  </si>
+  <si>
+    <t>可以进行读写操作，同时掉电不保存，目前主要用于mcu上传数据到pc端。</t>
+  </si>
+  <si>
+    <t>一共4个字节的数据空间，分别D1，D2，D3，D4，分别对应时间码的时、分、秒、帧</t>
+  </si>
+  <si>
+    <t>连接成功后会每50ms发送一次写命令（目前该功能为自增的虚拟时间码）</t>
+  </si>
+  <si>
+    <t>info区特性</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>只读信息区，主要用于保存uuid，软件版本，硬件版本等设备信息。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>设备UUID</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>ASCII字符串</t>
-  </si>
-  <si>
-    <t>1-255</t>
-  </si>
-  <si>
-    <t>pc区特性</t>
-  </si>
-  <si>
-    <t>可以进行读写操作，同时掉电不保存，目前主要用于mcu上传数据到pc端。</t>
-  </si>
-  <si>
-    <t>一共4个字节的数据空间，分别D1，D2，D3，D4，分别对应时间码的时、分、秒、帧</t>
-  </si>
-  <si>
-    <t>连接成功后会每50ms发送一次写命令（目前该功能为自增的虚拟时间码）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>read_info</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>对象id</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1个字节</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>FF 6A 00 XX XX</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>read_info</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>对象长度len</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>data</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>len个字节</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>UUID</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>FF 6A 00 18 UUID（字符串） XX XX</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -488,156 +535,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -646,7 +566,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.15"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -662,194 +582,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -872,255 +606,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1181,58 +673,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1523,19 +974,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E197"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="15.875" customWidth="1"/>
     <col min="2" max="2" width="14.125" customWidth="1"/>
@@ -1544,7 +995,7 @@
     <col min="6" max="6" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1552,7 +1003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1560,12 +1011,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1576,7 +1027,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1584,7 +1035,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1592,12 +1043,12 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -1608,7 +1059,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1616,7 +1067,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1638,7 +1089,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="2:5">
+    <row r="16" spans="1:5">
       <c r="B16" s="8" t="s">
         <v>19</v>
       </c>
@@ -1652,7 +1103,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="17" spans="3:5">
+    <row r="17" spans="2:5">
       <c r="C17" s="9" t="s">
         <v>22</v>
       </c>
@@ -1663,7 +1114,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="3:5">
+    <row r="18" spans="2:5">
       <c r="C18" s="9" t="s">
         <v>23</v>
       </c>
@@ -1674,7 +1125,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="19" spans="3:5">
+    <row r="19" spans="2:5">
       <c r="C19" s="1" t="s">
         <v>25</v>
       </c>
@@ -1685,7 +1136,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="2:4">
+    <row r="21" spans="2:5">
       <c r="B21" s="1" t="s">
         <v>28</v>
       </c>
@@ -1724,7 +1175,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="26" spans="3:5">
+    <row r="26" spans="2:5">
       <c r="C26" s="9" t="s">
         <v>22</v>
       </c>
@@ -1735,7 +1186,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="3:5">
+    <row r="27" spans="2:5">
       <c r="C27" s="9" t="s">
         <v>23</v>
       </c>
@@ -1746,7 +1197,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="28" spans="3:5">
+    <row r="28" spans="2:5">
       <c r="C28" s="1" t="s">
         <v>25</v>
       </c>
@@ -1757,7 +1208,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="2:4">
+    <row r="30" spans="2:5">
       <c r="B30" s="1" t="s">
         <v>28</v>
       </c>
@@ -1796,7 +1247,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="35" spans="3:5">
+    <row r="35" spans="2:5">
       <c r="C35" s="9" t="s">
         <v>22</v>
       </c>
@@ -1807,7 +1258,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="36" spans="3:5">
+    <row r="36" spans="2:5">
       <c r="C36" s="9" t="s">
         <v>34</v>
       </c>
@@ -1818,7 +1269,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="3:5">
+    <row r="37" spans="2:5">
       <c r="C37" s="1" t="s">
         <v>25</v>
       </c>
@@ -1829,7 +1280,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="2:4">
+    <row r="39" spans="2:5">
       <c r="B39" s="1" t="s">
         <v>28</v>
       </c>
@@ -1868,7 +1319,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="44" spans="3:5">
+    <row r="44" spans="2:5">
       <c r="C44" s="9" t="s">
         <v>22</v>
       </c>
@@ -1879,7 +1330,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="3:5">
+    <row r="45" spans="2:5">
       <c r="C45" s="9" t="s">
         <v>34</v>
       </c>
@@ -1890,7 +1341,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="3:5">
+    <row r="46" spans="2:5">
       <c r="C46" s="1" t="s">
         <v>25</v>
       </c>
@@ -1901,7 +1352,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="48" spans="2:4">
+    <row r="48" spans="2:5">
       <c r="B48" s="1" t="s">
         <v>28</v>
       </c>
@@ -1940,7 +1391,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="53" spans="3:5">
+    <row r="53" spans="2:5">
       <c r="C53" s="9" t="s">
         <v>22</v>
       </c>
@@ -1951,7 +1402,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="54" spans="3:5">
+    <row r="54" spans="2:5">
       <c r="C54" s="9" t="s">
         <v>38</v>
       </c>
@@ -1962,7 +1413,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="3:5">
+    <row r="55" spans="2:5">
       <c r="C55" s="9" t="s">
         <v>39</v>
       </c>
@@ -1973,7 +1424,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="3:5">
+    <row r="56" spans="2:5">
       <c r="C56" s="1" t="s">
         <v>25</v>
       </c>
@@ -1984,7 +1435,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="58" spans="2:4">
+    <row r="58" spans="2:5">
       <c r="B58" s="1" t="s">
         <v>28</v>
       </c>
@@ -2023,7 +1474,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="63" spans="3:5">
+    <row r="63" spans="2:5">
       <c r="C63" s="9" t="s">
         <v>22</v>
       </c>
@@ -2034,7 +1485,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="64" spans="3:5">
+    <row r="64" spans="2:5">
       <c r="C64" s="9" t="s">
         <v>38</v>
       </c>
@@ -2045,7 +1496,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="3:5">
+    <row r="65" spans="2:5">
       <c r="C65" s="9" t="s">
         <v>39</v>
       </c>
@@ -2056,7 +1507,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="3:5">
+    <row r="66" spans="2:5">
       <c r="C66" s="9" t="s">
         <v>41</v>
       </c>
@@ -2067,7 +1518,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="67" spans="3:5">
+    <row r="67" spans="2:5">
       <c r="C67" s="1" t="s">
         <v>25</v>
       </c>
@@ -2078,7 +1529,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="69" spans="2:4">
+    <row r="69" spans="2:5">
       <c r="B69" s="1" t="s">
         <v>28</v>
       </c>
@@ -2117,7 +1568,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="74" spans="3:5">
+    <row r="74" spans="2:5">
       <c r="C74" s="9" t="s">
         <v>22</v>
       </c>
@@ -2128,7 +1579,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="75" spans="3:5">
+    <row r="75" spans="2:5">
       <c r="C75" s="9" t="s">
         <v>38</v>
       </c>
@@ -2139,7 +1590,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="3:5">
+    <row r="76" spans="2:5">
       <c r="C76" s="9" t="s">
         <v>39</v>
       </c>
@@ -2150,7 +1601,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="3:5">
+    <row r="77" spans="2:5">
       <c r="C77" s="9" t="s">
         <v>41</v>
       </c>
@@ -2161,7 +1612,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="78" spans="3:5">
+    <row r="78" spans="2:5">
       <c r="C78" s="1" t="s">
         <v>25</v>
       </c>
@@ -2172,7 +1623,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="80" spans="2:4">
+    <row r="80" spans="2:5">
       <c r="B80" s="1" t="s">
         <v>28</v>
       </c>
@@ -2211,7 +1662,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="85" spans="3:5">
+    <row r="85" spans="2:5">
       <c r="C85" s="9" t="s">
         <v>22</v>
       </c>
@@ -2222,7 +1673,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="86" spans="3:5">
+    <row r="86" spans="2:5">
       <c r="C86" s="9" t="s">
         <v>38</v>
       </c>
@@ -2233,7 +1684,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="87" spans="3:5">
+    <row r="87" spans="2:5">
       <c r="C87" s="9" t="s">
         <v>39</v>
       </c>
@@ -2244,7 +1695,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="3:5">
+    <row r="88" spans="2:5">
       <c r="C88" s="1" t="s">
         <v>25</v>
       </c>
@@ -2255,7 +1706,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="90" spans="2:4">
+    <row r="90" spans="2:5">
       <c r="B90" s="1" t="s">
         <v>28</v>
       </c>
@@ -2294,7 +1745,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="95" spans="3:5">
+    <row r="95" spans="2:5">
       <c r="C95" s="9" t="s">
         <v>22</v>
       </c>
@@ -2305,7 +1756,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="96" spans="3:5">
+    <row r="96" spans="2:5">
       <c r="C96" s="9" t="s">
         <v>38</v>
       </c>
@@ -2316,7 +1767,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="97" spans="3:5">
+    <row r="97" spans="2:5">
       <c r="C97" s="9" t="s">
         <v>39</v>
       </c>
@@ -2327,7 +1778,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="3:5">
+    <row r="98" spans="2:5">
       <c r="C98" s="1" t="s">
         <v>25</v>
       </c>
@@ -2338,7 +1789,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="100" spans="2:4">
+    <row r="100" spans="2:5">
       <c r="B100" s="1" t="s">
         <v>28</v>
       </c>
@@ -2377,7 +1828,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="105" spans="3:5">
+    <row r="105" spans="2:5">
       <c r="C105" s="9" t="s">
         <v>22</v>
       </c>
@@ -2388,7 +1839,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="3:5">
+    <row r="106" spans="2:5">
       <c r="C106" s="9" t="s">
         <v>38</v>
       </c>
@@ -2399,7 +1850,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="107" spans="3:5">
+    <row r="107" spans="2:5">
       <c r="C107" s="9" t="s">
         <v>39</v>
       </c>
@@ -2410,7 +1861,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="3:5">
+    <row r="108" spans="2:5">
       <c r="C108" s="9" t="s">
         <v>41</v>
       </c>
@@ -2421,7 +1872,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="109" spans="3:5">
+    <row r="109" spans="2:5">
       <c r="C109" s="1" t="s">
         <v>25</v>
       </c>
@@ -2432,7 +1883,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="111" spans="2:4">
+    <row r="111" spans="2:5">
       <c r="B111" s="1" t="s">
         <v>28</v>
       </c>
@@ -2471,7 +1922,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="116" spans="3:5">
+    <row r="116" spans="2:5">
       <c r="C116" s="9" t="s">
         <v>22</v>
       </c>
@@ -2482,7 +1933,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="117" spans="3:5">
+    <row r="117" spans="2:5">
       <c r="C117" s="9" t="s">
         <v>38</v>
       </c>
@@ -2493,7 +1944,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="118" spans="3:5">
+    <row r="118" spans="2:5">
       <c r="C118" s="9" t="s">
         <v>39</v>
       </c>
@@ -2504,7 +1955,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="3:5">
+    <row r="119" spans="2:5">
       <c r="C119" s="9" t="s">
         <v>41</v>
       </c>
@@ -2515,7 +1966,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="120" spans="3:5">
+    <row r="120" spans="2:5">
       <c r="C120" s="1" t="s">
         <v>25</v>
       </c>
@@ -2526,7 +1977,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="122" spans="2:4">
+    <row r="122" spans="2:5">
       <c r="B122" s="1" t="s">
         <v>28</v>
       </c>
@@ -2565,7 +2016,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="127" spans="3:5">
+    <row r="127" spans="2:5">
       <c r="C127" s="9" t="s">
         <v>22</v>
       </c>
@@ -2576,7 +2027,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="128" spans="3:5">
+    <row r="128" spans="2:5">
       <c r="C128" s="9" t="s">
         <v>38</v>
       </c>
@@ -2587,7 +2038,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="129" spans="3:5">
+    <row r="129" spans="2:5">
       <c r="C129" s="9" t="s">
         <v>39</v>
       </c>
@@ -2598,7 +2049,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="3:5">
+    <row r="130" spans="2:5">
       <c r="C130" s="1" t="s">
         <v>25</v>
       </c>
@@ -2609,7 +2060,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="132" spans="2:4">
+    <row r="132" spans="2:5">
       <c r="B132" s="1" t="s">
         <v>28</v>
       </c>
@@ -2648,7 +2099,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="137" spans="3:5">
+    <row r="137" spans="2:5">
       <c r="C137" s="9" t="s">
         <v>22</v>
       </c>
@@ -2659,7 +2110,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="138" spans="3:5">
+    <row r="138" spans="2:5">
       <c r="C138" s="9" t="s">
         <v>55</v>
       </c>
@@ -2670,7 +2121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="3:5">
+    <row r="139" spans="2:5">
       <c r="C139" s="1" t="s">
         <v>25</v>
       </c>
@@ -2681,7 +2132,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="141" spans="2:4">
+    <row r="141" spans="2:5">
       <c r="B141" s="1" t="s">
         <v>28</v>
       </c>
@@ -2706,7 +2157,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="145" spans="2:5">
+    <row r="145" spans="1:5">
       <c r="B145" s="11" t="s">
         <v>54</v>
       </c>
@@ -2720,7 +2171,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="146" spans="3:5">
+    <row r="146" spans="1:5">
       <c r="C146" s="9" t="s">
         <v>22</v>
       </c>
@@ -2731,7 +2182,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="147" spans="3:5">
+    <row r="147" spans="1:5">
       <c r="C147" s="9" t="s">
         <v>55</v>
       </c>
@@ -2742,7 +2193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="3:5">
+    <row r="148" spans="1:5">
       <c r="C148" s="9" t="s">
         <v>57</v>
       </c>
@@ -2753,7 +2204,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="149" spans="3:5">
+    <row r="149" spans="1:5">
       <c r="C149" s="9" t="s">
         <v>58</v>
       </c>
@@ -2764,7 +2215,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="150" spans="3:5">
+    <row r="150" spans="1:5">
       <c r="C150" s="1" t="s">
         <v>25</v>
       </c>
@@ -2775,7 +2226,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="152" ht="27" spans="2:4">
+    <row r="152" spans="1:5" ht="27">
       <c r="B152" s="1" t="s">
         <v>28</v>
       </c>
@@ -2803,7 +2254,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="159" spans="2:5">
+    <row r="159" spans="1:5">
       <c r="B159" s="8" t="s">
         <v>62</v>
       </c>
@@ -2817,7 +2268,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="160" spans="3:5">
+    <row r="160" spans="1:5">
       <c r="C160" s="9" t="s">
         <v>22</v>
       </c>
@@ -2828,7 +2279,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="161" spans="3:5">
+    <row r="161" spans="2:5">
       <c r="C161" s="9" t="s">
         <v>38</v>
       </c>
@@ -2839,7 +2290,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="162" spans="3:5">
+    <row r="162" spans="2:5">
       <c r="C162" s="9" t="s">
         <v>39</v>
       </c>
@@ -2850,7 +2301,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="163" spans="3:5">
+    <row r="163" spans="2:5">
       <c r="C163" s="1" t="s">
         <v>25</v>
       </c>
@@ -2861,7 +2312,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="165" spans="2:4">
+    <row r="165" spans="2:5">
       <c r="B165" s="1" t="s">
         <v>28</v>
       </c>
@@ -2900,7 +2351,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="170" spans="3:5">
+    <row r="170" spans="2:5">
       <c r="C170" s="9" t="s">
         <v>22</v>
       </c>
@@ -2911,7 +2362,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="171" spans="3:5">
+    <row r="171" spans="2:5">
       <c r="C171" s="9" t="s">
         <v>38</v>
       </c>
@@ -2922,7 +2373,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="172" spans="3:5">
+    <row r="172" spans="2:5">
       <c r="C172" s="9" t="s">
         <v>39</v>
       </c>
@@ -2933,7 +2384,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="173" spans="3:5">
+    <row r="173" spans="2:5">
       <c r="C173" s="9" t="s">
         <v>41</v>
       </c>
@@ -2944,7 +2395,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="174" spans="3:5">
+    <row r="174" spans="2:5">
       <c r="C174" s="1" t="s">
         <v>25</v>
       </c>
@@ -2955,7 +2406,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="176" spans="2:4">
+    <row r="176" spans="2:5">
       <c r="B176" s="1" t="s">
         <v>28</v>
       </c>
@@ -2994,7 +2445,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="181" spans="3:5">
+    <row r="181" spans="2:5">
       <c r="C181" s="9" t="s">
         <v>22</v>
       </c>
@@ -3005,7 +2456,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="182" spans="3:5">
+    <row r="182" spans="2:5">
       <c r="C182" s="9" t="s">
         <v>38</v>
       </c>
@@ -3016,7 +2467,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="183" spans="3:5">
+    <row r="183" spans="2:5">
       <c r="C183" s="9" t="s">
         <v>39</v>
       </c>
@@ -3027,7 +2478,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="184" spans="3:5">
+    <row r="184" spans="2:5">
       <c r="C184" s="9" t="s">
         <v>41</v>
       </c>
@@ -3038,7 +2489,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="185" spans="3:5">
+    <row r="185" spans="2:5">
       <c r="C185" s="1" t="s">
         <v>25</v>
       </c>
@@ -3049,7 +2500,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="187" spans="2:4">
+    <row r="187" spans="2:5">
       <c r="B187" s="1" t="s">
         <v>28</v>
       </c>
@@ -3088,7 +2539,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="192" spans="3:5">
+    <row r="192" spans="2:5">
       <c r="C192" s="9" t="s">
         <v>22</v>
       </c>
@@ -3099,7 +2550,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="193" spans="3:5">
+    <row r="193" spans="2:5">
       <c r="C193" s="9" t="s">
         <v>38</v>
       </c>
@@ -3110,7 +2561,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="194" spans="3:5">
+    <row r="194" spans="2:5">
       <c r="C194" s="9" t="s">
         <v>39</v>
       </c>
@@ -3121,7 +2572,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="195" spans="3:5">
+    <row r="195" spans="2:5">
       <c r="C195" s="1" t="s">
         <v>25</v>
       </c>
@@ -3132,7 +2583,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="197" spans="2:4">
+    <row r="197" spans="2:5">
       <c r="B197" s="1" t="s">
         <v>28</v>
       </c>
@@ -3144,22 +2595,21 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3:E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="12.5" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
@@ -3296,22 +2746,21 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="14.5" customWidth="1"/>
     <col min="4" max="4" width="12.5" customWidth="1"/>
@@ -3375,21 +2824,20 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:E58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="16.375" customWidth="1"/>
     <col min="3" max="3" width="35.25" customWidth="1"/>
@@ -3397,7 +2845,7 @@
     <col min="5" max="5" width="29.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" ht="27" spans="2:3">
+    <row r="3" spans="2:5" ht="27">
       <c r="B3" s="1" t="s">
         <v>93</v>
       </c>
@@ -3405,7 +2853,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
+    <row r="4" spans="2:5">
       <c r="B4" s="1" t="s">
         <v>95</v>
       </c>
@@ -3413,7 +2861,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="2:3">
+    <row r="5" spans="2:5">
       <c r="B5" s="1" t="s">
         <v>97</v>
       </c>
@@ -3435,7 +2883,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" ht="54" spans="2:5">
+    <row r="8" spans="2:5" ht="54">
       <c r="B8" s="3">
         <v>0</v>
       </c>
@@ -3461,7 +2909,7 @@
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" ht="40.5" spans="2:5">
+    <row r="10" spans="2:5" ht="40.5">
       <c r="B10" s="3">
         <v>8</v>
       </c>
@@ -3499,22 +2947,22 @@
       </c>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="2:4">
+    <row r="13" spans="2:5">
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
       <c r="D13" s="15"/>
     </row>
-    <row r="14" spans="2:4">
+    <row r="14" spans="2:5">
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
       <c r="D14" s="15"/>
     </row>
-    <row r="15" spans="2:4">
+    <row r="15" spans="2:5">
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
       <c r="D15" s="15"/>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="2:5">
       <c r="B18" t="s">
         <v>107</v>
       </c>
@@ -3547,7 +2995,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="21" spans="3:5">
+    <row r="21" spans="2:5">
       <c r="C21" s="9" t="s">
         <v>22</v>
       </c>
@@ -3558,7 +3006,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="22" spans="3:5">
+    <row r="22" spans="2:5">
       <c r="C22" s="9" t="s">
         <v>38</v>
       </c>
@@ -3569,7 +3017,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="3:5">
+    <row r="23" spans="2:5">
       <c r="C23" s="9" t="s">
         <v>39</v>
       </c>
@@ -3580,7 +3028,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="3:5">
+    <row r="24" spans="2:5">
       <c r="C24" s="1" t="s">
         <v>25</v>
       </c>
@@ -3591,7 +3039,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="2:4">
+    <row r="26" spans="2:5">
       <c r="B26" s="1" t="s">
         <v>28</v>
       </c>
@@ -3630,7 +3078,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="31" spans="3:5">
+    <row r="31" spans="2:5">
       <c r="C31" s="9" t="s">
         <v>22</v>
       </c>
@@ -3641,7 +3089,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="32" spans="3:5">
+    <row r="32" spans="2:5">
       <c r="C32" s="9" t="s">
         <v>38</v>
       </c>
@@ -3652,7 +3100,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="3:5">
+    <row r="33" spans="2:5">
       <c r="C33" s="9" t="s">
         <v>39</v>
       </c>
@@ -3663,7 +3111,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="3:5">
+    <row r="34" spans="2:5">
       <c r="C34" s="9" t="s">
         <v>41</v>
       </c>
@@ -3674,7 +3122,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="3:5">
+    <row r="35" spans="2:5">
       <c r="C35" s="1" t="s">
         <v>25</v>
       </c>
@@ -3685,7 +3133,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="2:4">
+    <row r="37" spans="2:5">
       <c r="B37" s="1" t="s">
         <v>28</v>
       </c>
@@ -3724,7 +3172,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="42" spans="3:5">
+    <row r="42" spans="2:5">
       <c r="C42" s="9" t="s">
         <v>22</v>
       </c>
@@ -3735,7 +3183,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="43" spans="3:5">
+    <row r="43" spans="2:5">
       <c r="C43" s="9" t="s">
         <v>38</v>
       </c>
@@ -3746,7 +3194,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="3:5">
+    <row r="44" spans="2:5">
       <c r="C44" s="9" t="s">
         <v>39</v>
       </c>
@@ -3757,7 +3205,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="3:5">
+    <row r="45" spans="2:5">
       <c r="C45" s="9" t="s">
         <v>41</v>
       </c>
@@ -3768,7 +3216,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="3:5">
+    <row r="46" spans="2:5">
       <c r="C46" s="1" t="s">
         <v>25</v>
       </c>
@@ -3779,7 +3227,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="48" spans="2:4">
+    <row r="48" spans="2:5">
       <c r="B48" s="1" t="s">
         <v>28</v>
       </c>
@@ -3818,7 +3266,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="53" spans="3:5">
+    <row r="53" spans="2:5">
       <c r="C53" s="9" t="s">
         <v>22</v>
       </c>
@@ -3829,7 +3277,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="54" spans="3:5">
+    <row r="54" spans="2:5">
       <c r="C54" s="9" t="s">
         <v>38</v>
       </c>
@@ -3840,7 +3288,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="3:5">
+    <row r="55" spans="2:5">
       <c r="C55" s="9" t="s">
         <v>39</v>
       </c>
@@ -3851,7 +3299,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="3:5">
+    <row r="56" spans="2:5">
       <c r="C56" s="1" t="s">
         <v>25</v>
       </c>
@@ -3862,7 +3310,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="58" spans="2:4">
+    <row r="58" spans="2:5">
       <c r="B58" s="1" t="s">
         <v>28</v>
       </c>
@@ -3874,29 +3322,29 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:E55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="18.125" customWidth="1"/>
     <col min="3" max="3" width="36.25" customWidth="1"/>
     <col min="4" max="4" width="20.75" customWidth="1"/>
+    <col min="5" max="5" width="27.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" ht="40.5" spans="2:3">
+    <row r="3" spans="2:5" ht="40.5">
       <c r="B3" s="1" t="s">
         <v>108</v>
       </c>
@@ -3904,7 +3352,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
+    <row r="4" spans="2:5">
       <c r="B4" s="1" t="s">
         <v>95</v>
       </c>
@@ -3912,7 +3360,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="2:3">
+    <row r="5" spans="2:5">
       <c r="B5" s="1" t="s">
         <v>97</v>
       </c>
@@ -3920,7 +3368,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="2:4">
+    <row r="7" spans="2:5">
       <c r="B7" s="1" t="s">
         <v>99</v>
       </c>
@@ -3931,7 +3379,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" ht="40.5" spans="2:4">
+    <row r="8" spans="2:5" ht="40.5">
       <c r="B8" s="3">
         <v>0</v>
       </c>
@@ -3942,7 +3390,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="9" spans="2:4">
+    <row r="9" spans="2:5">
       <c r="B9" s="5">
         <v>32</v>
       </c>
@@ -3953,7 +3401,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="15" spans="2:2">
+    <row r="15" spans="2:5">
       <c r="B15" t="s">
         <v>107</v>
       </c>
@@ -3986,7 +3434,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="18" spans="3:5">
+    <row r="18" spans="2:5">
       <c r="C18" s="9" t="s">
         <v>22</v>
       </c>
@@ -3997,7 +3445,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="3:5">
+    <row r="19" spans="2:5">
       <c r="C19" s="9" t="s">
         <v>38</v>
       </c>
@@ -4008,7 +3456,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="3:5">
+    <row r="20" spans="2:5">
       <c r="C20" s="9" t="s">
         <v>39</v>
       </c>
@@ -4019,7 +3467,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="3:5">
+    <row r="21" spans="2:5">
       <c r="C21" s="1" t="s">
         <v>25</v>
       </c>
@@ -4030,7 +3478,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="2:4">
+    <row r="23" spans="2:5">
       <c r="B23" s="1" t="s">
         <v>28</v>
       </c>
@@ -4069,7 +3517,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="28" spans="3:5">
+    <row r="28" spans="2:5">
       <c r="C28" s="9" t="s">
         <v>22</v>
       </c>
@@ -4080,7 +3528,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="29" spans="3:5">
+    <row r="29" spans="2:5">
       <c r="C29" s="9" t="s">
         <v>38</v>
       </c>
@@ -4091,7 +3539,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="3:5">
+    <row r="30" spans="2:5">
       <c r="C30" s="9" t="s">
         <v>39</v>
       </c>
@@ -4102,7 +3550,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="3:5">
+    <row r="31" spans="2:5">
       <c r="C31" s="9" t="s">
         <v>41</v>
       </c>
@@ -4113,7 +3561,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="3:5">
+    <row r="32" spans="2:5">
       <c r="C32" s="1" t="s">
         <v>25</v>
       </c>
@@ -4124,7 +3572,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="2:4">
+    <row r="34" spans="2:5">
       <c r="B34" s="1" t="s">
         <v>28</v>
       </c>
@@ -4163,7 +3611,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="39" spans="3:5">
+    <row r="39" spans="2:5">
       <c r="C39" s="9" t="s">
         <v>22</v>
       </c>
@@ -4174,7 +3622,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="40" spans="3:5">
+    <row r="40" spans="2:5">
       <c r="C40" s="9" t="s">
         <v>38</v>
       </c>
@@ -4185,7 +3633,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="3:5">
+    <row r="41" spans="2:5">
       <c r="C41" s="9" t="s">
         <v>39</v>
       </c>
@@ -4196,7 +3644,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="3:5">
+    <row r="42" spans="2:5">
       <c r="C42" s="9" t="s">
         <v>41</v>
       </c>
@@ -4207,7 +3655,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="3:5">
+    <row r="43" spans="2:5">
       <c r="C43" s="1" t="s">
         <v>25</v>
       </c>
@@ -4218,7 +3666,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="2:4">
+    <row r="45" spans="2:5">
       <c r="B45" s="1" t="s">
         <v>28</v>
       </c>
@@ -4257,7 +3705,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="50" spans="3:5">
+    <row r="50" spans="2:5">
       <c r="C50" s="9" t="s">
         <v>22</v>
       </c>
@@ -4268,7 +3716,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="51" spans="3:5">
+    <row r="51" spans="2:5">
       <c r="C51" s="9" t="s">
         <v>38</v>
       </c>
@@ -4279,7 +3727,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="3:5">
+    <row r="52" spans="2:5">
       <c r="C52" s="9" t="s">
         <v>39</v>
       </c>
@@ -4290,7 +3738,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="3:5">
+    <row r="53" spans="2:5">
       <c r="C53" s="1" t="s">
         <v>25</v>
       </c>
@@ -4301,7 +3749,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="55" spans="2:4">
+    <row r="55" spans="2:5">
       <c r="B55" s="1" t="s">
         <v>28</v>
       </c>
@@ -4313,37 +3761,36 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="B3:E8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B3:E32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="19.375" customWidth="1"/>
-    <col min="3" max="3" width="36.875" customWidth="1"/>
+    <col min="3" max="3" width="57.75" customWidth="1"/>
     <col min="4" max="4" width="20.25" customWidth="1"/>
     <col min="5" max="5" width="21.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" ht="40.5" spans="2:3">
+    <row r="3" spans="2:5">
       <c r="B3" s="1" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
       <c r="B4" s="1" t="s">
         <v>111</v>
       </c>
@@ -4353,7 +3800,7 @@
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="1" t="s">
-        <v>55</v>
+        <v>124</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>112</v>
@@ -4370,18 +3817,16 @@
         <v>0</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>73</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="E7" s="12"/>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>103</v>
@@ -4389,22 +3834,192 @@
       <c r="D8" s="6"/>
       <c r="E8" s="1"/>
     </row>
+    <row r="14" spans="2:5">
+      <c r="B14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="1">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="C17" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="9">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="C18" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="E18" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="C19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="1">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="C26" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="9">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="C27" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="E27" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="C28" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="E28" s="9">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="C29" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="C30" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="B32" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:E56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="14.375" customWidth="1"/>
     <col min="3" max="3" width="37" customWidth="1"/>
@@ -4412,15 +4027,15 @@
     <col min="5" max="5" width="27.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" ht="27" spans="2:3">
+    <row r="3" spans="2:5" ht="27">
       <c r="B3" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
       <c r="B4" s="1" t="s">
         <v>95</v>
       </c>
@@ -4428,7 +4043,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="2:3">
+    <row r="5" spans="2:5">
       <c r="B5" s="1" t="s">
         <v>97</v>
       </c>
@@ -4450,7 +4065,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" ht="54" spans="2:5">
+    <row r="8" spans="2:5" ht="54">
       <c r="B8" s="3">
         <v>0</v>
       </c>
@@ -4458,10 +4073,10 @@
         <v>4</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="2:5">
@@ -4488,7 +4103,7 @@
       </c>
       <c r="E10" s="1"/>
     </row>
-    <row r="16" spans="2:2">
+    <row r="16" spans="2:5">
       <c r="B16" t="s">
         <v>107</v>
       </c>
@@ -4521,7 +4136,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="19" spans="3:5">
+    <row r="19" spans="2:5">
       <c r="C19" s="9" t="s">
         <v>22</v>
       </c>
@@ -4532,7 +4147,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="20" spans="3:5">
+    <row r="20" spans="2:5">
       <c r="C20" s="9" t="s">
         <v>38</v>
       </c>
@@ -4543,7 +4158,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="3:5">
+    <row r="21" spans="2:5">
       <c r="C21" s="9" t="s">
         <v>39</v>
       </c>
@@ -4554,7 +4169,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="3:5">
+    <row r="22" spans="2:5">
       <c r="C22" s="1" t="s">
         <v>25</v>
       </c>
@@ -4565,7 +4180,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="2:4">
+    <row r="24" spans="2:5">
       <c r="B24" s="1" t="s">
         <v>28</v>
       </c>
@@ -4604,7 +4219,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="29" spans="3:5">
+    <row r="29" spans="2:5">
       <c r="C29" s="9" t="s">
         <v>22</v>
       </c>
@@ -4615,7 +4230,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="30" spans="3:5">
+    <row r="30" spans="2:5">
       <c r="C30" s="9" t="s">
         <v>38</v>
       </c>
@@ -4626,7 +4241,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="3:5">
+    <row r="31" spans="2:5">
       <c r="C31" s="9" t="s">
         <v>39</v>
       </c>
@@ -4637,7 +4252,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="3:5">
+    <row r="32" spans="2:5">
       <c r="C32" s="9" t="s">
         <v>41</v>
       </c>
@@ -4648,7 +4263,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="3:5">
+    <row r="33" spans="2:5">
       <c r="C33" s="1" t="s">
         <v>25</v>
       </c>
@@ -4659,7 +4274,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="2:4">
+    <row r="35" spans="2:5">
       <c r="B35" s="1" t="s">
         <v>28</v>
       </c>
@@ -4698,7 +4313,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="40" spans="3:5">
+    <row r="40" spans="2:5">
       <c r="C40" s="9" t="s">
         <v>22</v>
       </c>
@@ -4709,7 +4324,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="41" spans="3:5">
+    <row r="41" spans="2:5">
       <c r="C41" s="9" t="s">
         <v>38</v>
       </c>
@@ -4720,7 +4335,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="3:5">
+    <row r="42" spans="2:5">
       <c r="C42" s="9" t="s">
         <v>39</v>
       </c>
@@ -4731,7 +4346,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="3:5">
+    <row r="43" spans="2:5">
       <c r="C43" s="9" t="s">
         <v>41</v>
       </c>
@@ -4742,7 +4357,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="3:5">
+    <row r="44" spans="2:5">
       <c r="C44" s="1" t="s">
         <v>25</v>
       </c>
@@ -4753,7 +4368,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="2:4">
+    <row r="46" spans="2:5">
       <c r="B46" s="1" t="s">
         <v>28</v>
       </c>
@@ -4792,7 +4407,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="51" spans="3:5">
+    <row r="51" spans="2:5">
       <c r="C51" s="9" t="s">
         <v>22</v>
       </c>
@@ -4803,7 +4418,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="52" spans="3:5">
+    <row r="52" spans="2:5">
       <c r="C52" s="9" t="s">
         <v>38</v>
       </c>
@@ -4814,7 +4429,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="3:5">
+    <row r="53" spans="2:5">
       <c r="C53" s="9" t="s">
         <v>39</v>
       </c>
@@ -4825,7 +4440,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="3:5">
+    <row r="54" spans="2:5">
       <c r="C54" s="1" t="s">
         <v>25</v>
       </c>
@@ -4836,7 +4451,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="56" spans="2:4">
+    <row r="56" spans="2:5">
       <c r="B56" s="1" t="s">
         <v>28</v>
       </c>
@@ -4848,7 +4463,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
--- a/doc/wpfPlayer_UDP_通信协议.xlsx
+++ b/doc/wpfPlayer_UDP_通信协议.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14295" windowHeight="11760" firstSheet="1" activeTab="5"/>
+    <workbookView windowWidth="14295" windowHeight="12630" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="协议概述" sheetId="1" r:id="rId1"/>
@@ -15,12 +15,12 @@
     <sheet name="INFO区" sheetId="5" r:id="rId6"/>
     <sheet name="PC区" sheetId="6" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126">
   <si>
     <t>版本</t>
   </si>
@@ -278,6 +278,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
       <t>广播地址（</t>
     </r>
     <r>
@@ -307,6 +312,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>串口板地址（</t>
     </r>
     <r>
@@ -338,6 +348,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
       <t>座椅板地址（</t>
     </r>
     <r>
@@ -396,11 +411,11 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
+        <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>目前该数据未转发到485总线</t>
+      <t>目前该数据已转发到485总线</t>
     </r>
   </si>
   <si>
@@ -410,7 +425,7 @@
     <t>一共2个字节的数据空间，分别SPA，SPB，分别对应座椅特效和环境特效</t>
   </si>
   <si>
-    <t>目前该数据未转发到485总线</t>
+    <t>目前该数据已转发到485总线</t>
   </si>
   <si>
     <t>n</t>
@@ -428,6 +443,12 @@
     <t>一共32个字节的数据空间用于记录注册相关信息</t>
   </si>
   <si>
+    <t>info区特性</t>
+  </si>
+  <si>
+    <t>只读信息区，主要用于保存uuid，软件版本，硬件版本等设备信息。</t>
+  </si>
+  <si>
     <t>对象id范围</t>
   </si>
   <si>
@@ -437,9 +458,24 @@
     <t>类型</t>
   </si>
   <si>
+    <t>设备UUID</t>
+  </si>
+  <si>
+    <t>ASCII字符串</t>
+  </si>
+  <si>
     <t>1-255</t>
   </si>
   <si>
+    <t>对象长度len</t>
+  </si>
+  <si>
+    <t>UUID</t>
+  </si>
+  <si>
+    <t>FF 6A 00 18 UUID（字符串） XX XX</t>
+  </si>
+  <si>
     <t>pc区特性</t>
   </si>
   <si>
@@ -450,69 +486,19 @@
   </si>
   <si>
     <t>连接成功后会每50ms发送一次写命令（目前该功能为自增的虚拟时间码）</t>
-  </si>
-  <si>
-    <t>info区特性</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>只读信息区，主要用于保存uuid，软件版本，硬件版本等设备信息。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备UUID</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>ASCII字符串</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>read_info</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>对象id</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1个字节</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>FF 6A 00 XX XX</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>read_info</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>对象长度len</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>data</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>len个字节</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>UUID</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>FF 6A 00 18 UUID（字符串） XX XX</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -535,9 +521,147 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -547,17 +671,17 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -566,7 +690,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="0" tint="-0.149998474074526"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -582,8 +706,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -606,9 +916,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -652,9 +1204,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -664,26 +1225,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -974,19 +1573,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E197"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="15.875" customWidth="1"/>
     <col min="2" max="2" width="14.125" customWidth="1"/>
@@ -995,7 +1594,7 @@
     <col min="6" max="6" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1003,7 +1602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1011,12 +1610,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1027,7 +1626,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1035,7 +1634,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1043,12 +1642,12 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:1">
       <c r="A10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -1059,7 +1658,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1067,7 +1666,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:1">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1089,7 +1688,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="2:5">
       <c r="B16" s="8" t="s">
         <v>19</v>
       </c>
@@ -1103,7 +1702,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="17" spans="2:5">
+    <row r="17" spans="3:5">
       <c r="C17" s="9" t="s">
         <v>22</v>
       </c>
@@ -1114,7 +1713,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="2:5">
+    <row r="18" spans="3:5">
       <c r="C18" s="9" t="s">
         <v>23</v>
       </c>
@@ -1125,7 +1724,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="19" spans="2:5">
+    <row r="19" spans="3:5">
       <c r="C19" s="1" t="s">
         <v>25</v>
       </c>
@@ -1136,7 +1735,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="2:5">
+    <row r="21" spans="2:4">
       <c r="B21" s="1" t="s">
         <v>28</v>
       </c>
@@ -1175,7 +1774,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="26" spans="2:5">
+    <row r="26" spans="3:5">
       <c r="C26" s="9" t="s">
         <v>22</v>
       </c>
@@ -1186,7 +1785,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="2:5">
+    <row r="27" spans="3:5">
       <c r="C27" s="9" t="s">
         <v>23</v>
       </c>
@@ -1197,7 +1796,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="28" spans="2:5">
+    <row r="28" spans="3:5">
       <c r="C28" s="1" t="s">
         <v>25</v>
       </c>
@@ -1208,7 +1807,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="2:5">
+    <row r="30" spans="2:4">
       <c r="B30" s="1" t="s">
         <v>28</v>
       </c>
@@ -1247,7 +1846,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="35" spans="2:5">
+    <row r="35" spans="3:5">
       <c r="C35" s="9" t="s">
         <v>22</v>
       </c>
@@ -1258,7 +1857,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="36" spans="2:5">
+    <row r="36" spans="3:5">
       <c r="C36" s="9" t="s">
         <v>34</v>
       </c>
@@ -1269,7 +1868,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="2:5">
+    <row r="37" spans="3:5">
       <c r="C37" s="1" t="s">
         <v>25</v>
       </c>
@@ -1280,7 +1879,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="2:5">
+    <row r="39" spans="2:4">
       <c r="B39" s="1" t="s">
         <v>28</v>
       </c>
@@ -1319,7 +1918,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="44" spans="2:5">
+    <row r="44" spans="3:5">
       <c r="C44" s="9" t="s">
         <v>22</v>
       </c>
@@ -1330,7 +1929,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="2:5">
+    <row r="45" spans="3:5">
       <c r="C45" s="9" t="s">
         <v>34</v>
       </c>
@@ -1341,7 +1940,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="2:5">
+    <row r="46" spans="3:5">
       <c r="C46" s="1" t="s">
         <v>25</v>
       </c>
@@ -1352,7 +1951,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="48" spans="2:5">
+    <row r="48" spans="2:4">
       <c r="B48" s="1" t="s">
         <v>28</v>
       </c>
@@ -1391,7 +1990,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="53" spans="2:5">
+    <row r="53" spans="3:5">
       <c r="C53" s="9" t="s">
         <v>22</v>
       </c>
@@ -1402,7 +2001,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="54" spans="2:5">
+    <row r="54" spans="3:5">
       <c r="C54" s="9" t="s">
         <v>38</v>
       </c>
@@ -1413,7 +2012,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="2:5">
+    <row r="55" spans="3:5">
       <c r="C55" s="9" t="s">
         <v>39</v>
       </c>
@@ -1424,7 +2023,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="2:5">
+    <row r="56" spans="3:5">
       <c r="C56" s="1" t="s">
         <v>25</v>
       </c>
@@ -1435,7 +2034,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="58" spans="2:5">
+    <row r="58" spans="2:4">
       <c r="B58" s="1" t="s">
         <v>28</v>
       </c>
@@ -1474,7 +2073,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="63" spans="2:5">
+    <row r="63" spans="3:5">
       <c r="C63" s="9" t="s">
         <v>22</v>
       </c>
@@ -1485,7 +2084,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="64" spans="2:5">
+    <row r="64" spans="3:5">
       <c r="C64" s="9" t="s">
         <v>38</v>
       </c>
@@ -1496,7 +2095,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="2:5">
+    <row r="65" spans="3:5">
       <c r="C65" s="9" t="s">
         <v>39</v>
       </c>
@@ -1507,7 +2106,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="2:5">
+    <row r="66" spans="3:5">
       <c r="C66" s="9" t="s">
         <v>41</v>
       </c>
@@ -1518,7 +2117,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="67" spans="2:5">
+    <row r="67" spans="3:5">
       <c r="C67" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,7 +2128,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="69" spans="2:5">
+    <row r="69" spans="2:4">
       <c r="B69" s="1" t="s">
         <v>28</v>
       </c>
@@ -1568,7 +2167,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="74" spans="2:5">
+    <row r="74" spans="3:5">
       <c r="C74" s="9" t="s">
         <v>22</v>
       </c>
@@ -1579,7 +2178,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="75" spans="2:5">
+    <row r="75" spans="3:5">
       <c r="C75" s="9" t="s">
         <v>38</v>
       </c>
@@ -1590,7 +2189,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="2:5">
+    <row r="76" spans="3:5">
       <c r="C76" s="9" t="s">
         <v>39</v>
       </c>
@@ -1601,7 +2200,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="2:5">
+    <row r="77" spans="3:5">
       <c r="C77" s="9" t="s">
         <v>41</v>
       </c>
@@ -1612,7 +2211,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="78" spans="2:5">
+    <row r="78" spans="3:5">
       <c r="C78" s="1" t="s">
         <v>25</v>
       </c>
@@ -1623,7 +2222,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="80" spans="2:5">
+    <row r="80" spans="2:4">
       <c r="B80" s="1" t="s">
         <v>28</v>
       </c>
@@ -1662,7 +2261,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="85" spans="2:5">
+    <row r="85" spans="3:5">
       <c r="C85" s="9" t="s">
         <v>22</v>
       </c>
@@ -1673,7 +2272,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="86" spans="2:5">
+    <row r="86" spans="3:5">
       <c r="C86" s="9" t="s">
         <v>38</v>
       </c>
@@ -1684,7 +2283,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="87" spans="2:5">
+    <row r="87" spans="3:5">
       <c r="C87" s="9" t="s">
         <v>39</v>
       </c>
@@ -1695,7 +2294,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="2:5">
+    <row r="88" spans="3:5">
       <c r="C88" s="1" t="s">
         <v>25</v>
       </c>
@@ -1706,7 +2305,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="90" spans="2:5">
+    <row r="90" spans="2:4">
       <c r="B90" s="1" t="s">
         <v>28</v>
       </c>
@@ -1745,7 +2344,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="95" spans="2:5">
+    <row r="95" spans="3:5">
       <c r="C95" s="9" t="s">
         <v>22</v>
       </c>
@@ -1756,7 +2355,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="96" spans="2:5">
+    <row r="96" spans="3:5">
       <c r="C96" s="9" t="s">
         <v>38</v>
       </c>
@@ -1767,7 +2366,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="97" spans="2:5">
+    <row r="97" spans="3:5">
       <c r="C97" s="9" t="s">
         <v>39</v>
       </c>
@@ -1778,7 +2377,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="2:5">
+    <row r="98" spans="3:5">
       <c r="C98" s="1" t="s">
         <v>25</v>
       </c>
@@ -1789,7 +2388,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="100" spans="2:5">
+    <row r="100" spans="2:4">
       <c r="B100" s="1" t="s">
         <v>28</v>
       </c>
@@ -1828,7 +2427,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="105" spans="2:5">
+    <row r="105" spans="3:5">
       <c r="C105" s="9" t="s">
         <v>22</v>
       </c>
@@ -1839,7 +2438,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="2:5">
+    <row r="106" spans="3:5">
       <c r="C106" s="9" t="s">
         <v>38</v>
       </c>
@@ -1850,7 +2449,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="107" spans="2:5">
+    <row r="107" spans="3:5">
       <c r="C107" s="9" t="s">
         <v>39</v>
       </c>
@@ -1861,7 +2460,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="2:5">
+    <row r="108" spans="3:5">
       <c r="C108" s="9" t="s">
         <v>41</v>
       </c>
@@ -1872,7 +2471,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="109" spans="2:5">
+    <row r="109" spans="3:5">
       <c r="C109" s="1" t="s">
         <v>25</v>
       </c>
@@ -1883,7 +2482,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="111" spans="2:5">
+    <row r="111" spans="2:4">
       <c r="B111" s="1" t="s">
         <v>28</v>
       </c>
@@ -1922,7 +2521,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="116" spans="2:5">
+    <row r="116" spans="3:5">
       <c r="C116" s="9" t="s">
         <v>22</v>
       </c>
@@ -1933,7 +2532,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="117" spans="2:5">
+    <row r="117" spans="3:5">
       <c r="C117" s="9" t="s">
         <v>38</v>
       </c>
@@ -1944,7 +2543,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="118" spans="2:5">
+    <row r="118" spans="3:5">
       <c r="C118" s="9" t="s">
         <v>39</v>
       </c>
@@ -1955,7 +2554,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="2:5">
+    <row r="119" spans="3:5">
       <c r="C119" s="9" t="s">
         <v>41</v>
       </c>
@@ -1966,7 +2565,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="120" spans="2:5">
+    <row r="120" spans="3:5">
       <c r="C120" s="1" t="s">
         <v>25</v>
       </c>
@@ -1977,7 +2576,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="122" spans="2:5">
+    <row r="122" spans="2:4">
       <c r="B122" s="1" t="s">
         <v>28</v>
       </c>
@@ -2016,7 +2615,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="127" spans="2:5">
+    <row r="127" spans="3:5">
       <c r="C127" s="9" t="s">
         <v>22</v>
       </c>
@@ -2027,7 +2626,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="128" spans="2:5">
+    <row r="128" spans="3:5">
       <c r="C128" s="9" t="s">
         <v>38</v>
       </c>
@@ -2038,7 +2637,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="129" spans="2:5">
+    <row r="129" spans="3:5">
       <c r="C129" s="9" t="s">
         <v>39</v>
       </c>
@@ -2049,7 +2648,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="2:5">
+    <row r="130" spans="3:5">
       <c r="C130" s="1" t="s">
         <v>25</v>
       </c>
@@ -2060,7 +2659,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="132" spans="2:5">
+    <row r="132" spans="2:4">
       <c r="B132" s="1" t="s">
         <v>28</v>
       </c>
@@ -2099,7 +2698,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="137" spans="2:5">
+    <row r="137" spans="3:5">
       <c r="C137" s="9" t="s">
         <v>22</v>
       </c>
@@ -2110,7 +2709,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="138" spans="2:5">
+    <row r="138" spans="3:5">
       <c r="C138" s="9" t="s">
         <v>55</v>
       </c>
@@ -2121,7 +2720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="2:5">
+    <row r="139" spans="3:5">
       <c r="C139" s="1" t="s">
         <v>25</v>
       </c>
@@ -2132,7 +2731,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="141" spans="2:5">
+    <row r="141" spans="2:4">
       <c r="B141" s="1" t="s">
         <v>28</v>
       </c>
@@ -2157,7 +2756,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145" spans="2:5">
       <c r="B145" s="11" t="s">
         <v>54</v>
       </c>
@@ -2171,7 +2770,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146" spans="3:5">
       <c r="C146" s="9" t="s">
         <v>22</v>
       </c>
@@ -2182,7 +2781,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="147" spans="1:5">
+    <row r="147" spans="3:5">
       <c r="C147" s="9" t="s">
         <v>55</v>
       </c>
@@ -2193,7 +2792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148" spans="3:5">
       <c r="C148" s="9" t="s">
         <v>57</v>
       </c>
@@ -2204,7 +2803,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" spans="3:5">
       <c r="C149" s="9" t="s">
         <v>58</v>
       </c>
@@ -2215,7 +2814,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="150" spans="1:5">
+    <row r="150" spans="3:5">
       <c r="C150" s="1" t="s">
         <v>25</v>
       </c>
@@ -2226,7 +2825,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="27">
+    <row r="152" ht="27" spans="2:4">
       <c r="B152" s="1" t="s">
         <v>28</v>
       </c>
@@ -2254,7 +2853,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="159" spans="1:5">
+    <row r="159" spans="2:5">
       <c r="B159" s="8" t="s">
         <v>62</v>
       </c>
@@ -2268,7 +2867,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="160" spans="1:5">
+    <row r="160" spans="3:5">
       <c r="C160" s="9" t="s">
         <v>22</v>
       </c>
@@ -2279,7 +2878,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="161" spans="2:5">
+    <row r="161" spans="3:5">
       <c r="C161" s="9" t="s">
         <v>38</v>
       </c>
@@ -2290,7 +2889,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="162" spans="2:5">
+    <row r="162" spans="3:5">
       <c r="C162" s="9" t="s">
         <v>39</v>
       </c>
@@ -2301,7 +2900,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="163" spans="2:5">
+    <row r="163" spans="3:5">
       <c r="C163" s="1" t="s">
         <v>25</v>
       </c>
@@ -2312,7 +2911,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="165" spans="2:5">
+    <row r="165" spans="2:4">
       <c r="B165" s="1" t="s">
         <v>28</v>
       </c>
@@ -2351,7 +2950,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="170" spans="2:5">
+    <row r="170" spans="3:5">
       <c r="C170" s="9" t="s">
         <v>22</v>
       </c>
@@ -2362,7 +2961,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="171" spans="2:5">
+    <row r="171" spans="3:5">
       <c r="C171" s="9" t="s">
         <v>38</v>
       </c>
@@ -2373,7 +2972,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="172" spans="2:5">
+    <row r="172" spans="3:5">
       <c r="C172" s="9" t="s">
         <v>39</v>
       </c>
@@ -2384,7 +2983,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="173" spans="2:5">
+    <row r="173" spans="3:5">
       <c r="C173" s="9" t="s">
         <v>41</v>
       </c>
@@ -2395,7 +2994,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="174" spans="2:5">
+    <row r="174" spans="3:5">
       <c r="C174" s="1" t="s">
         <v>25</v>
       </c>
@@ -2406,7 +3005,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="176" spans="2:5">
+    <row r="176" spans="2:4">
       <c r="B176" s="1" t="s">
         <v>28</v>
       </c>
@@ -2445,7 +3044,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="181" spans="2:5">
+    <row r="181" spans="3:5">
       <c r="C181" s="9" t="s">
         <v>22</v>
       </c>
@@ -2456,7 +3055,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="182" spans="2:5">
+    <row r="182" spans="3:5">
       <c r="C182" s="9" t="s">
         <v>38</v>
       </c>
@@ -2467,7 +3066,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="183" spans="2:5">
+    <row r="183" spans="3:5">
       <c r="C183" s="9" t="s">
         <v>39</v>
       </c>
@@ -2478,7 +3077,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="184" spans="2:5">
+    <row r="184" spans="3:5">
       <c r="C184" s="9" t="s">
         <v>41</v>
       </c>
@@ -2489,7 +3088,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="185" spans="2:5">
+    <row r="185" spans="3:5">
       <c r="C185" s="1" t="s">
         <v>25</v>
       </c>
@@ -2500,7 +3099,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="187" spans="2:5">
+    <row r="187" spans="2:4">
       <c r="B187" s="1" t="s">
         <v>28</v>
       </c>
@@ -2539,7 +3138,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="192" spans="2:5">
+    <row r="192" spans="3:5">
       <c r="C192" s="9" t="s">
         <v>22</v>
       </c>
@@ -2550,7 +3149,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="193" spans="2:5">
+    <row r="193" spans="3:5">
       <c r="C193" s="9" t="s">
         <v>38</v>
       </c>
@@ -2561,7 +3160,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="194" spans="2:5">
+    <row r="194" spans="3:5">
       <c r="C194" s="9" t="s">
         <v>39</v>
       </c>
@@ -2572,7 +3171,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="195" spans="2:5">
+    <row r="195" spans="3:5">
       <c r="C195" s="1" t="s">
         <v>25</v>
       </c>
@@ -2583,7 +3182,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="197" spans="2:5">
+    <row r="197" spans="2:4">
       <c r="B197" s="1" t="s">
         <v>28</v>
       </c>
@@ -2595,21 +3194,22 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B3:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3:E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="12.5" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
@@ -2619,10 +3219,10 @@
       <c r="B3" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="19" t="s">
         <v>30</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -2636,7 +3236,7 @@
       <c r="C4" s="9">
         <v>100</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="19" t="s">
         <v>71</v>
       </c>
       <c r="E4" s="1"/>
@@ -2648,7 +3248,7 @@
       <c r="C5" s="9">
         <v>101</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="19" t="s">
         <v>72</v>
       </c>
       <c r="E5" s="12" t="s">
@@ -2662,7 +3262,7 @@
       <c r="C6" s="9">
         <v>102</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="19" t="s">
         <v>74</v>
       </c>
       <c r="E6" s="1"/>
@@ -2674,7 +3274,7 @@
       <c r="C7" s="9">
         <v>103</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="19" t="s">
         <v>75</v>
       </c>
       <c r="E7" s="1"/>
@@ -2686,7 +3286,7 @@
       <c r="C8" s="9">
         <v>104</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="19" t="s">
         <v>76</v>
       </c>
       <c r="E8" s="1"/>
@@ -2698,7 +3298,7 @@
       <c r="C9" s="9">
         <v>105</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="19" t="s">
         <v>77</v>
       </c>
       <c r="E9" s="1"/>
@@ -2710,7 +3310,7 @@
       <c r="C10" s="9">
         <v>106</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="19" t="s">
         <v>78</v>
       </c>
       <c r="E10" s="12" t="s">
@@ -2724,7 +3324,7 @@
       <c r="C11" s="9">
         <v>107</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="19" t="s">
         <v>79</v>
       </c>
       <c r="E11" s="12" t="s">
@@ -2738,7 +3338,7 @@
       <c r="C12" s="9">
         <v>108</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="19" t="s">
         <v>80</v>
       </c>
       <c r="E12" s="12" t="s">
@@ -2746,21 +3346,22 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B3:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="14.5" customWidth="1"/>
     <col min="4" max="4" width="12.5" customWidth="1"/>
@@ -2771,10 +3372,10 @@
       <c r="B3" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="19" t="s">
         <v>30</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -2788,10 +3389,10 @@
       <c r="C4" s="9">
         <v>0</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="16" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2802,10 +3403,10 @@
       <c r="C5" s="9">
         <v>255</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="20" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2813,31 +3414,32 @@
       <c r="B6" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="16" t="s">
         <v>92</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B3:E58"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="16.375" customWidth="1"/>
     <col min="3" max="3" width="35.25" customWidth="1"/>
@@ -2845,7 +3447,7 @@
     <col min="5" max="5" width="29.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5" ht="27">
+    <row r="3" ht="27" spans="2:3">
       <c r="B3" s="1" t="s">
         <v>93</v>
       </c>
@@ -2853,7 +3455,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="2:5">
+    <row r="4" spans="2:3">
       <c r="B4" s="1" t="s">
         <v>95</v>
       </c>
@@ -2861,7 +3463,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="2:5">
+    <row r="5" spans="2:3">
       <c r="B5" s="1" t="s">
         <v>97</v>
       </c>
@@ -2883,7 +3485,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="54">
+    <row r="8" ht="54" spans="2:5">
       <c r="B8" s="3">
         <v>0</v>
       </c>
@@ -2893,7 +3495,7 @@
       <c r="D8" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="15" t="s">
         <v>102</v>
       </c>
     </row>
@@ -2909,7 +3511,7 @@
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="2:5" ht="40.5">
+    <row r="10" ht="40.5" spans="2:5">
       <c r="B10" s="3">
         <v>8</v>
       </c>
@@ -2919,7 +3521,7 @@
       <c r="D10" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="16" t="s">
         <v>105</v>
       </c>
     </row>
@@ -2947,22 +3549,22 @@
       </c>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="2:5">
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="15"/>
-    </row>
-    <row r="14" spans="2:5">
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="15"/>
-    </row>
-    <row r="15" spans="2:5">
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="15"/>
-    </row>
-    <row r="18" spans="2:5">
+    <row r="13" spans="2:4">
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="18"/>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="18"/>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="18"/>
+    </row>
+    <row r="18" spans="2:2">
       <c r="B18" t="s">
         <v>107</v>
       </c>
@@ -2995,7 +3597,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="21" spans="2:5">
+    <row r="21" spans="3:5">
       <c r="C21" s="9" t="s">
         <v>22</v>
       </c>
@@ -3006,7 +3608,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="22" spans="2:5">
+    <row r="22" spans="3:5">
       <c r="C22" s="9" t="s">
         <v>38</v>
       </c>
@@ -3017,7 +3619,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="2:5">
+    <row r="23" spans="3:5">
       <c r="C23" s="9" t="s">
         <v>39</v>
       </c>
@@ -3028,7 +3630,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:5">
+    <row r="24" spans="3:5">
       <c r="C24" s="1" t="s">
         <v>25</v>
       </c>
@@ -3039,7 +3641,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="2:5">
+    <row r="26" spans="2:4">
       <c r="B26" s="1" t="s">
         <v>28</v>
       </c>
@@ -3078,7 +3680,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="31" spans="2:5">
+    <row r="31" spans="3:5">
       <c r="C31" s="9" t="s">
         <v>22</v>
       </c>
@@ -3089,7 +3691,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="32" spans="2:5">
+    <row r="32" spans="3:5">
       <c r="C32" s="9" t="s">
         <v>38</v>
       </c>
@@ -3100,7 +3702,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="2:5">
+    <row r="33" spans="3:5">
       <c r="C33" s="9" t="s">
         <v>39</v>
       </c>
@@ -3111,7 +3713,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="2:5">
+    <row r="34" spans="3:5">
       <c r="C34" s="9" t="s">
         <v>41</v>
       </c>
@@ -3122,7 +3724,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="2:5">
+    <row r="35" spans="3:5">
       <c r="C35" s="1" t="s">
         <v>25</v>
       </c>
@@ -3133,7 +3735,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="2:5">
+    <row r="37" spans="2:4">
       <c r="B37" s="1" t="s">
         <v>28</v>
       </c>
@@ -3172,7 +3774,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="42" spans="2:5">
+    <row r="42" spans="3:5">
       <c r="C42" s="9" t="s">
         <v>22</v>
       </c>
@@ -3183,7 +3785,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="43" spans="2:5">
+    <row r="43" spans="3:5">
       <c r="C43" s="9" t="s">
         <v>38</v>
       </c>
@@ -3194,7 +3796,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="2:5">
+    <row r="44" spans="3:5">
       <c r="C44" s="9" t="s">
         <v>39</v>
       </c>
@@ -3205,7 +3807,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="2:5">
+    <row r="45" spans="3:5">
       <c r="C45" s="9" t="s">
         <v>41</v>
       </c>
@@ -3216,7 +3818,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="2:5">
+    <row r="46" spans="3:5">
       <c r="C46" s="1" t="s">
         <v>25</v>
       </c>
@@ -3227,7 +3829,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="48" spans="2:5">
+    <row r="48" spans="2:4">
       <c r="B48" s="1" t="s">
         <v>28</v>
       </c>
@@ -3266,7 +3868,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="53" spans="2:5">
+    <row r="53" spans="3:5">
       <c r="C53" s="9" t="s">
         <v>22</v>
       </c>
@@ -3277,7 +3879,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="54" spans="2:5">
+    <row r="54" spans="3:5">
       <c r="C54" s="9" t="s">
         <v>38</v>
       </c>
@@ -3288,7 +3890,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="2:5">
+    <row r="55" spans="3:5">
       <c r="C55" s="9" t="s">
         <v>39</v>
       </c>
@@ -3299,7 +3901,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="2:5">
+    <row r="56" spans="3:5">
       <c r="C56" s="1" t="s">
         <v>25</v>
       </c>
@@ -3310,7 +3912,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="58" spans="2:5">
+    <row r="58" spans="2:4">
       <c r="B58" s="1" t="s">
         <v>28</v>
       </c>
@@ -3322,21 +3924,22 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B3:E55"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B15" sqref="B15:E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="18.125" customWidth="1"/>
     <col min="3" max="3" width="36.25" customWidth="1"/>
@@ -3344,7 +3947,7 @@
     <col min="5" max="5" width="27.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5" ht="40.5">
+    <row r="3" ht="40.5" spans="2:3">
       <c r="B3" s="1" t="s">
         <v>108</v>
       </c>
@@ -3352,7 +3955,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="2:5">
+    <row r="4" spans="2:3">
       <c r="B4" s="1" t="s">
         <v>95</v>
       </c>
@@ -3360,7 +3963,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="2:5">
+    <row r="5" spans="2:3">
       <c r="B5" s="1" t="s">
         <v>97</v>
       </c>
@@ -3368,7 +3971,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="2:5">
+    <row r="7" spans="2:4">
       <c r="B7" s="1" t="s">
         <v>99</v>
       </c>
@@ -3379,7 +3982,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="40.5">
+    <row r="8" ht="40.5" spans="2:4">
       <c r="B8" s="3">
         <v>0</v>
       </c>
@@ -3390,7 +3993,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="9" spans="2:5">
+    <row r="9" spans="2:4">
       <c r="B9" s="5">
         <v>32</v>
       </c>
@@ -3401,7 +4004,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="15" spans="2:5">
+    <row r="15" spans="2:2">
       <c r="B15" t="s">
         <v>107</v>
       </c>
@@ -3434,7 +4037,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="18" spans="2:5">
+    <row r="18" spans="3:5">
       <c r="C18" s="9" t="s">
         <v>22</v>
       </c>
@@ -3445,7 +4048,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="2:5">
+    <row r="19" spans="3:5">
       <c r="C19" s="9" t="s">
         <v>38</v>
       </c>
@@ -3456,7 +4059,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="2:5">
+    <row r="20" spans="3:5">
       <c r="C20" s="9" t="s">
         <v>39</v>
       </c>
@@ -3467,7 +4070,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="2:5">
+    <row r="21" spans="3:5">
       <c r="C21" s="1" t="s">
         <v>25</v>
       </c>
@@ -3478,7 +4081,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="2:5">
+    <row r="23" spans="2:4">
       <c r="B23" s="1" t="s">
         <v>28</v>
       </c>
@@ -3517,7 +4120,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="28" spans="2:5">
+    <row r="28" spans="3:5">
       <c r="C28" s="9" t="s">
         <v>22</v>
       </c>
@@ -3528,7 +4131,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="29" spans="2:5">
+    <row r="29" spans="3:5">
       <c r="C29" s="9" t="s">
         <v>38</v>
       </c>
@@ -3539,7 +4142,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="2:5">
+    <row r="30" spans="3:5">
       <c r="C30" s="9" t="s">
         <v>39</v>
       </c>
@@ -3550,7 +4153,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="2:5">
+    <row r="31" spans="3:5">
       <c r="C31" s="9" t="s">
         <v>41</v>
       </c>
@@ -3561,7 +4164,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="2:5">
+    <row r="32" spans="3:5">
       <c r="C32" s="1" t="s">
         <v>25</v>
       </c>
@@ -3572,7 +4175,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="2:5">
+    <row r="34" spans="2:4">
       <c r="B34" s="1" t="s">
         <v>28</v>
       </c>
@@ -3611,7 +4214,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="39" spans="2:5">
+    <row r="39" spans="3:5">
       <c r="C39" s="9" t="s">
         <v>22</v>
       </c>
@@ -3622,7 +4225,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="40" spans="2:5">
+    <row r="40" spans="3:5">
       <c r="C40" s="9" t="s">
         <v>38</v>
       </c>
@@ -3633,7 +4236,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="2:5">
+    <row r="41" spans="3:5">
       <c r="C41" s="9" t="s">
         <v>39</v>
       </c>
@@ -3644,7 +4247,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="2:5">
+    <row r="42" spans="3:5">
       <c r="C42" s="9" t="s">
         <v>41</v>
       </c>
@@ -3655,7 +4258,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="2:5">
+    <row r="43" spans="3:5">
       <c r="C43" s="1" t="s">
         <v>25</v>
       </c>
@@ -3666,7 +4269,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="2:5">
+    <row r="45" spans="2:4">
       <c r="B45" s="1" t="s">
         <v>28</v>
       </c>
@@ -3705,7 +4308,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="50" spans="2:5">
+    <row r="50" spans="3:5">
       <c r="C50" s="9" t="s">
         <v>22</v>
       </c>
@@ -3716,7 +4319,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="51" spans="2:5">
+    <row r="51" spans="3:5">
       <c r="C51" s="9" t="s">
         <v>38</v>
       </c>
@@ -3727,7 +4330,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="2:5">
+    <row r="52" spans="3:5">
       <c r="C52" s="9" t="s">
         <v>39</v>
       </c>
@@ -3738,7 +4341,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="2:5">
+    <row r="53" spans="3:5">
       <c r="C53" s="1" t="s">
         <v>25</v>
       </c>
@@ -3749,7 +4352,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="55" spans="2:5">
+    <row r="55" spans="2:4">
       <c r="B55" s="1" t="s">
         <v>28</v>
       </c>
@@ -3761,20 +4364,21 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B3:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="19.375" customWidth="1"/>
     <col min="3" max="3" width="57.75" customWidth="1"/>
@@ -3782,17 +4386,17 @@
     <col min="5" max="5" width="21.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5">
+    <row r="3" spans="2:3">
       <c r="B3" s="1" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
       <c r="B4" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>96</v>
@@ -3800,13 +4404,13 @@
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="1" t="s">
-        <v>124</v>
+        <v>55</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>70</v>
@@ -3817,16 +4421,16 @@
         <v>0</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E7" s="12"/>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" s="5" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>103</v>
@@ -3834,7 +4438,7 @@
       <c r="D8" s="6"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="14" spans="2:5">
+    <row r="14" spans="2:2">
       <c r="B14" t="s">
         <v>107</v>
       </c>
@@ -3855,7 +4459,7 @@
     </row>
     <row r="16" spans="2:5">
       <c r="B16" s="8" t="s">
-        <v>127</v>
+        <v>54</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>20</v>
@@ -3867,7 +4471,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="17" spans="2:5">
+    <row r="17" spans="3:5">
       <c r="C17" s="9" t="s">
         <v>22</v>
       </c>
@@ -3878,18 +4482,18 @@
         <v>106</v>
       </c>
     </row>
-    <row r="18" spans="2:5">
-      <c r="C18" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>125</v>
+    <row r="18" spans="3:5">
+      <c r="C18" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="E18" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:5">
+    <row r="19" spans="3:5">
       <c r="C19" s="1" t="s">
         <v>25</v>
       </c>
@@ -3900,12 +4504,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="2:5">
+    <row r="21" spans="2:4">
       <c r="B21" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>126</v>
+        <v>56</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>30</v>
@@ -3927,7 +4531,7 @@
     </row>
     <row r="25" spans="2:5">
       <c r="B25" s="11" t="s">
-        <v>123</v>
+        <v>54</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>20</v>
@@ -3939,7 +4543,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="26" spans="2:5">
+    <row r="26" spans="3:5">
       <c r="C26" s="9" t="s">
         <v>22</v>
       </c>
@@ -3950,40 +4554,40 @@
         <v>106</v>
       </c>
     </row>
-    <row r="27" spans="2:5">
-      <c r="C27" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="D27" s="20" t="s">
-        <v>125</v>
+    <row r="27" spans="3:5">
+      <c r="C27" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="E27" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:5">
-      <c r="C28" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="D28" s="20" t="s">
-        <v>125</v>
+    <row r="28" spans="3:5">
+      <c r="C28" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="E28" s="9">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="2:5">
-      <c r="C29" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="D29" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="E29" s="21" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5">
+    <row r="29" spans="3:5">
+      <c r="C29" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -3994,32 +4598,33 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="2:5">
+    <row r="32" spans="2:4">
       <c r="B32" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>30</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B3:E56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="14.375" customWidth="1"/>
     <col min="3" max="3" width="37" customWidth="1"/>
@@ -4027,15 +4632,15 @@
     <col min="5" max="5" width="27.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5" ht="27">
+    <row r="3" ht="27" spans="2:3">
       <c r="B3" s="1" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
       <c r="B4" s="1" t="s">
         <v>95</v>
       </c>
@@ -4043,7 +4648,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="2:5">
+    <row r="5" spans="2:3">
       <c r="B5" s="1" t="s">
         <v>97</v>
       </c>
@@ -4065,7 +4670,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="54">
+    <row r="8" ht="54" spans="2:5">
       <c r="B8" s="3">
         <v>0</v>
       </c>
@@ -4073,10 +4678,10 @@
         <v>4</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="2:5">
@@ -4103,7 +4708,7 @@
       </c>
       <c r="E10" s="1"/>
     </row>
-    <row r="16" spans="2:5">
+    <row r="16" spans="2:2">
       <c r="B16" t="s">
         <v>107</v>
       </c>
@@ -4136,7 +4741,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="19" spans="2:5">
+    <row r="19" spans="3:5">
       <c r="C19" s="9" t="s">
         <v>22</v>
       </c>
@@ -4147,7 +4752,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="20" spans="2:5">
+    <row r="20" spans="3:5">
       <c r="C20" s="9" t="s">
         <v>38</v>
       </c>
@@ -4158,7 +4763,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="2:5">
+    <row r="21" spans="3:5">
       <c r="C21" s="9" t="s">
         <v>39</v>
       </c>
@@ -4169,7 +4774,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="2:5">
+    <row r="22" spans="3:5">
       <c r="C22" s="1" t="s">
         <v>25</v>
       </c>
@@ -4180,7 +4785,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="2:5">
+    <row r="24" spans="2:4">
       <c r="B24" s="1" t="s">
         <v>28</v>
       </c>
@@ -4219,7 +4824,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="29" spans="2:5">
+    <row r="29" spans="3:5">
       <c r="C29" s="9" t="s">
         <v>22</v>
       </c>
@@ -4230,7 +4835,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="30" spans="2:5">
+    <row r="30" spans="3:5">
       <c r="C30" s="9" t="s">
         <v>38</v>
       </c>
@@ -4241,7 +4846,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="2:5">
+    <row r="31" spans="3:5">
       <c r="C31" s="9" t="s">
         <v>39</v>
       </c>
@@ -4252,7 +4857,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="2:5">
+    <row r="32" spans="3:5">
       <c r="C32" s="9" t="s">
         <v>41</v>
       </c>
@@ -4263,7 +4868,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="2:5">
+    <row r="33" spans="3:5">
       <c r="C33" s="1" t="s">
         <v>25</v>
       </c>
@@ -4274,7 +4879,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="2:5">
+    <row r="35" spans="2:4">
       <c r="B35" s="1" t="s">
         <v>28</v>
       </c>
@@ -4313,7 +4918,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="40" spans="2:5">
+    <row r="40" spans="3:5">
       <c r="C40" s="9" t="s">
         <v>22</v>
       </c>
@@ -4324,7 +4929,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="41" spans="2:5">
+    <row r="41" spans="3:5">
       <c r="C41" s="9" t="s">
         <v>38</v>
       </c>
@@ -4335,7 +4940,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="2:5">
+    <row r="42" spans="3:5">
       <c r="C42" s="9" t="s">
         <v>39</v>
       </c>
@@ -4346,7 +4951,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="2:5">
+    <row r="43" spans="3:5">
       <c r="C43" s="9" t="s">
         <v>41</v>
       </c>
@@ -4357,7 +4962,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="2:5">
+    <row r="44" spans="3:5">
       <c r="C44" s="1" t="s">
         <v>25</v>
       </c>
@@ -4368,7 +4973,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="2:5">
+    <row r="46" spans="2:4">
       <c r="B46" s="1" t="s">
         <v>28</v>
       </c>
@@ -4407,7 +5012,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="51" spans="2:5">
+    <row r="51" spans="3:5">
       <c r="C51" s="9" t="s">
         <v>22</v>
       </c>
@@ -4418,7 +5023,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="52" spans="2:5">
+    <row r="52" spans="3:5">
       <c r="C52" s="9" t="s">
         <v>38</v>
       </c>
@@ -4429,7 +5034,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="2:5">
+    <row r="53" spans="3:5">
       <c r="C53" s="9" t="s">
         <v>39</v>
       </c>
@@ -4440,7 +5045,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="2:5">
+    <row r="54" spans="3:5">
       <c r="C54" s="1" t="s">
         <v>25</v>
       </c>
@@ -4451,7 +5056,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="56" spans="2:5">
+    <row r="56" spans="2:4">
       <c r="B56" s="1" t="s">
         <v>28</v>
       </c>
@@ -4463,7 +5068,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/doc/wpfPlayer_UDP_通信协议.xlsx
+++ b/doc/wpfPlayer_UDP_通信协议.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14295" windowHeight="12630" firstSheet="1" activeTab="3"/>
+    <workbookView windowWidth="14295" windowHeight="12630" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="协议概述" sheetId="1" r:id="rId1"/>
@@ -241,25 +241,25 @@
     <t>0x65</t>
   </si>
   <si>
+    <t>0x66</t>
+  </si>
+  <si>
+    <t>0x67</t>
+  </si>
+  <si>
+    <t>0x68</t>
+  </si>
+  <si>
+    <t>0x69</t>
+  </si>
+  <si>
+    <t>0x6A</t>
+  </si>
+  <si>
+    <t>0x6B</t>
+  </si>
+  <si>
     <t>目前该功能未实现</t>
-  </si>
-  <si>
-    <t>0x66</t>
-  </si>
-  <si>
-    <t>0x67</t>
-  </si>
-  <si>
-    <t>0x68</t>
-  </si>
-  <si>
-    <t>0x69</t>
-  </si>
-  <si>
-    <t>0x6A</t>
-  </si>
-  <si>
-    <t>0x6B</t>
   </si>
   <si>
     <t>0x6C</t>
@@ -281,6 +281,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>广播地址（</t>
@@ -351,6 +352,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>座椅板地址（</t>
@@ -403,6 +405,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">三自由度只认为D1、D2、D3有效
 二自由度只认为D1、D3有效
 六自由度认为D1到D6有效
@@ -485,7 +492,7 @@
     <t>一共4个字节的数据空间，分别D1，D2，D3，D4，分别对应时间码的时、分、秒、帧</t>
   </si>
   <si>
-    <t>连接成功后会每50ms发送一次写命令（目前该功能为自增的虚拟时间码）</t>
+    <t>连接成功后收到一次时间码帧发送一次</t>
   </si>
 </sst>
 </file>
@@ -494,9 +501,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -3206,7 +3213,7 @@
   <dimension ref="B3:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:E12"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3251,9 +3258,7 @@
       <c r="D5" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="12" t="s">
-        <v>73</v>
-      </c>
+      <c r="E5" s="12"/>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="1" t="s">
@@ -3263,7 +3268,7 @@
         <v>102</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E6" s="1"/>
     </row>
@@ -3275,7 +3280,7 @@
         <v>103</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E7" s="1"/>
     </row>
@@ -3287,7 +3292,7 @@
         <v>104</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E8" s="1"/>
     </row>
@@ -3299,7 +3304,7 @@
         <v>105</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E9" s="1"/>
     </row>
@@ -3311,11 +3316,9 @@
         <v>106</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>73</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="E10" s="12"/>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="1" t="s">
@@ -3325,10 +3328,10 @@
         <v>107</v>
       </c>
       <c r="D11" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" s="12" t="s">
         <v>79</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="12" spans="2:5">
@@ -3341,9 +3344,7 @@
       <c r="D12" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="E12" s="12" t="s">
-        <v>73</v>
-      </c>
+      <c r="E12" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3435,7 +3436,7 @@
   <sheetPr/>
   <dimension ref="B3:E58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -3935,7 +3936,7 @@
   <sheetPr/>
   <dimension ref="B3:E55"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15:E34"/>
     </sheetView>
   </sheetViews>
@@ -4620,8 +4621,8 @@
   <sheetPr/>
   <dimension ref="B3:E56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>

--- a/doc/wpfPlayer_UDP_通信协议.xlsx
+++ b/doc/wpfPlayer_UDP_通信协议.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14295" windowHeight="12630" activeTab="6"/>
+    <workbookView windowWidth="14295" windowHeight="12630" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="协议概述" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130">
   <si>
     <t>版本</t>
   </si>
@@ -121,6 +121,12 @@
     <t>FF 64 00 00 01 41 XX XX</t>
   </si>
   <si>
+    <t>FF 64 00 00 01 C8 XX XX</t>
+  </si>
+  <si>
+    <t>FF 64 00 00 02 8E XX XX</t>
+  </si>
+  <si>
     <t>monitor</t>
   </si>
   <si>
@@ -193,6 +199,9 @@
     <t>FF 6A 00 XX XX</t>
   </si>
   <si>
+    <t>MCU端发送</t>
+  </si>
+  <si>
     <t>对象长度（len）</t>
   </si>
   <si>
@@ -203,9 +212,6 @@
   </si>
   <si>
     <t>FF 6A 00 0C U1 U2 U3 U4 U5 U6 U7 U8 U9 U10 U11 U12 XX XX</t>
-  </si>
-  <si>
-    <t>MCU端发送</t>
   </si>
   <si>
     <t>read_pc</t>
@@ -408,6 +414,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">三自由度只认为D1、D2、D3有效
@@ -438,6 +445,12 @@
     <t>n</t>
   </si>
   <si>
+    <t>功能切换</t>
+  </si>
+  <si>
+    <t>写1进入固件升级功能</t>
+  </si>
+  <si>
     <t>操作举例</t>
   </si>
   <si>
@@ -500,10 +513,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -649,9 +662,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -664,8 +676,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -721,6 +734,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -733,25 +758,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -769,13 +782,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -799,13 +818,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -829,7 +842,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -841,13 +860,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -865,13 +884,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -889,13 +902,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1029,149 +1042,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1221,6 +1234,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1586,10 +1605,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E197"/>
+  <dimension ref="A1:E215"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1841,7 +1860,7 @@
     </row>
     <row r="34" spans="2:5">
       <c r="B34" s="8" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>20</v>
@@ -1861,18 +1880,18 @@
         <v>21</v>
       </c>
       <c r="E35" s="9">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="3:5">
       <c r="C36" s="9" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>35</v>
+        <v>24</v>
+      </c>
+      <c r="E36" s="9">
+        <v>456</v>
       </c>
     </row>
     <row r="37" spans="3:5">
@@ -1891,7 +1910,7 @@
         <v>28</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>30</v>
@@ -1913,7 +1932,7 @@
     </row>
     <row r="43" spans="2:5">
       <c r="B43" s="11" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>20</v>
@@ -1938,13 +1957,13 @@
     </row>
     <row r="45" spans="3:5">
       <c r="C45" s="9" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E45" s="9" t="s">
-        <v>35</v>
+        <v>24</v>
+      </c>
+      <c r="E45" s="9">
+        <v>654</v>
       </c>
     </row>
     <row r="46" spans="3:5">
@@ -1963,7 +1982,7 @@
         <v>28</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>30</v>
@@ -1985,7 +2004,7 @@
     </row>
     <row r="52" spans="2:5">
       <c r="B52" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>20</v>
@@ -2005,1198 +2024,1344 @@
         <v>21</v>
       </c>
       <c r="E53" s="9">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="54" spans="3:5">
       <c r="C54" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="55" spans="3:5">
+      <c r="C55" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4">
+      <c r="B57" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D54" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E54" s="9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="55" spans="3:5">
-      <c r="C55" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D55" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E55" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="3:5">
-      <c r="C56" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="58" spans="2:4">
-      <c r="B58" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D58" s="1" t="s">
+      <c r="D57" s="1" t="s">
         <v>30</v>
       </c>
     </row>
+    <row r="60" spans="2:5">
+      <c r="B60" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C60" t="s">
+        <v>16</v>
+      </c>
+      <c r="D60" t="s">
+        <v>17</v>
+      </c>
+      <c r="E60" t="s">
+        <v>18</v>
+      </c>
+    </row>
     <row r="61" spans="2:5">
-      <c r="B61" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C61" t="s">
-        <v>16</v>
-      </c>
-      <c r="D61" t="s">
-        <v>17</v>
-      </c>
-      <c r="E61" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="62" spans="2:5">
-      <c r="B62" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C62" s="1" t="s">
+      <c r="B61" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D62" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E62" s="1">
+      <c r="D61" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E61" s="1">
         <v>255</v>
+      </c>
+    </row>
+    <row r="62" spans="3:5">
+      <c r="C62" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E62" s="9">
+        <v>100</v>
       </c>
     </row>
     <row r="63" spans="3:5">
       <c r="C63" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="64" spans="3:5">
+      <c r="C64" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4">
+      <c r="B66" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5">
+      <c r="B69" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C69" t="s">
+        <v>16</v>
+      </c>
+      <c r="D69" t="s">
+        <v>17</v>
+      </c>
+      <c r="E69" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5">
+      <c r="B70" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E70" s="1">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="71" spans="3:5">
+      <c r="C71" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D63" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E63" s="9">
+      <c r="D71" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E71" s="9">
         <v>102</v>
       </c>
     </row>
-    <row r="64" spans="3:5">
-      <c r="C64" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D64" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E64" s="9">
+    <row r="72" spans="3:5">
+      <c r="C72" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E72" s="9">
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="3:5">
-      <c r="C65" s="9" t="s">
+    <row r="73" spans="3:5">
+      <c r="C73" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D73" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E73" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="3:5">
+      <c r="C74" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4">
+      <c r="B76" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5">
+      <c r="B79" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C79" t="s">
+        <v>16</v>
+      </c>
+      <c r="D79" t="s">
+        <v>17</v>
+      </c>
+      <c r="E79" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5">
+      <c r="B80" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D65" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E65" s="9">
+      <c r="C80" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E80" s="1">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="81" spans="3:5">
+      <c r="C81" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D81" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E81" s="9">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="82" spans="3:5">
+      <c r="C82" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D82" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E82" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="3:5">
+      <c r="C83" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D83" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E83" s="9">
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="3:5">
-      <c r="C66" s="9" t="s">
+    <row r="84" spans="3:5">
+      <c r="C84" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D84" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E84" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="85" spans="3:5">
+      <c r="C85" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4">
+      <c r="B87" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5">
+      <c r="B90" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C90" t="s">
+        <v>16</v>
+      </c>
+      <c r="D90" t="s">
+        <v>17</v>
+      </c>
+      <c r="E90" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5">
+      <c r="B91" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E91" s="1">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="92" spans="3:5">
+      <c r="C92" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D92" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E92" s="9">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="93" spans="3:5">
+      <c r="C93" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D93" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E93" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="3:5">
+      <c r="C94" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D66" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E66" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="67" spans="3:5">
-      <c r="C67" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="69" spans="2:4">
-      <c r="B69" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="72" spans="2:5">
-      <c r="B72" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C72" t="s">
-        <v>16</v>
-      </c>
-      <c r="D72" t="s">
-        <v>17</v>
-      </c>
-      <c r="E72" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="73" spans="2:5">
-      <c r="B73" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E73" s="1">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="74" spans="3:5">
-      <c r="C74" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D74" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E74" s="9">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="75" spans="3:5">
-      <c r="C75" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D75" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E75" s="9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="76" spans="3:5">
-      <c r="C76" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D76" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E76" s="9">
+      <c r="D94" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E94" s="9">
         <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="3:5">
-      <c r="C77" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D77" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E77" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="78" spans="3:5">
-      <c r="C78" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="80" spans="2:4">
-      <c r="B80" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="83" spans="2:5">
-      <c r="B83" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C83" t="s">
-        <v>16</v>
-      </c>
-      <c r="D83" t="s">
-        <v>17</v>
-      </c>
-      <c r="E83" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="84" spans="2:5">
-      <c r="B84" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E84" s="1">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="85" spans="3:5">
-      <c r="C85" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D85" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E85" s="9">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="86" spans="3:5">
-      <c r="C86" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D86" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E86" s="9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="87" spans="3:5">
-      <c r="C87" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D87" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E87" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="88" spans="3:5">
-      <c r="C88" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="90" spans="2:4">
-      <c r="B90" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="93" spans="2:5">
-      <c r="B93" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C93" t="s">
-        <v>16</v>
-      </c>
-      <c r="D93" t="s">
-        <v>17</v>
-      </c>
-      <c r="E93" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="94" spans="2:5">
-      <c r="B94" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E94" s="1">
-        <v>255</v>
       </c>
     </row>
     <row r="95" spans="3:5">
       <c r="C95" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D95" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E95" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="96" spans="3:5">
+      <c r="C96" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4">
+      <c r="B98" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="101" spans="2:5">
+      <c r="B101" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C101" t="s">
+        <v>16</v>
+      </c>
+      <c r="D101" t="s">
+        <v>17</v>
+      </c>
+      <c r="E101" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="102" spans="2:5">
+      <c r="B102" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E102" s="1">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="103" spans="3:5">
+      <c r="C103" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D95" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E95" s="9">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="96" spans="3:5">
-      <c r="C96" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D96" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E96" s="9">
+      <c r="D103" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E103" s="9">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="104" spans="3:5">
+      <c r="C104" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D104" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E104" s="9">
         <v>10</v>
-      </c>
-    </row>
-    <row r="97" spans="3:5">
-      <c r="C97" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D97" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E97" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="98" spans="3:5">
-      <c r="C98" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="100" spans="2:4">
-      <c r="B100" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="103" spans="2:5">
-      <c r="B103" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C103" t="s">
-        <v>16</v>
-      </c>
-      <c r="D103" t="s">
-        <v>17</v>
-      </c>
-      <c r="E103" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="104" spans="2:5">
-      <c r="B104" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E104" s="1">
-        <v>255</v>
       </c>
     </row>
     <row r="105" spans="3:5">
       <c r="C105" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D105" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E105" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="3:5">
+      <c r="C106" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="108" spans="2:4">
+      <c r="B108" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="111" spans="2:5">
+      <c r="B111" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C111" t="s">
+        <v>16</v>
+      </c>
+      <c r="D111" t="s">
+        <v>17</v>
+      </c>
+      <c r="E111" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="112" spans="2:5">
+      <c r="B112" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E112" s="1">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="113" spans="3:5">
+      <c r="C113" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D105" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E105" s="9">
+      <c r="D113" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E113" s="9">
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="3:5">
-      <c r="C106" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D106" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E106" s="9">
+    <row r="114" spans="3:5">
+      <c r="C114" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D114" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E114" s="9">
         <v>10</v>
       </c>
     </row>
-    <row r="107" spans="3:5">
-      <c r="C107" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D107" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E107" s="9">
+    <row r="115" spans="3:5">
+      <c r="C115" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D115" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E115" s="9">
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="3:5">
-      <c r="C108" s="9" t="s">
+    <row r="116" spans="3:5">
+      <c r="C116" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="118" spans="2:4">
+      <c r="B118" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="121" spans="2:5">
+      <c r="B121" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C121" t="s">
+        <v>16</v>
+      </c>
+      <c r="D121" t="s">
+        <v>17</v>
+      </c>
+      <c r="E121" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="122" spans="2:5">
+      <c r="B122" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E122" s="1">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="123" spans="3:5">
+      <c r="C123" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D123" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E123" s="9">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="124" spans="3:5">
+      <c r="C124" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D124" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E124" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125" spans="3:5">
+      <c r="C125" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D108" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E108" s="9" t="s">
+      <c r="D125" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E125" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="3:5">
+      <c r="C126" s="9" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="109" spans="3:5">
-      <c r="C109" s="1" t="s">
+      <c r="D126" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E126" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="127" spans="3:5">
+      <c r="C127" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D109" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E109" s="1" t="s">
+      <c r="D127" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E127" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="111" spans="2:4">
-      <c r="B111" s="1" t="s">
+    <row r="129" spans="2:4">
+      <c r="B129" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C111" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D111" s="1" t="s">
+      <c r="C129" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D129" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="114" spans="2:5">
-      <c r="B114" s="7" t="s">
+    <row r="132" spans="2:5">
+      <c r="B132" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C132" t="s">
         <v>16</v>
       </c>
-      <c r="D114" t="s">
+      <c r="D132" t="s">
         <v>17</v>
       </c>
-      <c r="E114" t="s">
+      <c r="E132" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="115" spans="2:5">
-      <c r="B115" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C115" s="1" t="s">
+    <row r="133" spans="2:5">
+      <c r="B133" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C133" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D115" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E115" s="1">
+      <c r="D133" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E133" s="1">
         <v>255</v>
       </c>
     </row>
-    <row r="116" spans="3:5">
-      <c r="C116" s="9" t="s">
+    <row r="134" spans="3:5">
+      <c r="C134" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D116" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E116" s="9">
+      <c r="D134" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E134" s="9">
         <v>105</v>
       </c>
     </row>
-    <row r="117" spans="3:5">
-      <c r="C117" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D117" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E117" s="9">
+    <row r="135" spans="3:5">
+      <c r="C135" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D135" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E135" s="9">
         <v>10</v>
       </c>
     </row>
-    <row r="118" spans="3:5">
-      <c r="C118" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D118" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E118" s="9">
+    <row r="136" spans="3:5">
+      <c r="C136" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D136" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E136" s="9">
         <v>3</v>
-      </c>
-    </row>
-    <row r="119" spans="3:5">
-      <c r="C119" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D119" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E119" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="120" spans="3:5">
-      <c r="C120" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="122" spans="2:4">
-      <c r="B122" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="125" spans="2:5">
-      <c r="B125" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C125" t="s">
-        <v>16</v>
-      </c>
-      <c r="D125" t="s">
-        <v>17</v>
-      </c>
-      <c r="E125" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="126" spans="2:5">
-      <c r="B126" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E126" s="1">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="127" spans="3:5">
-      <c r="C127" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D127" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E127" s="9">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="128" spans="3:5">
-      <c r="C128" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D128" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E128" s="9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="129" spans="3:5">
-      <c r="C129" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D129" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E129" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="130" spans="3:5">
-      <c r="C130" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E130" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="132" spans="2:4">
-      <c r="B132" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="135" spans="2:5">
-      <c r="B135" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C135" t="s">
-        <v>16</v>
-      </c>
-      <c r="D135" t="s">
-        <v>17</v>
-      </c>
-      <c r="E135" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="136" spans="2:5">
-      <c r="B136" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D136" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E136" s="1">
-        <v>255</v>
       </c>
     </row>
     <row r="137" spans="3:5">
       <c r="C137" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D137" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E137" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="138" spans="3:5">
+      <c r="C138" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="140" spans="2:4">
+      <c r="B140" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="143" spans="2:5">
+      <c r="B143" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C143" t="s">
+        <v>16</v>
+      </c>
+      <c r="D143" t="s">
+        <v>17</v>
+      </c>
+      <c r="E143" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="144" spans="2:5">
+      <c r="B144" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E144" s="1">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="145" spans="3:5">
+      <c r="C145" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D137" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E137" s="9">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="138" spans="3:5">
-      <c r="C138" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D138" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E138" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="3:5">
-      <c r="C139" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D139" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E139" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="141" spans="2:4">
-      <c r="B141" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D141" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="144" spans="2:5">
-      <c r="B144" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C144" t="s">
-        <v>16</v>
-      </c>
-      <c r="D144" t="s">
-        <v>17</v>
-      </c>
-      <c r="E144" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="145" spans="2:5">
-      <c r="B145" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="C145" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D145" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E145" s="1">
-        <v>255</v>
+      <c r="D145" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E145" s="9">
+        <v>105</v>
       </c>
     </row>
     <row r="146" spans="3:5">
       <c r="C146" s="9" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="D146" s="9" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E146" s="9">
-        <v>106</v>
+        <v>10</v>
       </c>
     </row>
     <row r="147" spans="3:5">
       <c r="C147" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D147" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E147" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148" spans="3:5">
+      <c r="C148" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="150" spans="2:4">
+      <c r="B150" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C150" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D147" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E147" s="9">
+      <c r="D150" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="153" spans="2:5">
+      <c r="B153" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C153" t="s">
+        <v>16</v>
+      </c>
+      <c r="D153" t="s">
+        <v>17</v>
+      </c>
+      <c r="E153" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="154" spans="2:5">
+      <c r="B154" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E154" s="1">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="155" spans="3:5">
+      <c r="C155" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D155" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E155" s="9">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="156" spans="3:5">
+      <c r="C156" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D156" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E156" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="3:5">
-      <c r="C148" s="9" t="s">
+    <row r="157" spans="3:5">
+      <c r="C157" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="159" spans="2:4">
+      <c r="B159" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="162" spans="2:5">
+      <c r="B162" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C162" t="s">
+        <v>16</v>
+      </c>
+      <c r="D162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E162" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="163" spans="2:5">
+      <c r="B163" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E163" s="1">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="164" spans="3:5">
+      <c r="C164" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D164" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E164" s="9">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="165" spans="3:5">
+      <c r="C165" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D148" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E148" s="9">
+      <c r="D165" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E165" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="3:5">
+      <c r="C166" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D166" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E166" s="9">
         <v>12</v>
       </c>
     </row>
-    <row r="149" spans="3:5">
-      <c r="C149" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D149" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E149" s="9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="150" spans="3:5">
-      <c r="C150" s="1" t="s">
+    <row r="167" spans="3:5">
+      <c r="C167" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D167" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E167" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="168" spans="3:5">
+      <c r="C168" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D150" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E150" s="1" t="s">
+      <c r="D168" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E168" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="152" ht="27" spans="2:4">
-      <c r="B152" s="1" t="s">
+    <row r="170" ht="27" spans="2:4">
+      <c r="B170" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C152" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D152" s="1" t="s">
+      <c r="C170" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D170" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="158" spans="1:5">
-      <c r="A158" t="s">
-        <v>61</v>
-      </c>
-      <c r="B158" s="7" t="s">
+    <row r="176" spans="2:5">
+      <c r="B176" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C158" t="s">
+      <c r="C176" t="s">
         <v>16</v>
       </c>
-      <c r="D158" t="s">
+      <c r="D176" t="s">
         <v>17</v>
       </c>
-      <c r="E158" t="s">
+      <c r="E176" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="159" spans="2:5">
-      <c r="B159" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C159" s="1" t="s">
+    <row r="177" spans="2:5">
+      <c r="B177" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C177" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D159" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E159" s="1">
+      <c r="D177" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E177" s="1">
         <v>255</v>
       </c>
     </row>
-    <row r="160" spans="3:5">
-      <c r="C160" s="9" t="s">
+    <row r="178" spans="3:5">
+      <c r="C178" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D160" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E160" s="9">
+      <c r="D178" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E178" s="9">
         <v>107</v>
       </c>
     </row>
-    <row r="161" spans="3:5">
-      <c r="C161" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D161" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E161" s="9">
+    <row r="179" spans="3:5">
+      <c r="C179" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D179" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E179" s="9">
         <v>10</v>
       </c>
     </row>
-    <row r="162" spans="3:5">
-      <c r="C162" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D162" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E162" s="9">
+    <row r="180" spans="3:5">
+      <c r="C180" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D180" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E180" s="9">
         <v>3</v>
       </c>
     </row>
-    <row r="163" spans="3:5">
-      <c r="C163" s="1" t="s">
+    <row r="181" spans="3:5">
+      <c r="C181" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D163" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E163" s="1" t="s">
+      <c r="D181" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E181" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="165" spans="2:4">
-      <c r="B165" s="1" t="s">
+    <row r="183" spans="2:4">
+      <c r="B183" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C165" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D165" s="1" t="s">
+      <c r="C183" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D183" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="168" spans="2:5">
-      <c r="B168" s="10" t="s">
+    <row r="186" spans="2:5">
+      <c r="B186" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C168" t="s">
+      <c r="C186" t="s">
         <v>16</v>
       </c>
-      <c r="D168" t="s">
+      <c r="D186" t="s">
         <v>17</v>
       </c>
-      <c r="E168" t="s">
+      <c r="E186" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="169" spans="2:5">
-      <c r="B169" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C169" s="1" t="s">
+    <row r="187" spans="2:5">
+      <c r="B187" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C187" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D169" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E169" s="1">
+      <c r="D187" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E187" s="1">
         <v>255</v>
       </c>
     </row>
-    <row r="170" spans="3:5">
-      <c r="C170" s="9" t="s">
+    <row r="188" spans="3:5">
+      <c r="C188" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D170" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E170" s="9">
+      <c r="D188" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E188" s="9">
         <v>107</v>
       </c>
     </row>
-    <row r="171" spans="3:5">
-      <c r="C171" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D171" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E171" s="9">
+    <row r="189" spans="3:5">
+      <c r="C189" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D189" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E189" s="9">
         <v>10</v>
       </c>
     </row>
-    <row r="172" spans="3:5">
-      <c r="C172" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D172" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E172" s="9">
+    <row r="190" spans="3:5">
+      <c r="C190" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D190" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E190" s="9">
         <v>3</v>
       </c>
     </row>
-    <row r="173" spans="3:5">
-      <c r="C173" s="9" t="s">
+    <row r="191" spans="3:5">
+      <c r="C191" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D191" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E191" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="192" spans="3:5">
+      <c r="C192" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="194" spans="2:4">
+      <c r="B194" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="197" spans="2:5">
+      <c r="B197" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C197" t="s">
+        <v>16</v>
+      </c>
+      <c r="D197" t="s">
+        <v>17</v>
+      </c>
+      <c r="E197" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="198" spans="2:5">
+      <c r="B198" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E198" s="1">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="199" spans="3:5">
+      <c r="C199" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D199" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E199" s="9">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="200" spans="3:5">
+      <c r="C200" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D200" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E200" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="201" spans="3:5">
+      <c r="C201" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D173" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E173" s="9" t="s">
+      <c r="D201" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E201" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="202" spans="3:5">
+      <c r="C202" s="9" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="174" spans="3:5">
-      <c r="C174" s="1" t="s">
+      <c r="D202" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E202" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="203" spans="3:5">
+      <c r="C203" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D174" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E174" s="1" t="s">
+      <c r="D203" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E203" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="176" spans="2:4">
-      <c r="B176" s="1" t="s">
+    <row r="205" spans="2:4">
+      <c r="B205" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C176" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D176" s="1" t="s">
+      <c r="C205" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D205" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="179" spans="2:5">
-      <c r="B179" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C179" t="s">
+    <row r="208" spans="2:5">
+      <c r="B208" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C208" t="s">
         <v>16</v>
       </c>
-      <c r="D179" t="s">
+      <c r="D208" t="s">
         <v>17</v>
       </c>
-      <c r="E179" t="s">
+      <c r="E208" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="180" spans="2:5">
-      <c r="B180" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C180" s="1" t="s">
+    <row r="209" spans="2:5">
+      <c r="B209" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C209" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D180" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E180" s="1">
+      <c r="D209" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E209" s="1">
         <v>255</v>
       </c>
     </row>
-    <row r="181" spans="3:5">
-      <c r="C181" s="9" t="s">
+    <row r="210" spans="3:5">
+      <c r="C210" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D181" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E181" s="9">
+      <c r="D210" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E210" s="9">
         <v>108</v>
       </c>
     </row>
-    <row r="182" spans="3:5">
-      <c r="C182" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D182" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E182" s="9">
+    <row r="211" spans="3:5">
+      <c r="C211" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D211" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E211" s="9">
         <v>10</v>
       </c>
     </row>
-    <row r="183" spans="3:5">
-      <c r="C183" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D183" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E183" s="9">
+    <row r="212" spans="3:5">
+      <c r="C212" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D212" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E212" s="9">
         <v>3</v>
       </c>
     </row>
-    <row r="184" spans="3:5">
-      <c r="C184" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D184" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E184" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="185" spans="3:5">
-      <c r="C185" s="1" t="s">
+    <row r="213" spans="3:5">
+      <c r="C213" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D185" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E185" s="1" t="s">
+      <c r="D213" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E213" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="187" spans="2:4">
-      <c r="B187" s="1" t="s">
+    <row r="215" spans="2:4">
+      <c r="B215" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C187" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D187" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="190" spans="2:5">
-      <c r="B190" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C190" t="s">
-        <v>16</v>
-      </c>
-      <c r="D190" t="s">
-        <v>17</v>
-      </c>
-      <c r="E190" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="191" spans="2:5">
-      <c r="B191" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C191" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D191" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E191" s="1">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="192" spans="3:5">
-      <c r="C192" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D192" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E192" s="9">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="193" spans="3:5">
-      <c r="C193" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D193" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E193" s="9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="194" spans="3:5">
-      <c r="C194" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D194" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E194" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="195" spans="3:5">
-      <c r="C195" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D195" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E195" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="197" spans="2:4">
-      <c r="B197" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C197" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D197" s="1" t="s">
+      <c r="C215" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D215" s="1" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3212,8 +3377,8 @@
   <sheetPr/>
   <dimension ref="B3:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3224,16 +3389,16 @@
   <sheetData>
     <row r="3" spans="2:5">
       <c r="B3" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="D3" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="21" t="s">
         <v>30</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="2:5">
@@ -3243,106 +3408,106 @@
       <c r="C4" s="9">
         <v>100</v>
       </c>
-      <c r="D4" s="19" t="s">
-        <v>71</v>
+      <c r="D4" s="21" t="s">
+        <v>73</v>
       </c>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C5" s="9">
         <v>101</v>
       </c>
-      <c r="D5" s="19" t="s">
-        <v>72</v>
+      <c r="D5" s="21" t="s">
+        <v>74</v>
       </c>
       <c r="E5" s="12"/>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C6" s="9">
         <v>102</v>
       </c>
-      <c r="D6" s="19" t="s">
-        <v>73</v>
+      <c r="D6" s="21" t="s">
+        <v>75</v>
       </c>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C7" s="9">
         <v>103</v>
       </c>
-      <c r="D7" s="19" t="s">
-        <v>74</v>
+      <c r="D7" s="21" t="s">
+        <v>76</v>
       </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C8" s="9">
         <v>104</v>
       </c>
-      <c r="D8" s="19" t="s">
-        <v>75</v>
+      <c r="D8" s="21" t="s">
+        <v>77</v>
       </c>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C9" s="9">
         <v>105</v>
       </c>
-      <c r="D9" s="19" t="s">
-        <v>76</v>
+      <c r="D9" s="21" t="s">
+        <v>78</v>
       </c>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C10" s="9">
         <v>106</v>
       </c>
-      <c r="D10" s="19" t="s">
-        <v>77</v>
+      <c r="D10" s="21" t="s">
+        <v>79</v>
       </c>
       <c r="E10" s="12"/>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C11" s="9">
         <v>107</v>
       </c>
-      <c r="D11" s="19" t="s">
-        <v>78</v>
+      <c r="D11" s="21" t="s">
+        <v>80</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C12" s="9">
         <v>108</v>
       </c>
-      <c r="D12" s="19" t="s">
-        <v>80</v>
+      <c r="D12" s="21" t="s">
+        <v>82</v>
       </c>
       <c r="E12" s="12"/>
     </row>
@@ -3371,58 +3536,58 @@
   <sheetData>
     <row r="3" spans="2:5">
       <c r="B3" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="D3" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="21" t="s">
         <v>30</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="2:5">
       <c r="B4" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C4" s="9">
         <v>0</v>
       </c>
-      <c r="D4" s="19" t="s">
-        <v>84</v>
+      <c r="D4" s="21" t="s">
+        <v>86</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C5" s="9">
         <v>255</v>
       </c>
-      <c r="D5" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>88</v>
+      <c r="D5" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="D6" s="19" t="s">
         <v>91</v>
       </c>
+      <c r="C6" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>93</v>
+      </c>
       <c r="E6" s="16" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -3437,7 +3602,7 @@
   <dimension ref="B3:E58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3450,40 +3615,40 @@
   <sheetData>
     <row r="3" ht="27" spans="2:3">
       <c r="B3" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" ht="54" spans="2:5">
@@ -3494,10 +3659,10 @@
         <v>6</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="2:5">
@@ -3508,7 +3673,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E9" s="1"/>
     </row>
@@ -3520,10 +3685,10 @@
         <v>2</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="2:5">
@@ -3534,7 +3699,7 @@
         <v>6</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E11" s="1"/>
     </row>
@@ -3543,31 +3708,40 @@
         <v>16</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="2:4">
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="18"/>
+    <row r="13" spans="2:5">
+      <c r="B13" s="17">
+        <v>255</v>
+      </c>
+      <c r="C13" s="17">
+        <v>1</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="14" spans="2:4">
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="18"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="20"/>
     </row>
     <row r="15" spans="2:4">
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="18"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="20"/>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="2:5">
@@ -3586,7 +3760,7 @@
     </row>
     <row r="20" spans="2:5">
       <c r="B20" s="8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>20</v>
@@ -3611,7 +3785,7 @@
     </row>
     <row r="22" spans="3:5">
       <c r="C22" s="9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>26</v>
@@ -3622,7 +3796,7 @@
     </row>
     <row r="23" spans="3:5">
       <c r="C23" s="9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>26</v>
@@ -3647,7 +3821,7 @@
         <v>28</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>30</v>
@@ -3669,7 +3843,7 @@
     </row>
     <row r="30" spans="2:5">
       <c r="B30" s="11" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>20</v>
@@ -3694,7 +3868,7 @@
     </row>
     <row r="32" spans="3:5">
       <c r="C32" s="9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D32" s="9" t="s">
         <v>26</v>
@@ -3705,7 +3879,7 @@
     </row>
     <row r="33" spans="3:5">
       <c r="C33" s="9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D33" s="9" t="s">
         <v>26</v>
@@ -3716,13 +3890,13 @@
     </row>
     <row r="34" spans="3:5">
       <c r="C34" s="9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="3:5">
@@ -3741,7 +3915,7 @@
         <v>28</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>30</v>
@@ -3763,7 +3937,7 @@
     </row>
     <row r="41" spans="2:5">
       <c r="B41" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>20</v>
@@ -3788,7 +3962,7 @@
     </row>
     <row r="43" spans="3:5">
       <c r="C43" s="9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D43" s="9" t="s">
         <v>26</v>
@@ -3799,7 +3973,7 @@
     </row>
     <row r="44" spans="3:5">
       <c r="C44" s="9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D44" s="9" t="s">
         <v>26</v>
@@ -3810,13 +3984,13 @@
     </row>
     <row r="45" spans="3:5">
       <c r="C45" s="9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="3:5">
@@ -3835,7 +4009,7 @@
         <v>28</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>30</v>
@@ -3857,7 +4031,7 @@
     </row>
     <row r="52" spans="2:5">
       <c r="B52" s="11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>20</v>
@@ -3882,7 +4056,7 @@
     </row>
     <row r="54" spans="3:5">
       <c r="C54" s="9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D54" s="9" t="s">
         <v>26</v>
@@ -3893,7 +4067,7 @@
     </row>
     <row r="55" spans="3:5">
       <c r="C55" s="9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D55" s="9" t="s">
         <v>26</v>
@@ -3918,7 +4092,7 @@
         <v>28</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>30</v>
@@ -3950,37 +4124,37 @@
   <sheetData>
     <row r="3" ht="40.5" spans="2:3">
       <c r="B3" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="2:4">
       <c r="B7" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" ht="40.5" spans="2:4">
@@ -3991,7 +4165,7 @@
         <v>32</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="2:4">
@@ -3999,15 +4173,15 @@
         <v>32</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="2:5">
@@ -4026,7 +4200,7 @@
     </row>
     <row r="17" spans="2:5">
       <c r="B17" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>20</v>
@@ -4051,7 +4225,7 @@
     </row>
     <row r="19" spans="3:5">
       <c r="C19" s="9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>26</v>
@@ -4062,7 +4236,7 @@
     </row>
     <row r="20" spans="3:5">
       <c r="C20" s="9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>26</v>
@@ -4087,7 +4261,7 @@
         <v>28</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>30</v>
@@ -4109,7 +4283,7 @@
     </row>
     <row r="27" spans="2:5">
       <c r="B27" s="11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>20</v>
@@ -4134,7 +4308,7 @@
     </row>
     <row r="29" spans="3:5">
       <c r="C29" s="9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>26</v>
@@ -4145,7 +4319,7 @@
     </row>
     <row r="30" spans="3:5">
       <c r="C30" s="9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D30" s="9" t="s">
         <v>26</v>
@@ -4156,13 +4330,13 @@
     </row>
     <row r="31" spans="3:5">
       <c r="C31" s="9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="3:5">
@@ -4181,7 +4355,7 @@
         <v>28</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>30</v>
@@ -4203,7 +4377,7 @@
     </row>
     <row r="38" spans="2:5">
       <c r="B38" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>20</v>
@@ -4228,7 +4402,7 @@
     </row>
     <row r="40" spans="3:5">
       <c r="C40" s="9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D40" s="9" t="s">
         <v>26</v>
@@ -4239,7 +4413,7 @@
     </row>
     <row r="41" spans="3:5">
       <c r="C41" s="9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D41" s="9" t="s">
         <v>26</v>
@@ -4250,13 +4424,13 @@
     </row>
     <row r="42" spans="3:5">
       <c r="C42" s="9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="3:5">
@@ -4275,7 +4449,7 @@
         <v>28</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>30</v>
@@ -4297,7 +4471,7 @@
     </row>
     <row r="49" spans="2:5">
       <c r="B49" s="11" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>20</v>
@@ -4322,7 +4496,7 @@
     </row>
     <row r="51" spans="3:5">
       <c r="C51" s="9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D51" s="9" t="s">
         <v>26</v>
@@ -4333,7 +4507,7 @@
     </row>
     <row r="52" spans="3:5">
       <c r="C52" s="9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D52" s="9" t="s">
         <v>26</v>
@@ -4358,7 +4532,7 @@
         <v>28</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>30</v>
@@ -4389,32 +4563,32 @@
   <sheetData>
     <row r="3" spans="2:3">
       <c r="B3" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="2:5">
@@ -4422,26 +4596,26 @@
         <v>0</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E7" s="12"/>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" s="5" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="1"/>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="2:5">
@@ -4460,7 +4634,7 @@
     </row>
     <row r="16" spans="2:5">
       <c r="B16" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>20</v>
@@ -4485,7 +4659,7 @@
     </row>
     <row r="18" spans="3:5">
       <c r="C18" s="13" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D18" s="13" t="s">
         <v>21</v>
@@ -4510,7 +4684,7 @@
         <v>28</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>30</v>
@@ -4532,7 +4706,7 @@
     </row>
     <row r="25" spans="2:5">
       <c r="B25" s="11" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>20</v>
@@ -4557,7 +4731,7 @@
     </row>
     <row r="27" spans="3:5">
       <c r="C27" s="13" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D27" s="13" t="s">
         <v>21</v>
@@ -4568,7 +4742,7 @@
     </row>
     <row r="28" spans="3:5">
       <c r="C28" s="13" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D28" s="13" t="s">
         <v>21</v>
@@ -4579,13 +4753,13 @@
     </row>
     <row r="29" spans="3:5">
       <c r="C29" s="13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="30" spans="3:5">
@@ -4604,7 +4778,7 @@
         <v>28</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>30</v>
@@ -4621,7 +4795,7 @@
   <sheetPr/>
   <dimension ref="B3:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -4635,40 +4809,40 @@
   <sheetData>
     <row r="3" ht="27" spans="2:3">
       <c r="B3" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" ht="54" spans="2:5">
@@ -4679,10 +4853,10 @@
         <v>4</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="2:5">
@@ -4693,7 +4867,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E9" s="1"/>
     </row>
@@ -4702,16 +4876,16 @@
         <v>8</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E10" s="1"/>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="2:5">
@@ -4730,7 +4904,7 @@
     </row>
     <row r="18" spans="2:5">
       <c r="B18" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>20</v>
@@ -4755,7 +4929,7 @@
     </row>
     <row r="20" spans="3:5">
       <c r="C20" s="9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>26</v>
@@ -4766,7 +4940,7 @@
     </row>
     <row r="21" spans="3:5">
       <c r="C21" s="9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D21" s="9" t="s">
         <v>26</v>
@@ -4791,7 +4965,7 @@
         <v>28</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>30</v>
@@ -4813,7 +4987,7 @@
     </row>
     <row r="28" spans="2:5">
       <c r="B28" s="11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>20</v>
@@ -4838,7 +5012,7 @@
     </row>
     <row r="30" spans="3:5">
       <c r="C30" s="9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D30" s="9" t="s">
         <v>26</v>
@@ -4849,7 +5023,7 @@
     </row>
     <row r="31" spans="3:5">
       <c r="C31" s="9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D31" s="9" t="s">
         <v>26</v>
@@ -4860,13 +5034,13 @@
     </row>
     <row r="32" spans="3:5">
       <c r="C32" s="9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="3:5">
@@ -4885,7 +5059,7 @@
         <v>28</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>30</v>
@@ -4907,7 +5081,7 @@
     </row>
     <row r="39" spans="2:5">
       <c r="B39" s="8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>20</v>
@@ -4932,7 +5106,7 @@
     </row>
     <row r="41" spans="3:5">
       <c r="C41" s="9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D41" s="9" t="s">
         <v>26</v>
@@ -4943,7 +5117,7 @@
     </row>
     <row r="42" spans="3:5">
       <c r="C42" s="9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D42" s="9" t="s">
         <v>26</v>
@@ -4954,13 +5128,13 @@
     </row>
     <row r="43" spans="3:5">
       <c r="C43" s="9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="3:5">
@@ -4979,7 +5153,7 @@
         <v>28</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>30</v>
@@ -5001,7 +5175,7 @@
     </row>
     <row r="50" spans="2:5">
       <c r="B50" s="11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>20</v>
@@ -5026,7 +5200,7 @@
     </row>
     <row r="52" spans="3:5">
       <c r="C52" s="9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D52" s="9" t="s">
         <v>26</v>
@@ -5037,7 +5211,7 @@
     </row>
     <row r="53" spans="3:5">
       <c r="C53" s="9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D53" s="9" t="s">
         <v>26</v>
@@ -5062,7 +5236,7 @@
         <v>28</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>30</v>

--- a/doc/wpfPlayer_UDP_通信协议.xlsx
+++ b/doc/wpfPlayer_UDP_通信协议.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14295" windowHeight="12630" activeTab="1"/>
+    <workbookView windowWidth="14295" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="协议概述" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139">
   <si>
     <t>版本</t>
   </si>
@@ -103,37 +103,49 @@
     <t>2个字节</t>
   </si>
   <si>
+    <t>25 FF</t>
+  </si>
+  <si>
+    <t>命令包</t>
+  </si>
+  <si>
+    <t>FF 64 00 00 00 7B 25 FF</t>
+  </si>
+  <si>
+    <t>16进制</t>
+  </si>
+  <si>
+    <t>应答</t>
+  </si>
+  <si>
+    <t>A4 7C</t>
+  </si>
+  <si>
+    <t>FF 64 00 00 01 41 A4 7C</t>
+  </si>
+  <si>
+    <t>65 DA</t>
+  </si>
+  <si>
+    <t>FF 64 00 00 01 C8 65 DA</t>
+  </si>
+  <si>
+    <t>E4 D8</t>
+  </si>
+  <si>
+    <t>FF 64 00 00 02 8E E4 D8</t>
+  </si>
+  <si>
+    <t>monitor</t>
+  </si>
+  <si>
+    <t>tick</t>
+  </si>
+  <si>
+    <t>XX</t>
+  </si>
+  <si>
     <t>XX XX</t>
-  </si>
-  <si>
-    <t>命令包</t>
-  </si>
-  <si>
-    <t>FF 64 00 00 00 7B XX XX</t>
-  </si>
-  <si>
-    <t>16进制</t>
-  </si>
-  <si>
-    <t>应答</t>
-  </si>
-  <si>
-    <t>FF 64 00 00 01 41 XX XX</t>
-  </si>
-  <si>
-    <t>FF 64 00 00 01 C8 XX XX</t>
-  </si>
-  <si>
-    <t>FF 64 00 00 02 8E XX XX</t>
-  </si>
-  <si>
-    <t>monitor</t>
-  </si>
-  <si>
-    <t>tick</t>
-  </si>
-  <si>
-    <t>XX</t>
   </si>
   <si>
     <t>FF 65 XX XX XX</t>
@@ -454,6 +466,21 @@
     <t>操作举例</t>
   </si>
   <si>
+    <t>升级命令举例</t>
+  </si>
+  <si>
+    <t>EC 5C</t>
+  </si>
+  <si>
+    <t>FF 67 00 FF 00 01 01 EC 5C</t>
+  </si>
+  <si>
+    <t>D0 2C</t>
+  </si>
+  <si>
+    <t>FF 67 00 FF 00 01 D0 2C</t>
+  </si>
+  <si>
     <t>flash区特性</t>
   </si>
   <si>
@@ -513,9 +540,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -547,24 +574,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -601,8 +612,68 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -637,50 +708,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -728,7 +755,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -746,6 +797,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -758,67 +821,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -842,61 +863,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -909,6 +882,60 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -957,6 +984,30 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1010,30 +1061,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1042,10 +1069,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1054,133 +1081,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1607,8 +1634,8 @@
   <sheetPr/>
   <dimension ref="A1:E215"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1830,7 +1857,7 @@
         <v>26</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="2:4">
@@ -1838,7 +1865,7 @@
         <v>28</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>30</v>
@@ -1902,7 +1929,7 @@
         <v>26</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" spans="2:4">
@@ -1910,7 +1937,7 @@
         <v>28</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>30</v>
@@ -1974,7 +2001,7 @@
         <v>26</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="48" spans="2:4">
@@ -1982,7 +2009,7 @@
         <v>28</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>30</v>
@@ -2004,7 +2031,7 @@
     </row>
     <row r="52" spans="2:5">
       <c r="B52" s="8" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>20</v>
@@ -2029,13 +2056,13 @@
     </row>
     <row r="54" spans="3:5">
       <c r="C54" s="9" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D54" s="9" t="s">
         <v>21</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="55" spans="3:5">
@@ -2046,7 +2073,7 @@
         <v>26</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
     </row>
     <row r="57" spans="2:4">
@@ -2054,7 +2081,7 @@
         <v>28</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>30</v>
@@ -2076,7 +2103,7 @@
     </row>
     <row r="61" spans="2:5">
       <c r="B61" s="11" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>20</v>
@@ -2101,13 +2128,13 @@
     </row>
     <row r="63" spans="3:5">
       <c r="C63" s="9" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D63" s="9" t="s">
         <v>21</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="64" spans="3:5">
@@ -2118,7 +2145,7 @@
         <v>26</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
     </row>
     <row r="66" spans="2:4">
@@ -2126,7 +2153,7 @@
         <v>28</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>30</v>
@@ -2148,7 +2175,7 @@
     </row>
     <row r="70" spans="2:5">
       <c r="B70" s="8" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>20</v>
@@ -2173,7 +2200,7 @@
     </row>
     <row r="72" spans="3:5">
       <c r="C72" s="9" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D72" s="9" t="s">
         <v>26</v>
@@ -2184,7 +2211,7 @@
     </row>
     <row r="73" spans="3:5">
       <c r="C73" s="9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D73" s="9" t="s">
         <v>26</v>
@@ -2201,7 +2228,7 @@
         <v>26</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
     </row>
     <row r="76" spans="2:4">
@@ -2209,7 +2236,7 @@
         <v>28</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>30</v>
@@ -2231,7 +2258,7 @@
     </row>
     <row r="80" spans="2:5">
       <c r="B80" s="11" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>20</v>
@@ -2256,7 +2283,7 @@
     </row>
     <row r="82" spans="3:5">
       <c r="C82" s="9" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D82" s="9" t="s">
         <v>26</v>
@@ -2267,7 +2294,7 @@
     </row>
     <row r="83" spans="3:5">
       <c r="C83" s="9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D83" s="9" t="s">
         <v>26</v>
@@ -2278,13 +2305,13 @@
     </row>
     <row r="84" spans="3:5">
       <c r="C84" s="9" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E84" s="9" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="85" spans="3:5">
@@ -2295,7 +2322,7 @@
         <v>26</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
     </row>
     <row r="87" spans="2:4">
@@ -2303,7 +2330,7 @@
         <v>28</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>30</v>
@@ -2325,7 +2352,7 @@
     </row>
     <row r="91" spans="2:5">
       <c r="B91" s="8" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>20</v>
@@ -2350,7 +2377,7 @@
     </row>
     <row r="93" spans="3:5">
       <c r="C93" s="9" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D93" s="9" t="s">
         <v>26</v>
@@ -2361,7 +2388,7 @@
     </row>
     <row r="94" spans="3:5">
       <c r="C94" s="9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D94" s="9" t="s">
         <v>26</v>
@@ -2372,13 +2399,13 @@
     </row>
     <row r="95" spans="3:5">
       <c r="C95" s="9" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E95" s="9" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="96" spans="3:5">
@@ -2389,7 +2416,7 @@
         <v>26</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
     </row>
     <row r="98" spans="2:4">
@@ -2397,7 +2424,7 @@
         <v>28</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>30</v>
@@ -2419,7 +2446,7 @@
     </row>
     <row r="102" spans="2:5">
       <c r="B102" s="11" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>20</v>
@@ -2444,7 +2471,7 @@
     </row>
     <row r="104" spans="3:5">
       <c r="C104" s="9" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D104" s="9" t="s">
         <v>26</v>
@@ -2455,7 +2482,7 @@
     </row>
     <row r="105" spans="3:5">
       <c r="C105" s="9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D105" s="9" t="s">
         <v>26</v>
@@ -2472,7 +2499,7 @@
         <v>26</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
     </row>
     <row r="108" spans="2:4">
@@ -2480,7 +2507,7 @@
         <v>28</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>30</v>
@@ -2502,7 +2529,7 @@
     </row>
     <row r="112" spans="2:5">
       <c r="B112" s="8" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>20</v>
@@ -2527,7 +2554,7 @@
     </row>
     <row r="114" spans="3:5">
       <c r="C114" s="9" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D114" s="9" t="s">
         <v>26</v>
@@ -2538,7 +2565,7 @@
     </row>
     <row r="115" spans="3:5">
       <c r="C115" s="9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D115" s="9" t="s">
         <v>26</v>
@@ -2555,7 +2582,7 @@
         <v>26</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
     </row>
     <row r="118" spans="2:4">
@@ -2563,7 +2590,7 @@
         <v>28</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>30</v>
@@ -2585,7 +2612,7 @@
     </row>
     <row r="122" spans="2:5">
       <c r="B122" s="11" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>20</v>
@@ -2610,7 +2637,7 @@
     </row>
     <row r="124" spans="3:5">
       <c r="C124" s="9" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D124" s="9" t="s">
         <v>26</v>
@@ -2621,7 +2648,7 @@
     </row>
     <row r="125" spans="3:5">
       <c r="C125" s="9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D125" s="9" t="s">
         <v>26</v>
@@ -2632,13 +2659,13 @@
     </row>
     <row r="126" spans="3:5">
       <c r="C126" s="9" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D126" s="9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E126" s="9" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="127" spans="3:5">
@@ -2649,7 +2676,7 @@
         <v>26</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
     </row>
     <row r="129" spans="2:4">
@@ -2657,7 +2684,7 @@
         <v>28</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>30</v>
@@ -2679,7 +2706,7 @@
     </row>
     <row r="133" spans="2:5">
       <c r="B133" s="8" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>20</v>
@@ -2704,7 +2731,7 @@
     </row>
     <row r="135" spans="3:5">
       <c r="C135" s="9" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D135" s="9" t="s">
         <v>26</v>
@@ -2715,7 +2742,7 @@
     </row>
     <row r="136" spans="3:5">
       <c r="C136" s="9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D136" s="9" t="s">
         <v>26</v>
@@ -2726,13 +2753,13 @@
     </row>
     <row r="137" spans="3:5">
       <c r="C137" s="9" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D137" s="9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E137" s="9" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="138" spans="3:5">
@@ -2743,7 +2770,7 @@
         <v>26</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
     </row>
     <row r="140" spans="2:4">
@@ -2751,7 +2778,7 @@
         <v>28</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D140" s="1" t="s">
         <v>30</v>
@@ -2773,7 +2800,7 @@
     </row>
     <row r="144" spans="2:5">
       <c r="B144" s="11" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>20</v>
@@ -2798,7 +2825,7 @@
     </row>
     <row r="146" spans="3:5">
       <c r="C146" s="9" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D146" s="9" t="s">
         <v>26</v>
@@ -2809,7 +2836,7 @@
     </row>
     <row r="147" spans="3:5">
       <c r="C147" s="9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D147" s="9" t="s">
         <v>26</v>
@@ -2826,7 +2853,7 @@
         <v>26</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
     </row>
     <row r="150" spans="2:4">
@@ -2834,7 +2861,7 @@
         <v>28</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D150" s="1" t="s">
         <v>30</v>
@@ -2856,7 +2883,7 @@
     </row>
     <row r="154" spans="2:5">
       <c r="B154" s="8" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>20</v>
@@ -2881,7 +2908,7 @@
     </row>
     <row r="156" spans="3:5">
       <c r="C156" s="9" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D156" s="9" t="s">
         <v>21</v>
@@ -2898,7 +2925,7 @@
         <v>26</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
     </row>
     <row r="159" spans="2:4">
@@ -2906,7 +2933,7 @@
         <v>28</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D159" s="1" t="s">
         <v>30</v>
@@ -2914,7 +2941,7 @@
     </row>
     <row r="160" spans="1:1">
       <c r="A160" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="162" spans="2:5">
@@ -2933,7 +2960,7 @@
     </row>
     <row r="163" spans="2:5">
       <c r="B163" s="11" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>20</v>
@@ -2958,7 +2985,7 @@
     </row>
     <row r="165" spans="3:5">
       <c r="C165" s="9" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D165" s="9" t="s">
         <v>21</v>
@@ -2969,7 +2996,7 @@
     </row>
     <row r="166" spans="3:5">
       <c r="C166" s="9" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D166" s="9" t="s">
         <v>21</v>
@@ -2980,13 +3007,13 @@
     </row>
     <row r="167" spans="3:5">
       <c r="C167" s="9" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D167" s="9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E167" s="9" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="168" spans="3:5">
@@ -2997,7 +3024,7 @@
         <v>26</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
     </row>
     <row r="170" ht="27" spans="2:4">
@@ -3005,7 +3032,7 @@
         <v>28</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D170" s="1" t="s">
         <v>30</v>
@@ -3027,7 +3054,7 @@
     </row>
     <row r="177" spans="2:5">
       <c r="B177" s="8" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>20</v>
@@ -3052,7 +3079,7 @@
     </row>
     <row r="179" spans="3:5">
       <c r="C179" s="9" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D179" s="9" t="s">
         <v>26</v>
@@ -3063,7 +3090,7 @@
     </row>
     <row r="180" spans="3:5">
       <c r="C180" s="9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D180" s="9" t="s">
         <v>26</v>
@@ -3080,7 +3107,7 @@
         <v>26</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
     </row>
     <row r="183" spans="2:4">
@@ -3088,7 +3115,7 @@
         <v>28</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D183" s="1" t="s">
         <v>30</v>
@@ -3110,7 +3137,7 @@
     </row>
     <row r="187" spans="2:5">
       <c r="B187" s="11" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>20</v>
@@ -3135,7 +3162,7 @@
     </row>
     <row r="189" spans="3:5">
       <c r="C189" s="9" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D189" s="9" t="s">
         <v>26</v>
@@ -3146,7 +3173,7 @@
     </row>
     <row r="190" spans="3:5">
       <c r="C190" s="9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D190" s="9" t="s">
         <v>26</v>
@@ -3157,13 +3184,13 @@
     </row>
     <row r="191" spans="3:5">
       <c r="C191" s="9" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D191" s="9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E191" s="9" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="192" spans="3:5">
@@ -3174,7 +3201,7 @@
         <v>26</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
     </row>
     <row r="194" spans="2:4">
@@ -3182,7 +3209,7 @@
         <v>28</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D194" s="1" t="s">
         <v>30</v>
@@ -3204,7 +3231,7 @@
     </row>
     <row r="198" spans="2:5">
       <c r="B198" s="8" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C198" s="1" t="s">
         <v>20</v>
@@ -3229,7 +3256,7 @@
     </row>
     <row r="200" spans="3:5">
       <c r="C200" s="9" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D200" s="9" t="s">
         <v>26</v>
@@ -3240,7 +3267,7 @@
     </row>
     <row r="201" spans="3:5">
       <c r="C201" s="9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D201" s="9" t="s">
         <v>26</v>
@@ -3251,13 +3278,13 @@
     </row>
     <row r="202" spans="3:5">
       <c r="C202" s="9" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D202" s="9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E202" s="9" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="203" spans="3:5">
@@ -3268,7 +3295,7 @@
         <v>26</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
     </row>
     <row r="205" spans="2:4">
@@ -3276,7 +3303,7 @@
         <v>28</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D205" s="1" t="s">
         <v>30</v>
@@ -3298,7 +3325,7 @@
     </row>
     <row r="209" spans="2:5">
       <c r="B209" s="11" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>20</v>
@@ -3323,7 +3350,7 @@
     </row>
     <row r="211" spans="3:5">
       <c r="C211" s="9" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D211" s="9" t="s">
         <v>26</v>
@@ -3334,7 +3361,7 @@
     </row>
     <row r="212" spans="3:5">
       <c r="C212" s="9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D212" s="9" t="s">
         <v>26</v>
@@ -3351,7 +3378,7 @@
         <v>26</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
     </row>
     <row r="215" spans="2:4">
@@ -3359,7 +3386,7 @@
         <v>28</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D215" s="1" t="s">
         <v>30</v>
@@ -3377,7 +3404,7 @@
   <sheetPr/>
   <dimension ref="B3:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -3389,16 +3416,16 @@
   <sheetData>
     <row r="3" spans="2:5">
       <c r="B3" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D3" s="21" t="s">
         <v>30</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="2:5">
@@ -3409,105 +3436,105 @@
         <v>100</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C5" s="9">
         <v>101</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E5" s="12"/>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C6" s="9">
         <v>102</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C7" s="9">
         <v>103</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C8" s="9">
         <v>104</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C9" s="9">
         <v>105</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C10" s="9">
         <v>106</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E10" s="12"/>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C11" s="9">
         <v>107</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C12" s="9">
         <v>108</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E12" s="12"/>
     </row>
@@ -3536,58 +3563,58 @@
   <sheetData>
     <row r="3" spans="2:5">
       <c r="B3" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D3" s="21" t="s">
         <v>30</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="2:5">
       <c r="B4" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C4" s="9">
         <v>0</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C5" s="9">
         <v>255</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -3599,10 +3626,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B3:E58"/>
+  <dimension ref="B3:E80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3615,40 +3642,40 @@
   <sheetData>
     <row r="3" ht="27" spans="2:3">
       <c r="B3" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" ht="54" spans="2:5">
@@ -3659,10 +3686,10 @@
         <v>6</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="2:5">
@@ -3673,7 +3700,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E9" s="1"/>
     </row>
@@ -3685,10 +3712,10 @@
         <v>2</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="2:5">
@@ -3699,7 +3726,7 @@
         <v>6</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E11" s="1"/>
     </row>
@@ -3708,10 +3735,10 @@
         <v>16</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E12" s="1"/>
     </row>
@@ -3723,10 +3750,10 @@
         <v>1</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="2:4">
@@ -3741,7 +3768,7 @@
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="2:5">
@@ -3760,7 +3787,7 @@
     </row>
     <row r="20" spans="2:5">
       <c r="B20" s="8" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>20</v>
@@ -3785,7 +3812,7 @@
     </row>
     <row r="22" spans="3:5">
       <c r="C22" s="9" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>26</v>
@@ -3796,7 +3823,7 @@
     </row>
     <row r="23" spans="3:5">
       <c r="C23" s="9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>26</v>
@@ -3813,7 +3840,7 @@
         <v>26</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="2:4">
@@ -3821,7 +3848,7 @@
         <v>28</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>30</v>
@@ -3843,7 +3870,7 @@
     </row>
     <row r="30" spans="2:5">
       <c r="B30" s="11" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>20</v>
@@ -3868,7 +3895,7 @@
     </row>
     <row r="32" spans="3:5">
       <c r="C32" s="9" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D32" s="9" t="s">
         <v>26</v>
@@ -3879,7 +3906,7 @@
     </row>
     <row r="33" spans="3:5">
       <c r="C33" s="9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D33" s="9" t="s">
         <v>26</v>
@@ -3890,13 +3917,13 @@
     </row>
     <row r="34" spans="3:5">
       <c r="C34" s="9" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="3:5">
@@ -3907,7 +3934,7 @@
         <v>26</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" spans="2:4">
@@ -3915,7 +3942,7 @@
         <v>28</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>30</v>
@@ -3937,7 +3964,7 @@
     </row>
     <row r="41" spans="2:5">
       <c r="B41" s="8" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>20</v>
@@ -3962,7 +3989,7 @@
     </row>
     <row r="43" spans="3:5">
       <c r="C43" s="9" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D43" s="9" t="s">
         <v>26</v>
@@ -3973,7 +4000,7 @@
     </row>
     <row r="44" spans="3:5">
       <c r="C44" s="9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D44" s="9" t="s">
         <v>26</v>
@@ -3984,13 +4011,13 @@
     </row>
     <row r="45" spans="3:5">
       <c r="C45" s="9" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46" spans="3:5">
@@ -4001,7 +4028,7 @@
         <v>26</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
     </row>
     <row r="48" spans="2:4">
@@ -4009,7 +4036,7 @@
         <v>28</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>30</v>
@@ -4031,7 +4058,7 @@
     </row>
     <row r="52" spans="2:5">
       <c r="B52" s="11" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>20</v>
@@ -4056,7 +4083,7 @@
     </row>
     <row r="54" spans="3:5">
       <c r="C54" s="9" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D54" s="9" t="s">
         <v>26</v>
@@ -4067,7 +4094,7 @@
     </row>
     <row r="55" spans="3:5">
       <c r="C55" s="9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D55" s="9" t="s">
         <v>26</v>
@@ -4084,7 +4111,7 @@
         <v>26</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
     </row>
     <row r="58" spans="2:4">
@@ -4092,9 +4119,191 @@
         <v>28</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D58" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5">
+      <c r="B62" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C62" t="s">
+        <v>16</v>
+      </c>
+      <c r="D62" t="s">
+        <v>17</v>
+      </c>
+      <c r="E62" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5">
+      <c r="B63" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E63" s="1">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="64" spans="3:5">
+      <c r="C64" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D64" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E64" s="9">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="65" spans="3:5">
+      <c r="C65" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E65" s="9">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="66" spans="3:5">
+      <c r="C66" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E66" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="3:5">
+      <c r="C67" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E67" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="3:5">
+      <c r="C68" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4">
+      <c r="B70" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5">
+      <c r="B73" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C73" t="s">
+        <v>16</v>
+      </c>
+      <c r="D73" t="s">
+        <v>17</v>
+      </c>
+      <c r="E73" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5">
+      <c r="B74" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E74" s="1">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="75" spans="3:5">
+      <c r="C75" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D75" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E75" s="9">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="76" spans="3:5">
+      <c r="C76" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D76" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E76" s="9">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="77" spans="3:5">
+      <c r="C77" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D77" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E77" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="3:5">
+      <c r="C78" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4">
+      <c r="B80" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D80" s="1" t="s">
         <v>30</v>
       </c>
     </row>
@@ -4124,37 +4333,37 @@
   <sheetData>
     <row r="3" ht="40.5" spans="2:3">
       <c r="B3" s="1" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="2:4">
       <c r="B7" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" ht="40.5" spans="2:4">
@@ -4165,7 +4374,7 @@
         <v>32</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="2:4">
@@ -4173,15 +4382,15 @@
         <v>32</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="2:5">
@@ -4200,7 +4409,7 @@
     </row>
     <row r="17" spans="2:5">
       <c r="B17" s="8" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>20</v>
@@ -4225,7 +4434,7 @@
     </row>
     <row r="19" spans="3:5">
       <c r="C19" s="9" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>26</v>
@@ -4236,7 +4445,7 @@
     </row>
     <row r="20" spans="3:5">
       <c r="C20" s="9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>26</v>
@@ -4253,7 +4462,7 @@
         <v>26</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="2:4">
@@ -4261,7 +4470,7 @@
         <v>28</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>30</v>
@@ -4283,7 +4492,7 @@
     </row>
     <row r="27" spans="2:5">
       <c r="B27" s="11" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>20</v>
@@ -4308,7 +4517,7 @@
     </row>
     <row r="29" spans="3:5">
       <c r="C29" s="9" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>26</v>
@@ -4319,7 +4528,7 @@
     </row>
     <row r="30" spans="3:5">
       <c r="C30" s="9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D30" s="9" t="s">
         <v>26</v>
@@ -4330,13 +4539,13 @@
     </row>
     <row r="31" spans="3:5">
       <c r="C31" s="9" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="3:5">
@@ -4347,7 +4556,7 @@
         <v>26</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="2:4">
@@ -4355,7 +4564,7 @@
         <v>28</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>30</v>
@@ -4377,7 +4586,7 @@
     </row>
     <row r="38" spans="2:5">
       <c r="B38" s="8" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>20</v>
@@ -4402,7 +4611,7 @@
     </row>
     <row r="40" spans="3:5">
       <c r="C40" s="9" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D40" s="9" t="s">
         <v>26</v>
@@ -4413,7 +4622,7 @@
     </row>
     <row r="41" spans="3:5">
       <c r="C41" s="9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D41" s="9" t="s">
         <v>26</v>
@@ -4424,13 +4633,13 @@
     </row>
     <row r="42" spans="3:5">
       <c r="C42" s="9" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" spans="3:5">
@@ -4441,7 +4650,7 @@
         <v>26</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45" spans="2:4">
@@ -4449,7 +4658,7 @@
         <v>28</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>30</v>
@@ -4471,7 +4680,7 @@
     </row>
     <row r="49" spans="2:5">
       <c r="B49" s="11" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>20</v>
@@ -4496,7 +4705,7 @@
     </row>
     <row r="51" spans="3:5">
       <c r="C51" s="9" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D51" s="9" t="s">
         <v>26</v>
@@ -4507,7 +4716,7 @@
     </row>
     <row r="52" spans="3:5">
       <c r="C52" s="9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D52" s="9" t="s">
         <v>26</v>
@@ -4524,7 +4733,7 @@
         <v>26</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
     </row>
     <row r="55" spans="2:4">
@@ -4532,7 +4741,7 @@
         <v>28</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>30</v>
@@ -4563,32 +4772,32 @@
   <sheetData>
     <row r="3" spans="2:3">
       <c r="B3" s="1" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" s="1" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="2:5">
@@ -4596,26 +4805,26 @@
         <v>0</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="E7" s="12"/>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" s="5" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="1"/>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="2:5">
@@ -4634,7 +4843,7 @@
     </row>
     <row r="16" spans="2:5">
       <c r="B16" s="8" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>20</v>
@@ -4659,7 +4868,7 @@
     </row>
     <row r="18" spans="3:5">
       <c r="C18" s="13" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D18" s="13" t="s">
         <v>21</v>
@@ -4676,7 +4885,7 @@
         <v>26</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="2:4">
@@ -4684,7 +4893,7 @@
         <v>28</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>30</v>
@@ -4706,7 +4915,7 @@
     </row>
     <row r="25" spans="2:5">
       <c r="B25" s="11" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>20</v>
@@ -4731,7 +4940,7 @@
     </row>
     <row r="27" spans="3:5">
       <c r="C27" s="13" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D27" s="13" t="s">
         <v>21</v>
@@ -4742,7 +4951,7 @@
     </row>
     <row r="28" spans="3:5">
       <c r="C28" s="13" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="D28" s="13" t="s">
         <v>21</v>
@@ -4753,13 +4962,13 @@
     </row>
     <row r="29" spans="3:5">
       <c r="C29" s="13" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
     </row>
     <row r="30" spans="3:5">
@@ -4770,7 +4979,7 @@
         <v>26</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="2:4">
@@ -4778,7 +4987,7 @@
         <v>28</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>30</v>
@@ -4809,40 +5018,40 @@
   <sheetData>
     <row r="3" ht="27" spans="2:3">
       <c r="B3" s="1" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" ht="54" spans="2:5">
@@ -4853,10 +5062,10 @@
         <v>4</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="2:5">
@@ -4867,7 +5076,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E9" s="1"/>
     </row>
@@ -4876,16 +5085,16 @@
         <v>8</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E10" s="1"/>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="2:5">
@@ -4904,7 +5113,7 @@
     </row>
     <row r="18" spans="2:5">
       <c r="B18" s="8" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>20</v>
@@ -4929,7 +5138,7 @@
     </row>
     <row r="20" spans="3:5">
       <c r="C20" s="9" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>26</v>
@@ -4940,7 +5149,7 @@
     </row>
     <row r="21" spans="3:5">
       <c r="C21" s="9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D21" s="9" t="s">
         <v>26</v>
@@ -4957,7 +5166,7 @@
         <v>26</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="2:4">
@@ -4965,7 +5174,7 @@
         <v>28</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>30</v>
@@ -4987,7 +5196,7 @@
     </row>
     <row r="28" spans="2:5">
       <c r="B28" s="11" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>20</v>
@@ -5012,7 +5221,7 @@
     </row>
     <row r="30" spans="3:5">
       <c r="C30" s="9" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D30" s="9" t="s">
         <v>26</v>
@@ -5023,7 +5232,7 @@
     </row>
     <row r="31" spans="3:5">
       <c r="C31" s="9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D31" s="9" t="s">
         <v>26</v>
@@ -5034,13 +5243,13 @@
     </row>
     <row r="32" spans="3:5">
       <c r="C32" s="9" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="3:5">
@@ -5051,7 +5260,7 @@
         <v>26</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="2:4">
@@ -5059,7 +5268,7 @@
         <v>28</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>30</v>
@@ -5081,7 +5290,7 @@
     </row>
     <row r="39" spans="2:5">
       <c r="B39" s="8" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>20</v>
@@ -5106,7 +5315,7 @@
     </row>
     <row r="41" spans="3:5">
       <c r="C41" s="9" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D41" s="9" t="s">
         <v>26</v>
@@ -5117,7 +5326,7 @@
     </row>
     <row r="42" spans="3:5">
       <c r="C42" s="9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D42" s="9" t="s">
         <v>26</v>
@@ -5128,13 +5337,13 @@
     </row>
     <row r="43" spans="3:5">
       <c r="C43" s="9" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44" spans="3:5">
@@ -5145,7 +5354,7 @@
         <v>26</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46" spans="2:4">
@@ -5153,7 +5362,7 @@
         <v>28</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>30</v>
@@ -5175,7 +5384,7 @@
     </row>
     <row r="50" spans="2:5">
       <c r="B50" s="11" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>20</v>
@@ -5200,7 +5409,7 @@
     </row>
     <row r="52" spans="3:5">
       <c r="C52" s="9" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D52" s="9" t="s">
         <v>26</v>
@@ -5211,7 +5420,7 @@
     </row>
     <row r="53" spans="3:5">
       <c r="C53" s="9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D53" s="9" t="s">
         <v>26</v>
@@ -5228,7 +5437,7 @@
         <v>26</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
     </row>
     <row r="56" spans="2:4">
@@ -5236,7 +5445,7 @@
         <v>28</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>30</v>
